--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AA25781-F3CB-4C70-B593-B0E9A612F36E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122429D-597F-49D4-9612-71525B0E14AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$1407</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$1486</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8915" uniqueCount="223">
   <si>
     <t>ID de caso</t>
   </si>
@@ -660,11 +668,44 @@
   <si>
     <t>Magdalena</t>
   </si>
+  <si>
+    <t>Barranquilla D.E.</t>
+  </si>
+  <si>
+    <t>Guacarí</t>
+  </si>
+  <si>
+    <t>Colombiana</t>
+  </si>
+  <si>
+    <t>Apartadó</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>Tenjo</t>
+  </si>
+  <si>
+    <t>Turqía</t>
+  </si>
+  <si>
+    <t>Colomabia</t>
+  </si>
+  <si>
+    <t>Buenaventura</t>
+  </si>
+  <si>
+    <t>Acacias</t>
+  </si>
+  <si>
+    <t>Bogotá D.C.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1500,16 +1541,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1407"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P18" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2092,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3544,7 +3586,7 @@
         <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6481,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7345,7 +7387,7 @@
         <v>58</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F177" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14272,7 +14314,7 @@
         <v>11</v>
       </c>
       <c r="E386" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F386" s="2" t="str">
         <f t="shared" si="5"/>
@@ -19351,7 +19393,7 @@
         <v>211</v>
       </c>
       <c r="E539" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F539" s="2" t="str">
         <f t="shared" si="8"/>
@@ -33955,7 +33997,7 @@
         <v>58</v>
       </c>
       <c r="E979" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F979" s="2" t="str">
         <f t="shared" si="15"/>
@@ -40573,7 +40615,7 @@
         <v>131</v>
       </c>
       <c r="E1179" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1179" s="2" t="str">
         <f t="shared" si="18"/>
@@ -41437,7 +41479,7 @@
         <v>45</v>
       </c>
       <c r="E1205" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1205" s="2" t="str">
         <f t="shared" si="18"/>
@@ -44293,7 +44335,7 @@
         <v>45</v>
       </c>
       <c r="E1291" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1291" s="2" t="str">
         <f t="shared" si="20"/>
@@ -46108,7 +46150,7 @@
         <v>11</v>
       </c>
       <c r="E1346" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1346" s="2" t="str">
         <f t="shared" si="20"/>
@@ -46123,6 +46165,12 @@
       <c r="I1346" t="s">
         <v>22</v>
       </c>
+      <c r="J1346">
+        <v>33</v>
+      </c>
+      <c r="K1346" s="1">
+        <v>43926</v>
+      </c>
       <c r="L1346">
         <v>85</v>
       </c>
@@ -46144,7 +46192,7 @@
         <v>24</v>
       </c>
       <c r="F1347" s="2" t="str">
-        <f t="shared" ref="F1347:F1407" si="21">IF(L1347&lt;10,"0-9",IF(L1347&lt;20,"10-19",IF(L1347&lt;30,"20-29",IF(L1347&lt;40,"30-39",IF(L1347&lt;50,"40-49",IF(L1347&lt;60,"50-59",IF(L1347&lt;70,"60-69",IF(L1347&lt;80,"70-79",IF(L1347&lt;90,"80-89",IF(L1347&lt;100,"90-99","&gt;100"))))))))))</f>
+        <f t="shared" ref="F1347:F1410" si="21">IF(L1347&lt;10,"0-9",IF(L1347&lt;20,"10-19",IF(L1347&lt;30,"20-29",IF(L1347&lt;40,"30-39",IF(L1347&lt;50,"40-49",IF(L1347&lt;60,"50-59",IF(L1347&lt;70,"60-69",IF(L1347&lt;80,"70-79",IF(L1347&lt;90,"80-89",IF(L1347&lt;100,"90-99","&gt;100"))))))))))</f>
         <v>20-29</v>
       </c>
       <c r="G1347" t="s">
@@ -47461,7 +47509,7 @@
         <v>11</v>
       </c>
       <c r="E1387" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F1387" s="2" t="str">
         <f t="shared" si="21"/>
@@ -47476,6 +47524,12 @@
       <c r="I1387" t="s">
         <v>22</v>
       </c>
+      <c r="J1387">
+        <v>34</v>
+      </c>
+      <c r="K1387" s="1">
+        <v>43926</v>
+      </c>
       <c r="L1387">
         <v>63</v>
       </c>
@@ -48140,11 +48194,2624 @@
         <v>45</v>
       </c>
     </row>
+    <row r="1408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1407</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1408" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1408">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>1408</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1409" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1409">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>1409</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1410" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1410">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>1410</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1411" s="2" t="str">
+        <f t="shared" ref="F1411:F1474" si="22">IF(L1411&lt;10,"0-9",IF(L1411&lt;20,"10-19",IF(L1411&lt;30,"20-29",IF(L1411&lt;40,"30-39",IF(L1411&lt;50,"40-49",IF(L1411&lt;60,"50-59",IF(L1411&lt;70,"60-69",IF(L1411&lt;80,"70-79",IF(L1411&lt;90,"80-89",IF(L1411&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>50-59</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1411">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>1411</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1412" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1412">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>1412</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1413" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1413">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>1413</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1414" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1414">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>1414</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1415" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1415">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>1415</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1416" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1416">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>1416</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1417" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1417">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1417</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1418" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1418">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>1418</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1419" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1419">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1419</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1420" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1420">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>1420</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1421" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1421">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>1421</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1422" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1422">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>1422</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1423" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1423">
+        <v>35</v>
+      </c>
+      <c r="K1423" s="1">
+        <v>43926</v>
+      </c>
+      <c r="L1423">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>1423</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1424" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1424">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>1424</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1425" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1425">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>1425</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1426" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1426">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>1426</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1427" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1427">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>1427</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1428" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1428">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>1428</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1429" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1429">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>1429</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1430" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1430">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>1430</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1431" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1431</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1432" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1432">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>1432</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1433" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1433">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>1433</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1434" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1434">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>1434</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1435" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1435">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>1435</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1436" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1436">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>1436</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1437" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1437">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>1437</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1438" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1438">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>1438</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1439" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1439">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1439</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1440" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1440">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>1440</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1441" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1441">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>1441</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1442" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1442">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>1442</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1443" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1443">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>1443</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1444" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1444">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>1444</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1445" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1445">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1445</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1446" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1446">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>1446</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1447" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1447">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>1447</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1448" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1448">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>1448</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1449" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1449">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>1449</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1450" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1450">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>1450</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1451" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1451">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>1451</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1452" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1452">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>1452</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1453" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1453">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>1453</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1454" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1454">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>1454</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1455" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1455">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>1455</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1456" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1456">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>1456</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1457" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1457">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>1457</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1458" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1458">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>1458</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1459" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1459">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1459</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1460" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1460">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>1460</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1461" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1461">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>1461</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1462" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1462">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>1462</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1463" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1463">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>1463</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1464" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1464">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>1464</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1465" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1465">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>1465</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1466" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1466">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>1466</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1467" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1467">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1467</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1468" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1468">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>1468</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1469" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1469">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>1469</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1470" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1470">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>1470</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1471" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1471">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>1471</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1472" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1472">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>1472</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1473" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>80-89</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1473">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1473</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1474" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1474">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1474</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1475" s="2" t="str">
+        <f t="shared" ref="F1475:F1486" si="23">IF(L1475&lt;10,"0-9",IF(L1475&lt;20,"10-19",IF(L1475&lt;30,"20-29",IF(L1475&lt;40,"30-39",IF(L1475&lt;50,"40-49",IF(L1475&lt;60,"50-59",IF(L1475&lt;70,"60-69",IF(L1475&lt;80,"70-79",IF(L1475&lt;90,"80-89",IF(L1475&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1475">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>1475</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1476" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1476">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>1476</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1477" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1477">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>1477</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1478" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1478">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>1478</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1479" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1479">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>1479</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1480" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1480">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1480</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1481" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1481">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>1481</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1482" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>1482</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1483" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1483">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>1483</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1484" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>90-99</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1484">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>1484</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1485" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1485">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>1485</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1486" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1486">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1407"/>
+  <autoFilter ref="A1:L1486" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F1407" twoDigitTextYear="1"/>
+    <ignoredError sqref="F2 F3:F1407 F1408:F1486" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10022C15-3989-4D63-B900-4BA7151A976C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2E811-FC5C-4963-9B98-76B0A7DEF377}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:L1580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1591" sqref="E1591"/>
+      <selection activeCell="K1594" sqref="K1594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,6 +6607,12 @@
       <c r="I153" t="s">
         <v>26</v>
       </c>
+      <c r="J153">
+        <v>36</v>
+      </c>
+      <c r="K153" s="1">
+        <v>43927</v>
+      </c>
       <c r="L153">
         <v>65</v>
       </c>
@@ -10234,6 +10240,12 @@
       <c r="I262" t="s">
         <v>22</v>
       </c>
+      <c r="J262">
+        <v>37</v>
+      </c>
+      <c r="K262" s="1">
+        <v>43927</v>
+      </c>
       <c r="L262">
         <v>61</v>
       </c>
@@ -36661,6 +36673,12 @@
       <c r="I1059" t="s">
         <v>22</v>
       </c>
+      <c r="J1059">
+        <v>38</v>
+      </c>
+      <c r="K1059" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1059">
         <v>39</v>
       </c>
@@ -41359,6 +41377,12 @@
       <c r="I1201" t="s">
         <v>26</v>
       </c>
+      <c r="J1201">
+        <v>39</v>
+      </c>
+      <c r="K1201" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1201">
         <v>94</v>
       </c>
@@ -42295,6 +42319,12 @@
       <c r="I1229" t="s">
         <v>22</v>
       </c>
+      <c r="J1229">
+        <v>40</v>
+      </c>
+      <c r="K1229" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1229">
         <v>36</v>
       </c>
@@ -42625,6 +42655,12 @@
       <c r="I1239" t="s">
         <v>22</v>
       </c>
+      <c r="J1239">
+        <v>41</v>
+      </c>
+      <c r="K1239" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1239">
         <v>82</v>
       </c>
@@ -47065,6 +47101,12 @@
       <c r="I1373" t="s">
         <v>22</v>
       </c>
+      <c r="J1373">
+        <v>42</v>
+      </c>
+      <c r="K1373" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1373">
         <v>72</v>
       </c>
@@ -47632,6 +47674,12 @@
       <c r="I1390" t="s">
         <v>22</v>
       </c>
+      <c r="J1390">
+        <v>43</v>
+      </c>
+      <c r="K1390" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1390">
         <v>90</v>
       </c>
@@ -49849,6 +49897,12 @@
       <c r="I1457" t="s">
         <v>22</v>
       </c>
+      <c r="J1457">
+        <v>44</v>
+      </c>
+      <c r="K1457" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1457">
         <v>57</v>
       </c>
@@ -51763,6 +51817,12 @@
       <c r="I1515" t="s">
         <v>22</v>
       </c>
+      <c r="J1515">
+        <v>45</v>
+      </c>
+      <c r="K1515" s="1">
+        <v>43927</v>
+      </c>
       <c r="L1515">
         <v>91</v>
       </c>
@@ -53742,6 +53802,12 @@
       </c>
       <c r="I1575" t="s">
         <v>22</v>
+      </c>
+      <c r="J1575">
+        <v>46</v>
+      </c>
+      <c r="K1575" s="1">
+        <v>43927</v>
       </c>
       <c r="L1575">
         <v>3</v>

--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2E811-FC5C-4963-9B98-76B0A7DEF377}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6031075-7957-4B84-B4FA-A6DC6734353E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$1580</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$1781</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9478" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10676" uniqueCount="240">
   <si>
     <t>ID de caso</t>
   </si>
@@ -703,6 +703,54 @@
   </si>
   <si>
     <t>Turquia</t>
+  </si>
+  <si>
+    <t>Cartagena D.T. y C</t>
+  </si>
+  <si>
+    <t>Yarumal</t>
+  </si>
+  <si>
+    <t>Curazao</t>
+  </si>
+  <si>
+    <t>Barranquilla D.E.</t>
+  </si>
+  <si>
+    <t>españa</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Puerto Tejada</t>
+  </si>
+  <si>
+    <t>Medeliin</t>
+  </si>
+  <si>
+    <t>Itagüi</t>
+  </si>
+  <si>
+    <t>Ponedera</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Galapa</t>
+  </si>
+  <si>
+    <t>Montería</t>
+  </si>
+  <si>
+    <t>Ciénaga de Oro</t>
+  </si>
+  <si>
+    <t>Santa Marta D.T. y C.</t>
+  </si>
+  <si>
+    <t>Santa Rosa de Cabal</t>
   </si>
 </sst>
 </file>
@@ -1545,16 +1593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1580"/>
+  <dimension ref="A1:L1781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1594" sqref="K1594"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1079" sqref="M1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2302,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2514,7 @@
         <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2976,7 @@
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3358,7 +3405,7 @@
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4150,7 +4197,7 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4414,7 +4461,7 @@
         <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5074,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5701,7 +5748,7 @@
         <v>148</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5899,7 +5946,7 @@
         <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F132" s="2" t="str">
         <f t="shared" si="2"/>
@@ -5965,7 +6012,7 @@
         <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F134" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6631,7 +6678,7 @@
         <v>220</v>
       </c>
       <c r="E154" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6646,6 +6693,12 @@
       <c r="I154" t="s">
         <v>22</v>
       </c>
+      <c r="J154">
+        <v>47</v>
+      </c>
+      <c r="K154" s="1">
+        <v>43928</v>
+      </c>
       <c r="L154">
         <v>53</v>
       </c>
@@ -7544,7 +7597,7 @@
         <v>18</v>
       </c>
       <c r="L181">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -7660,7 +7713,7 @@
         <v>37</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F185" s="2" t="str">
         <f t="shared" si="2"/>
@@ -9394,7 +9447,7 @@
         <v>20</v>
       </c>
       <c r="E237" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F237" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10396,7 +10449,7 @@
         <v>148</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F267" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11056,7 +11109,7 @@
         <v>29</v>
       </c>
       <c r="E287" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F287" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11071,6 +11124,12 @@
       <c r="I287" t="s">
         <v>22</v>
       </c>
+      <c r="J287">
+        <v>48</v>
+      </c>
+      <c r="K287" s="1">
+        <v>43928</v>
+      </c>
       <c r="L287">
         <v>83</v>
       </c>
@@ -11188,7 +11247,7 @@
         <v>211</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F291" s="2" t="str">
         <f t="shared" si="4"/>
@@ -12128,7 +12187,7 @@
         <v>22</v>
       </c>
       <c r="L319">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -28543,7 +28602,7 @@
         <v>91</v>
       </c>
       <c r="E814" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F814" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28609,7 +28668,7 @@
         <v>91</v>
       </c>
       <c r="E816" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F816" s="2" t="str">
         <f t="shared" si="12"/>
@@ -29743,7 +29802,7 @@
         <v>39</v>
       </c>
       <c r="E850" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F850" s="2" t="str">
         <f t="shared" si="13"/>
@@ -33781,7 +33840,7 @@
         <v>64</v>
       </c>
       <c r="E972" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F972" s="2" t="str">
         <f t="shared" si="15"/>
@@ -34309,7 +34368,7 @@
         <v>220</v>
       </c>
       <c r="E988" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F988" s="2" t="str">
         <f t="shared" si="15"/>
@@ -34324,6 +34383,12 @@
       <c r="I988" t="s">
         <v>22</v>
       </c>
+      <c r="J988">
+        <v>49</v>
+      </c>
+      <c r="K988" s="1">
+        <v>43928</v>
+      </c>
       <c r="L988">
         <v>73</v>
       </c>
@@ -38320,7 +38385,7 @@
         <v>220</v>
       </c>
       <c r="E1109" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F1109" s="2" t="str">
         <f t="shared" si="17"/>
@@ -40372,7 +40437,7 @@
         <v>160</v>
       </c>
       <c r="E1171" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1171" s="2" t="str">
         <f t="shared" si="18"/>
@@ -40387,6 +40452,12 @@
       <c r="I1171" t="s">
         <v>22</v>
       </c>
+      <c r="J1171">
+        <v>50</v>
+      </c>
+      <c r="K1171" s="1">
+        <v>43928</v>
+      </c>
       <c r="L1171">
         <v>85</v>
       </c>
@@ -41572,7 +41643,7 @@
         <v>131</v>
       </c>
       <c r="E1207" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1207" s="2" t="str">
         <f t="shared" si="18"/>
@@ -41638,7 +41709,7 @@
         <v>131</v>
       </c>
       <c r="E1209" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1209" s="2" t="str">
         <f t="shared" si="18"/>
@@ -48259,7 +48330,7 @@
         <v>131</v>
       </c>
       <c r="E1408" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F1408" s="2" t="str">
         <f t="shared" si="21"/>
@@ -50812,7 +50883,7 @@
         <v>220</v>
       </c>
       <c r="E1485" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1485" s="2" t="str">
         <f t="shared" si="23"/>
@@ -50845,7 +50916,7 @@
         <v>220</v>
       </c>
       <c r="E1486" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1486" s="2" t="str">
         <f t="shared" si="23"/>
@@ -52603,7 +52674,7 @@
         <v>43</v>
       </c>
       <c r="F1539" s="2" t="str">
-        <f t="shared" ref="F1539:F1580" si="24">IF(L1539&lt;10,"0-9",IF(L1539&lt;20,"10-19",IF(L1539&lt;30,"20-29",IF(L1539&lt;40,"30-39",IF(L1539&lt;50,"40-49",IF(L1539&lt;60,"50-59",IF(L1539&lt;70,"60-69",IF(L1539&lt;80,"70-79",IF(L1539&lt;90,"80-89",IF(L1539&lt;100,"90-99","&gt;100"))))))))))</f>
+        <f t="shared" ref="F1539:F1602" si="24">IF(L1539&lt;10,"0-9",IF(L1539&lt;20,"10-19",IF(L1539&lt;30,"20-29",IF(L1539&lt;40,"30-39",IF(L1539&lt;50,"40-49",IF(L1539&lt;60,"50-59",IF(L1539&lt;70,"60-69",IF(L1539&lt;80,"70-79",IF(L1539&lt;90,"80-89",IF(L1539&lt;100,"90-99","&gt;100"))))))))))</f>
         <v>10-19</v>
       </c>
       <c r="G1539" t="s">
@@ -53978,11 +54049,6644 @@
         <v>73</v>
       </c>
     </row>
+    <row r="1581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>1580</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1581" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1581">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>1581</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1582" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1582">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>1582</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1583" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1583">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>1583</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1584" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1584">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>1584</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1585" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1585">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>1585</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1586" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1586">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>1586</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1587" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1587">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>1587</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1588" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1588">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>1588</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1589" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1589">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>1589</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1590" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1590">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>1590</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1591" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1591">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>1591</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1592" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1592">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>1592</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1593" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1593">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>1593</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1594" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1594" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>1594</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1595" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1595">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>1595</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1596" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1596">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>1596</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1597" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1597" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1597">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>1597</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1598" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1598" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1598">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>1598</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1599" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1599" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1599">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>1599</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1600" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1600" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1600">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>1600</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1601" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1601" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1601">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>1601</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1602" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1602" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1602">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>1602</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1603" s="2" t="str">
+        <f t="shared" ref="F1603:F1666" si="25">IF(L1603&lt;10,"0-9",IF(L1603&lt;20,"10-19",IF(L1603&lt;30,"20-29",IF(L1603&lt;40,"30-39",IF(L1603&lt;50,"40-49",IF(L1603&lt;60,"50-59",IF(L1603&lt;70,"60-69",IF(L1603&lt;80,"70-79",IF(L1603&lt;90,"80-89",IF(L1603&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>20-29</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1603" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1603">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>1603</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1604" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1604" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1604" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1604">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>1604</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1605" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1605" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1605">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>1605</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1606" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1606" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1606">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>1606</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1607" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1607" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1607">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>1607</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1608" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1608" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1608">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>1608</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1609" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1609" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1609">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>1609</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1610" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1610" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1610">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>1610</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1611" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1611" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1611">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>1611</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1612" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1612" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1612">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>1612</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1613" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1613" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1613">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>1613</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1614" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1614" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1614">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>1614</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1615" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1615" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1615">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>1615</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1616" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1616" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1616">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>1616</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1617" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1617" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1617">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>1617</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1618" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1618" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1618">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>1618</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1619" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1619" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1619">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>1619</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1620" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1620" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1620">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>1620</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1621" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1621" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1621">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>1621</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1622" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1622" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1622">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>1622</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1623" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1623" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1623">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>1623</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1624" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1624" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1624">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>1624</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1625" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1625" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1625">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>1625</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1626" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1626" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1626">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>1626</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1627" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1627" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1627">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>1627</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1628" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1628" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1628">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>1628</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1629" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1629" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1629">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>1629</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1630" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1630" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1630">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>1630</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1631" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1631" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1631">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>1631</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1632" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1632" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1632">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>1632</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1633" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1633" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1633">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>1633</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1634" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1634" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1634">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>1634</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1635" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1635" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1635">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>1635</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1636" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1636" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1636">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>1636</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1637" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1637" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1637">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>1637</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1638" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1638">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>1638</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1639" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1639" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1639">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>1639</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1640" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1640" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1640">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>1640</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1641" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1641" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1641">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>1641</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1642" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1642" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1642">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>1642</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1643" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1643" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1643">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>1643</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1644" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1644" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1644">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>1644</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1645" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1645" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1645">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>1645</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1646" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1646" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1646">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>1646</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1647" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1647" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1647">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>1647</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1648" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1648" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1648">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>1648</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1649" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1649" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1649">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>1649</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1650" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1650" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1650">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>1650</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1651" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1651" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1651">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>1651</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1652" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1652" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1652">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>1652</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1653" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1653" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1653">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>1653</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1654" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1654" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1654">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>1654</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1655" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1655" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1655">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>1655</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1656" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1656" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1656">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>1656</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1657" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1657" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1657">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>1657</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1658" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1658" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1658">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>1658</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1659" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1659" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1659">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>1659</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1660" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1660">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>1660</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1661" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1661" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1661">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>1661</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1662" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1662" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1662" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1662">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>1662</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1663" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1663" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1663" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1663">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>1663</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1664" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1664" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1664">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>1664</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1665" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1665" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1665">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>1665</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1666" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1666" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1666" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1666">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>1666</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1667" s="2" t="str">
+        <f t="shared" ref="F1667:F1730" si="26">IF(L1667&lt;10,"0-9",IF(L1667&lt;20,"10-19",IF(L1667&lt;30,"20-29",IF(L1667&lt;40,"30-39",IF(L1667&lt;50,"40-49",IF(L1667&lt;60,"50-59",IF(L1667&lt;70,"60-69",IF(L1667&lt;80,"70-79",IF(L1667&lt;90,"80-89",IF(L1667&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>20-29</v>
+      </c>
+      <c r="G1667" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1667" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1667" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1667">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>1667</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1668" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1668" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1668" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1668" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1668">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>1668</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1669" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1669" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1669" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1669">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>1669</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1670" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1670" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1670" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1670">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>1670</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1671" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1671" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1671" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1671">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>1671</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1672" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1672">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>1672</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1673" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1673" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1673" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1673">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>1673</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1674" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1674" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1674" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1674" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1674">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>1674</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1675" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1675" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1675" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1675">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>1675</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1676" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1676" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1676" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1676" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1676">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>1676</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1677" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1677" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1677" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1677">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>1677</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1678" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1678" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1678" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1678">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>1678</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1679" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1679" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1679" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1679" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1679">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>1679</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1680" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1680" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1680" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1680" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1680">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>1680</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1681" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1681" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1681" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1681" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1681">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>1681</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1682" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1682" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1682" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1682" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1682">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>1682</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1683" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1683" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1683" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1683">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>1683</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1684" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1684" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1684" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1684" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1684">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>1684</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1685" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1685" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1685" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1685" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1685">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>1685</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1686" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1686" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1686" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1686" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1686">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>1686</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1687" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1687" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1687" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1687" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1687">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>1687</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1688" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1688" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1688" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1688" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1688">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>1688</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1689" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1689" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1689" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1689" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1689">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>1689</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1690" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1690" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1690" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1690" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1690">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>1690</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1691" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1691" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1691" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1691" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1691">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>1691</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1692" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1692" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1692" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1692" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1692">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>1692</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1693" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1693" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1693" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1693">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>1693</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1694" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1694" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1694" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1694" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1694">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>1694</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1695" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1695" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1695" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1695" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1695">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>1695</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1696" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1696" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1696" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1696" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1696">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>1696</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1697" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1697" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1697" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1697" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1697">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>1697</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1698" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1698" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1698" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1698" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1698">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>1698</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1699" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1699" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1699" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1699" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1699">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>1699</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1700" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1700" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1700" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1700" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1700">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>1700</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1701" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1701" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1701" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1701">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>1701</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1702" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1702" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1702" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1702">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>1702</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1703" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1703" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1703" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1703">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>1703</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1704" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1704" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1704">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>1704</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1705" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1705" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1705">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>1705</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1706" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1706" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1706" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1706">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>1706</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1707" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1707" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1707" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1707">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>1707</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1708" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1708" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1708" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1708" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1708">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>1708</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1709" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1709" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1709" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1709" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1709">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>1709</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1710" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1710" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1710" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1710">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>1710</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1711" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1711" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1711" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1711">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>1711</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1712" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1712" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1712" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1712" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1712">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>1712</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1713" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1713" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1713" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1713">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>1713</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1714" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1714" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1714" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1714">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>1714</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1715" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1715" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1715" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1715">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>1715</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1716" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1716" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1716">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>1716</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1717" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1717" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1717" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1717">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>1717</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1718" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1718" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1718" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1718" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1718">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>1718</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1719" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1719" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1719" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1719" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1719">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>1719</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1720" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1720" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1720" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1720" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1720">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>1720</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1721" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1721" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1721" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1721" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1721">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>1721</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1722" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1722" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1722" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1722" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1722">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>1722</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1723" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1723" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1723" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1723">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>1723</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1724" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1724" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1724">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>1724</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1725" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1725" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1725" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1725">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>1725</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1726" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1726" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1726" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1726">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>1726</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1727" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1727" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1727">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>1727</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1728" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1728" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1728">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>1728</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1729" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1729" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1729" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1729">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>1729</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1730" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1730" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1730" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1730">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>1730</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1731" s="2" t="str">
+        <f t="shared" ref="F1731:F1781" si="27">IF(L1731&lt;10,"0-9",IF(L1731&lt;20,"10-19",IF(L1731&lt;30,"20-29",IF(L1731&lt;40,"30-39",IF(L1731&lt;50,"40-49",IF(L1731&lt;60,"50-59",IF(L1731&lt;70,"60-69",IF(L1731&lt;80,"70-79",IF(L1731&lt;90,"80-89",IF(L1731&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1731" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1731" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1731">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>1731</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1732" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1732" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1732" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1732">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>1732</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1733" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1733">
+        <v>0</v>
+      </c>
+      <c r="L1733">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>1733</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1734" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1734" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1734" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>1734</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1735" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1735" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1735" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1735">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>1735</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1736" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1736" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1736" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1736">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>1736</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1737" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1737" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1737">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>1737</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1738" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1738" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1738">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>1738</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1739" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1739" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1739" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1739">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>1739</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1740" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1740" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1740">
+        <v>0</v>
+      </c>
+      <c r="L1740">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>1740</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1741" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1741">
+        <v>0</v>
+      </c>
+      <c r="L1741">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>1741</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1742" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1742" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1742">
+        <v>0</v>
+      </c>
+      <c r="L1742">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>1742</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1743" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1743">
+        <v>0</v>
+      </c>
+      <c r="L1743">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>1743</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1744" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1744" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1744">
+        <v>0</v>
+      </c>
+      <c r="L1744">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>1744</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1745" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1745" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1745" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1745">
+        <v>0</v>
+      </c>
+      <c r="L1745">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>1745</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1746" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1746" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1746" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1746">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>1746</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1747" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1747" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1747" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1747">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>1747</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1748" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1748" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1748" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1748">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>1748</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1749" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1749" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1749" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1749">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>1749</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1750" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1750" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1750" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1750">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>1750</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1751" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1751" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1751" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1751">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>1751</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1752" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1752" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1752" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1752">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>1752</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1753" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1753" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1753" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1753">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>1753</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1754" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1754" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1754" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1754">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>1754</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1755" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>80-89</v>
+      </c>
+      <c r="G1755" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1755" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1755" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1755">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>1755</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1756" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1756" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1756" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1756">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>1756</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1757" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1757" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1757" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1757">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>1757</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1758" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1758" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1758" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1758">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>1758</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1759" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1759" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1759" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1759">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>1759</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1760" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1760" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1760" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1760">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>1760</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1761" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1761" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1761" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1761">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>1761</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1762" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1762" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1762" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1762" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1762">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>1762</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1763" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1763" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1763">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>1763</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1764" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1764" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1764" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1764">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>1764</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1765" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1765" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1765" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1765">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>1765</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1766" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1766" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1766">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>1766</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1767" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1767" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1767">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>1767</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1768" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1768" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1768">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>1768</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1769" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1769">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>1769</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1770" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1770">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>1770</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1771" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1771" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1771">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>1771</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1772" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1772">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>1772</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1773" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1773">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>1773</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1774" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1774">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>1774</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1775" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1775">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>1775</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1776" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1776">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>1776</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1777" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1777" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1777">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>1777</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1778" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1778">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>1778</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1779" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1779">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>1779</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1780" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>1780</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1781" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1781">
+        <v>0</v>
+      </c>
+      <c r="L1781">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1580" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1781" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580" twoDigitTextYear="1"/>
+    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6031075-7957-4B84-B4FA-A6DC6734353E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B56AF-074D-4728-8583-BC91748D5A77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$1781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$2055</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10676" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="252">
   <si>
     <t>ID de caso</t>
   </si>
@@ -751,6 +751,42 @@
   </si>
   <si>
     <t>Santa Rosa de Cabal</t>
+  </si>
+  <si>
+    <t>La Tebaida</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>Jamundí</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>EGIPTO</t>
+  </si>
+  <si>
+    <t>Jamundi</t>
+  </si>
+  <si>
+    <t>Tenza</t>
+  </si>
+  <si>
+    <t>Villapinzón</t>
+  </si>
+  <si>
+    <t>Ginebra</t>
+  </si>
+  <si>
+    <t>Andalucía</t>
   </si>
 </sst>
 </file>
@@ -1593,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1781"/>
+  <dimension ref="A1:L2055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1079" sqref="M1079"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2847,7 @@
         <v>220</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4296,7 +4332,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6888,7 +6924,7 @@
         <v>220</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F160" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6921,7 +6957,7 @@
         <v>220</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F161" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6987,7 +7023,7 @@
         <v>220</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F163" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7218,7 +7254,7 @@
         <v>220</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F170" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7251,7 +7287,7 @@
         <v>220</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F171" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7383,7 +7419,7 @@
         <v>220</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F175" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8451,7 +8487,7 @@
         <v>220</v>
       </c>
       <c r="E207" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F207" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8484,7 +8520,7 @@
         <v>220</v>
       </c>
       <c r="E208" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F208" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9414,7 +9450,7 @@
         <v>220</v>
       </c>
       <c r="E236" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F236" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9843,7 +9879,7 @@
         <v>220</v>
       </c>
       <c r="E249" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F249" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10014,7 +10050,7 @@
         <v>220</v>
       </c>
       <c r="E254" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F254" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10179,7 +10215,7 @@
         <v>220</v>
       </c>
       <c r="E259" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F259" s="2" t="str">
         <f t="shared" ref="F259:F322" si="4">IF(L259&lt;10,"0-9",IF(L259&lt;20,"10-19",IF(L259&lt;30,"20-29",IF(L259&lt;40,"30-39",IF(L259&lt;50,"40-49",IF(L259&lt;60,"50-59",IF(L259&lt;70,"60-69",IF(L259&lt;80,"70-79",IF(L259&lt;90,"80-89",IF(L259&lt;100,"90-99","&gt;100"))))))))))</f>
@@ -10245,7 +10281,7 @@
         <v>220</v>
       </c>
       <c r="E261" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F261" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11940,7 +11976,7 @@
         <v>220</v>
       </c>
       <c r="E312" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F312" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11973,7 +12009,7 @@
         <v>220</v>
       </c>
       <c r="E313" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F313" s="2" t="str">
         <f t="shared" si="4"/>
@@ -12204,7 +12240,7 @@
         <v>58</v>
       </c>
       <c r="E320" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F320" s="2" t="str">
         <f t="shared" si="4"/>
@@ -14388,7 +14424,7 @@
         <v>220</v>
       </c>
       <c r="E386" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F386" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14592,7 +14628,7 @@
         <v>220</v>
       </c>
       <c r="E392" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F392" s="2" t="str">
         <f t="shared" si="6"/>
@@ -14658,7 +14694,7 @@
         <v>220</v>
       </c>
       <c r="E394" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F394" s="2" t="str">
         <f t="shared" si="6"/>
@@ -14691,7 +14727,7 @@
         <v>220</v>
       </c>
       <c r="E395" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F395" s="2" t="str">
         <f t="shared" si="6"/>
@@ -14724,7 +14760,7 @@
         <v>220</v>
       </c>
       <c r="E396" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F396" s="2" t="str">
         <f t="shared" si="6"/>
@@ -25995,7 +26031,7 @@
         <v>220</v>
       </c>
       <c r="E735" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F735" s="2" t="str">
         <f t="shared" si="11"/>
@@ -27216,7 +27252,7 @@
         <v>220</v>
       </c>
       <c r="E772" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F772" s="2" t="str">
         <f t="shared" si="12"/>
@@ -27231,6 +27267,12 @@
       <c r="I772" t="s">
         <v>138</v>
       </c>
+      <c r="J772">
+        <v>51</v>
+      </c>
+      <c r="K772" s="1">
+        <v>43929</v>
+      </c>
       <c r="L772">
         <v>72</v>
       </c>
@@ -34512,7 +34554,7 @@
         <v>220</v>
       </c>
       <c r="E992" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F992" s="2" t="str">
         <f t="shared" si="15"/>
@@ -49128,7 +49170,7 @@
         <v>45</v>
       </c>
       <c r="E1432" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F1432" s="2" t="str">
         <f t="shared" si="22"/>
@@ -49161,7 +49203,7 @@
         <v>45</v>
       </c>
       <c r="E1433" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1433" s="2" t="str">
         <f t="shared" si="22"/>
@@ -50949,7 +50991,7 @@
         <v>50</v>
       </c>
       <c r="E1487" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1487" s="2" t="str">
         <f t="shared" si="23"/>
@@ -50964,6 +51006,12 @@
       <c r="I1487" t="s">
         <v>22</v>
       </c>
+      <c r="J1487">
+        <v>52</v>
+      </c>
+      <c r="K1487" s="1">
+        <v>43929</v>
+      </c>
       <c r="L1487">
         <v>49</v>
       </c>
@@ -51675,7 +51723,7 @@
         <v>20</v>
       </c>
       <c r="E1509" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1509" s="2" t="str">
         <f t="shared" si="23"/>
@@ -52506,7 +52554,7 @@
         <v>220</v>
       </c>
       <c r="E1534" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1534" s="2" t="str">
         <f t="shared" si="23"/>
@@ -54805,7 +54853,7 @@
         <v>22</v>
       </c>
       <c r="L1603">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1604" spans="1:12" x14ac:dyDescent="0.25">
@@ -54855,7 +54903,7 @@
         <v>45</v>
       </c>
       <c r="E1605" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1605" s="2" t="str">
         <f t="shared" si="25"/>
@@ -58947,7 +58995,7 @@
         <v>156</v>
       </c>
       <c r="E1729" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1729" s="2" t="str">
         <f t="shared" si="26"/>
@@ -58962,6 +59010,12 @@
       <c r="I1729" t="s">
         <v>22</v>
       </c>
+      <c r="J1729">
+        <v>53</v>
+      </c>
+      <c r="K1729" s="1">
+        <v>43929</v>
+      </c>
       <c r="L1729">
         <v>74</v>
       </c>
@@ -59013,10 +59067,10 @@
         <v>238</v>
       </c>
       <c r="E1731" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1731" s="2" t="str">
-        <f t="shared" ref="F1731:F1781" si="27">IF(L1731&lt;10,"0-9",IF(L1731&lt;20,"10-19",IF(L1731&lt;30,"20-29",IF(L1731&lt;40,"30-39",IF(L1731&lt;50,"40-49",IF(L1731&lt;60,"50-59",IF(L1731&lt;70,"60-69",IF(L1731&lt;80,"70-79",IF(L1731&lt;90,"80-89",IF(L1731&lt;100,"90-99","&gt;100"))))))))))</f>
+        <f t="shared" ref="F1731:F1794" si="27">IF(L1731&lt;10,"0-9",IF(L1731&lt;20,"10-19",IF(L1731&lt;30,"20-29",IF(L1731&lt;40,"30-39",IF(L1731&lt;50,"40-49",IF(L1731&lt;60,"50-59",IF(L1731&lt;70,"60-69",IF(L1731&lt;80,"70-79",IF(L1731&lt;90,"80-89",IF(L1731&lt;100,"90-99","&gt;100"))))))))))</f>
         <v>40-49</v>
       </c>
       <c r="G1731" t="s">
@@ -59046,7 +59100,7 @@
         <v>238</v>
       </c>
       <c r="E1732" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1732" s="2" t="str">
         <f t="shared" si="27"/>
@@ -60135,7 +60189,7 @@
         <v>160</v>
       </c>
       <c r="E1765" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1765" s="2" t="str">
         <f t="shared" si="27"/>
@@ -60682,11 +60736,9065 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1782" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>1781</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1782" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1782">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>1782</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1783" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1783" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1783">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>1783</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1784" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1784">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>1784</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1785" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1785" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1785">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>1785</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1786" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1786" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1786">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>1786</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1787" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1787">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>1787</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1788" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1788">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>1788</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1789" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1789">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>1789</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1790" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1790">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>1790</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1791" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1791">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>1791</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1792" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1792">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>1792</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1793" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1793">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>1793</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1794" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1794" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1794">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>1794</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1795" s="2" t="str">
+        <f t="shared" ref="F1795:F1858" si="28">IF(L1795&lt;10,"0-9",IF(L1795&lt;20,"10-19",IF(L1795&lt;30,"20-29",IF(L1795&lt;40,"30-39",IF(L1795&lt;50,"40-49",IF(L1795&lt;60,"50-59",IF(L1795&lt;70,"60-69",IF(L1795&lt;80,"70-79",IF(L1795&lt;90,"80-89",IF(L1795&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>20-29</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1795" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1795">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>1795</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1796" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1796" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1796">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>1796</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1797" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1797" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1797">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>1797</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1798" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1798" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1798">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>1798</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1799" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1799" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1799">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>1799</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1800" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1800" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1800">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>1800</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1801" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1801" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1801">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>1801</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1802" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1802">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>1802</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1803" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1803">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>1803</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1804" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1804">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>1804</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1805" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1805">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>1805</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1806" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1806">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>1806</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1807" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1807">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>1807</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1808" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1808">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>1808</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1809" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1809">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>1809</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1810" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1810">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>1810</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1811" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>90-99</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1811">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>1811</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1812" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1812">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>1812</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1813" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1813">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>1813</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1814" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1814">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>1814</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1815" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1815">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>1815</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1816" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1816">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>1816</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1817" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1817" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1817">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>1817</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1818" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1818">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>1818</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1819" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1819">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>1819</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1820" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1820">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>1820</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1821" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>90-99</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1821">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>1821</v>
+      </c>
+      <c r="B1822" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1822" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1822">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>1822</v>
+      </c>
+      <c r="B1823" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1823" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1823">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>1823</v>
+      </c>
+      <c r="B1824" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1824" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1824" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1824">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>1824</v>
+      </c>
+      <c r="B1825" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1825" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1825" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1825">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>1825</v>
+      </c>
+      <c r="B1826" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1826" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1826" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1826">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>1826</v>
+      </c>
+      <c r="B1827" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1827" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1827" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1827">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>1827</v>
+      </c>
+      <c r="B1828" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1828" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1828" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1828">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>1828</v>
+      </c>
+      <c r="B1829" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1829" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1829" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1829">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>1829</v>
+      </c>
+      <c r="B1830" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1830" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1830" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1830">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>1830</v>
+      </c>
+      <c r="B1831" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1831" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1831" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1831">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>1831</v>
+      </c>
+      <c r="B1832" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1832" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1832">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>1832</v>
+      </c>
+      <c r="B1833" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1833" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1833" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1833">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>1833</v>
+      </c>
+      <c r="B1834" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1834" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1834" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1834">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>1834</v>
+      </c>
+      <c r="B1835" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1835" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1835">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>1835</v>
+      </c>
+      <c r="B1836" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1836" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1836">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>1836</v>
+      </c>
+      <c r="B1837" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1837" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1837">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>1837</v>
+      </c>
+      <c r="B1838" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1838" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1838">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>1838</v>
+      </c>
+      <c r="B1839" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1839" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1839">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>1839</v>
+      </c>
+      <c r="B1840" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1840" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1840" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1840">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>1840</v>
+      </c>
+      <c r="B1841" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1841" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1841">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>1841</v>
+      </c>
+      <c r="B1842" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1842" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1842">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>1842</v>
+      </c>
+      <c r="B1843" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1843" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1843">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>1843</v>
+      </c>
+      <c r="B1844" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1844" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1844">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>1844</v>
+      </c>
+      <c r="B1845" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1845" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1845">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>1845</v>
+      </c>
+      <c r="B1846" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1846" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1846" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1846">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>1846</v>
+      </c>
+      <c r="B1847" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1847" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1847" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1847">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>1847</v>
+      </c>
+      <c r="B1848" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1848" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1848" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1848">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>1848</v>
+      </c>
+      <c r="B1849" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1849" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1849">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>1849</v>
+      </c>
+      <c r="B1850" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1850" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>80-89</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1850" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1850">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>1850</v>
+      </c>
+      <c r="B1851" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1851" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1851">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>1851</v>
+      </c>
+      <c r="B1852" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1852" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1852">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>1852</v>
+      </c>
+      <c r="B1853" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1853" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1853">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>1853</v>
+      </c>
+      <c r="B1854" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1854" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1854">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>1854</v>
+      </c>
+      <c r="B1855" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1855" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1855">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>1855</v>
+      </c>
+      <c r="B1856" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1856" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1856" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1856">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>1856</v>
+      </c>
+      <c r="B1857" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1857" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1857" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1857">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>1857</v>
+      </c>
+      <c r="B1858" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1858" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1858">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>1858</v>
+      </c>
+      <c r="B1859" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1859" s="2" t="str">
+        <f t="shared" ref="F1859:F1922" si="29">IF(L1859&lt;10,"0-9",IF(L1859&lt;20,"10-19",IF(L1859&lt;30,"20-29",IF(L1859&lt;40,"30-39",IF(L1859&lt;50,"40-49",IF(L1859&lt;60,"50-59",IF(L1859&lt;70,"60-69",IF(L1859&lt;80,"70-79",IF(L1859&lt;90,"80-89",IF(L1859&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1859" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1859">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>1859</v>
+      </c>
+      <c r="B1860" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1860" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1860" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1860">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>1860</v>
+      </c>
+      <c r="B1861" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1861" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1861" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1861">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>1861</v>
+      </c>
+      <c r="B1862" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1862" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1862" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1862">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>1862</v>
+      </c>
+      <c r="B1863" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1863" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1863">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>1863</v>
+      </c>
+      <c r="B1864" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1864" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1864" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1864">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>1864</v>
+      </c>
+      <c r="B1865" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1865" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1865" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1865">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>1865</v>
+      </c>
+      <c r="B1866" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1866" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1866">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>1866</v>
+      </c>
+      <c r="B1867" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1867" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1867">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>1867</v>
+      </c>
+      <c r="B1868" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1868" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1868" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1868">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>1868</v>
+      </c>
+      <c r="B1869" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1869" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1869" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1869">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>1869</v>
+      </c>
+      <c r="B1870" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1870" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1870" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1870">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>1870</v>
+      </c>
+      <c r="B1871" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1871" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1871" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>1871</v>
+      </c>
+      <c r="B1872" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1872" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1872" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1872">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>1872</v>
+      </c>
+      <c r="B1873" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1873" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1873" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1873">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>1873</v>
+      </c>
+      <c r="B1874" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1874" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1874" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1874">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>1874</v>
+      </c>
+      <c r="B1875" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1875" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1875" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1875">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>1875</v>
+      </c>
+      <c r="B1876" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1876" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1876" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1876">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>1876</v>
+      </c>
+      <c r="B1877" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1877" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1877" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1877">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>1877</v>
+      </c>
+      <c r="B1878" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1878" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1878" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1878">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>1878</v>
+      </c>
+      <c r="B1879" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1879" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>80-89</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1879" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1879">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>1879</v>
+      </c>
+      <c r="B1880" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1880" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1880" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1880">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>1880</v>
+      </c>
+      <c r="B1881" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1881" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1881" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1881">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>1881</v>
+      </c>
+      <c r="B1882" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1882" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1882" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1882">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>1882</v>
+      </c>
+      <c r="B1883" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1883" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1883">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>1883</v>
+      </c>
+      <c r="B1884" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1884" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1884" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1884">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>1884</v>
+      </c>
+      <c r="B1885" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1885" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1885" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1885">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>1885</v>
+      </c>
+      <c r="B1886" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1886" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1886" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1886">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>1886</v>
+      </c>
+      <c r="B1887" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1887" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1887" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1887">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>1887</v>
+      </c>
+      <c r="B1888" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1888" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1888">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>1888</v>
+      </c>
+      <c r="B1889" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1889" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1889" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1889">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>1889</v>
+      </c>
+      <c r="B1890" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1890" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1890" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1890">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>1890</v>
+      </c>
+      <c r="B1891" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1891" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1891" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1891">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>1891</v>
+      </c>
+      <c r="B1892" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1892" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1892" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1892">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>1892</v>
+      </c>
+      <c r="B1893" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1893" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1893">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>1893</v>
+      </c>
+      <c r="B1894" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1894" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1894" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1894">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>1894</v>
+      </c>
+      <c r="B1895" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1895" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1895" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1895">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>1895</v>
+      </c>
+      <c r="B1896" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1896" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1896" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1896">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>1896</v>
+      </c>
+      <c r="B1897" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1897" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1897" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1897">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>1897</v>
+      </c>
+      <c r="B1898" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1898" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1898" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1898">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>1898</v>
+      </c>
+      <c r="B1899" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1899" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1899" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1899">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>1899</v>
+      </c>
+      <c r="B1900" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1900" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1900" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1900">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>1900</v>
+      </c>
+      <c r="B1901" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1901" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1901" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1901">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>1901</v>
+      </c>
+      <c r="B1902" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1902" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1902" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1902">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>1902</v>
+      </c>
+      <c r="B1903" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1903" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1903">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>1903</v>
+      </c>
+      <c r="B1904" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1904" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1904" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1904">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>1904</v>
+      </c>
+      <c r="B1905" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1905" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1905" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1905">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>1905</v>
+      </c>
+      <c r="B1906" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1906" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1906" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1906" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1906">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>1906</v>
+      </c>
+      <c r="B1907" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1907" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1907" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1907" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1907">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>1907</v>
+      </c>
+      <c r="B1908" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1908" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1908" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1908" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1908" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1908">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>1908</v>
+      </c>
+      <c r="B1909" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1909" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1909" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1909" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1909">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>1909</v>
+      </c>
+      <c r="B1910" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1910" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1910" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1910" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1910">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>1910</v>
+      </c>
+      <c r="B1911" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1911" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1911" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1911" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1911">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>1911</v>
+      </c>
+      <c r="B1912" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1912" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1912" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1912" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1912">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>1912</v>
+      </c>
+      <c r="B1913" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1913" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1913" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1913" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1913">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>1913</v>
+      </c>
+      <c r="B1914" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1914" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1914" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1914" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1914">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>1914</v>
+      </c>
+      <c r="B1915" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1915" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1915" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1915" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1915">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>1915</v>
+      </c>
+      <c r="B1916" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1916" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1916" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1916" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1916">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>1916</v>
+      </c>
+      <c r="B1917" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1917" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1917" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1917" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1917">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>1917</v>
+      </c>
+      <c r="B1918" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1918" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1918" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1918" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1918">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>1918</v>
+      </c>
+      <c r="B1919" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1919" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1919" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1919" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1919">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>1919</v>
+      </c>
+      <c r="B1920" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1920" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1920" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1920" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1920">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>1920</v>
+      </c>
+      <c r="B1921" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1921" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1921" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1921" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1921">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>1921</v>
+      </c>
+      <c r="B1922" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1922" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1922" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1922" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1922">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>1922</v>
+      </c>
+      <c r="B1923" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1923" s="2" t="str">
+        <f t="shared" ref="F1923:F1986" si="30">IF(L1923&lt;10,"0-9",IF(L1923&lt;20,"10-19",IF(L1923&lt;30,"20-29",IF(L1923&lt;40,"30-39",IF(L1923&lt;50,"40-49",IF(L1923&lt;60,"50-59",IF(L1923&lt;70,"60-69",IF(L1923&lt;80,"70-79",IF(L1923&lt;90,"80-89",IF(L1923&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>60-69</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1923" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1923" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1923">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>1923</v>
+      </c>
+      <c r="B1924" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1924" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1924" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1924" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1924">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>1924</v>
+      </c>
+      <c r="B1925" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1925" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1925" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1925" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1925">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>1925</v>
+      </c>
+      <c r="B1926" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1926" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1926" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1926" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1926" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1926">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>1926</v>
+      </c>
+      <c r="B1927" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1927" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1927" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1927" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1927">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>1927</v>
+      </c>
+      <c r="B1928" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1928" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1928" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1928" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1928">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>1928</v>
+      </c>
+      <c r="B1929" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1929" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1929" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1929" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1929">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>1929</v>
+      </c>
+      <c r="B1930" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1930" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1930" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1930" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1930">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>1930</v>
+      </c>
+      <c r="B1931" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1931" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1931" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1931" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1931">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>1931</v>
+      </c>
+      <c r="B1932" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1932" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1932" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1932" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1932">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>1932</v>
+      </c>
+      <c r="B1933" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1933" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1933" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1933" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1933" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1933">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>1933</v>
+      </c>
+      <c r="B1934" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1934" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1934" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1934" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1934">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>1934</v>
+      </c>
+      <c r="B1935" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1935" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1935" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1935" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1935">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1936">
+        <v>1935</v>
+      </c>
+      <c r="B1936" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1936" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1936" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1936" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1936">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1937">
+        <v>1936</v>
+      </c>
+      <c r="B1937" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1937" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1937" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1937" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1937">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1938">
+        <v>1937</v>
+      </c>
+      <c r="B1938" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1938" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1938" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1938" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1938" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1938">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1939">
+        <v>1938</v>
+      </c>
+      <c r="B1939" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1939" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1939" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1939" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1939" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1939">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1940">
+        <v>1939</v>
+      </c>
+      <c r="B1940" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1940" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1940" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1940" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1940">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1941">
+        <v>1940</v>
+      </c>
+      <c r="B1941" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1941" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1941" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1941" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1941" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1941">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1942">
+        <v>1941</v>
+      </c>
+      <c r="B1942" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1942" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1942" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1942" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1942" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1942">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1943">
+        <v>1942</v>
+      </c>
+      <c r="B1943" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1943" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1943" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1943" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1943" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1943">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1944">
+        <v>1943</v>
+      </c>
+      <c r="B1944" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1944" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1944" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1944" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1944">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1945">
+        <v>1944</v>
+      </c>
+      <c r="B1945" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1945" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1945" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1945" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1945">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1946">
+        <v>1945</v>
+      </c>
+      <c r="B1946" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1946" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1946" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1946" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1946">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1947">
+        <v>1946</v>
+      </c>
+      <c r="B1947" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1947" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1947" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1947" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1947" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1947">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1948">
+        <v>1947</v>
+      </c>
+      <c r="B1948" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1948" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1948" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1948" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1948" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1948">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1949">
+        <v>1948</v>
+      </c>
+      <c r="B1949" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1949" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1949" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1949" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1949">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1950">
+        <v>1949</v>
+      </c>
+      <c r="B1950" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1950" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1950" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1950" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1950">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1951">
+        <v>1950</v>
+      </c>
+      <c r="B1951" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1951" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1951" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1951" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1951">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1952">
+        <v>1951</v>
+      </c>
+      <c r="B1952" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1952" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1952" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1952" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1952">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1953">
+        <v>1952</v>
+      </c>
+      <c r="B1953" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1953" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1953" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1953" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1953">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1954">
+        <v>1953</v>
+      </c>
+      <c r="B1954" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1954" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1954" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1954" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1954">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1955">
+        <v>1954</v>
+      </c>
+      <c r="B1955" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1955" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1955" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1955" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1955">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1956">
+        <v>1955</v>
+      </c>
+      <c r="B1956" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1956" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1956" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1956" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1956">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1957">
+        <v>1956</v>
+      </c>
+      <c r="B1957" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1957" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1957" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1957" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1957">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1958">
+        <v>1957</v>
+      </c>
+      <c r="B1958" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1958" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1958" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1958" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1958">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1959">
+        <v>1958</v>
+      </c>
+      <c r="B1959" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1959" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1959" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1959" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1959">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1960">
+        <v>1959</v>
+      </c>
+      <c r="B1960" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1960" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1960" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1960">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1961">
+        <v>1960</v>
+      </c>
+      <c r="B1961" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1961" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1961" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1961">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1962">
+        <v>1961</v>
+      </c>
+      <c r="B1962" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1962" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1962" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1962" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1962">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1963">
+        <v>1962</v>
+      </c>
+      <c r="B1963" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1963" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1963" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1963">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1964">
+        <v>1963</v>
+      </c>
+      <c r="B1964" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1964" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1964" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1964">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1965">
+        <v>1964</v>
+      </c>
+      <c r="B1965" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1965" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>10-19</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1965" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1965">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1966">
+        <v>1965</v>
+      </c>
+      <c r="B1966" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1966" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1966" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1966">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1967">
+        <v>1966</v>
+      </c>
+      <c r="B1967" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1967" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1967" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1967">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1968">
+        <v>1967</v>
+      </c>
+      <c r="B1968" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1968" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1968" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1968">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1969">
+        <v>1968</v>
+      </c>
+      <c r="B1969" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1969" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>70-79</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1969" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1969">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1970">
+        <v>1969</v>
+      </c>
+      <c r="B1970" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1970" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1970" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1970" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1970">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1971">
+        <v>1970</v>
+      </c>
+      <c r="B1971" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1971" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1971" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1971">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1972">
+        <v>1971</v>
+      </c>
+      <c r="B1972" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1972" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1972" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1972">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1973">
+        <v>1972</v>
+      </c>
+      <c r="B1973" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1973" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1973" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1973">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1974">
+        <v>1973</v>
+      </c>
+      <c r="B1974" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1974" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1974" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1974">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1975">
+        <v>1974</v>
+      </c>
+      <c r="B1975" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1975" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1975" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1975">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1976">
+        <v>1975</v>
+      </c>
+      <c r="B1976" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1976" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1976" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1976">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1977">
+        <v>1976</v>
+      </c>
+      <c r="B1977" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1977" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1977" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1977">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1978">
+        <v>1977</v>
+      </c>
+      <c r="B1978" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1978" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1978" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1978">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1979">
+        <v>1978</v>
+      </c>
+      <c r="B1979" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1979" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1979" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1979">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1980">
+        <v>1979</v>
+      </c>
+      <c r="B1980" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1980" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1980" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1980">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1981">
+        <v>1980</v>
+      </c>
+      <c r="B1981" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1981" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1981" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1981">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1982">
+        <v>1981</v>
+      </c>
+      <c r="B1982" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1982" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1982" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1982" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1982">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1983">
+        <v>1982</v>
+      </c>
+      <c r="B1983" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1983" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1983" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1983">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1984">
+        <v>1983</v>
+      </c>
+      <c r="B1984" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1984" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1984" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1984">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1985">
+        <v>1984</v>
+      </c>
+      <c r="B1985" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1985" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1985" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1985" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1985">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1986">
+        <v>1985</v>
+      </c>
+      <c r="B1986" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1986" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1986" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1986" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1986">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1987">
+        <v>1986</v>
+      </c>
+      <c r="B1987" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1987" s="2" t="str">
+        <f t="shared" ref="F1987:F2050" si="31">IF(L1987&lt;10,"0-9",IF(L1987&lt;20,"10-19",IF(L1987&lt;30,"20-29",IF(L1987&lt;40,"30-39",IF(L1987&lt;50,"40-49",IF(L1987&lt;60,"50-59",IF(L1987&lt;70,"60-69",IF(L1987&lt;80,"70-79",IF(L1987&lt;90,"80-89",IF(L1987&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>30-39</v>
+      </c>
+      <c r="G1987" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1987" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1987">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1988">
+        <v>1987</v>
+      </c>
+      <c r="B1988" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1988" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1988" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1988">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1989">
+        <v>1988</v>
+      </c>
+      <c r="B1989" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1989" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1989" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1989" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1989" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1989">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1990">
+        <v>1989</v>
+      </c>
+      <c r="B1990" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1990" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1990" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1990" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1990">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1991">
+        <v>1990</v>
+      </c>
+      <c r="B1991" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1991" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1991" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1991" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1991">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1992">
+        <v>1991</v>
+      </c>
+      <c r="B1992" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1992" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1992" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1992">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1993">
+        <v>1992</v>
+      </c>
+      <c r="B1993" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1993" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1993" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1993" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1993">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1994">
+        <v>1993</v>
+      </c>
+      <c r="B1994" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1994" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1994" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1994" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1994">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1995">
+        <v>1994</v>
+      </c>
+      <c r="B1995" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1995" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1995" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1995" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1995">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1996">
+        <v>1995</v>
+      </c>
+      <c r="B1996" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1996" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1996" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1996" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1996">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1997">
+        <v>1996</v>
+      </c>
+      <c r="B1997" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1997" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>0-9</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1997" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1997" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1998">
+        <v>1997</v>
+      </c>
+      <c r="B1998" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1998" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1998" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1998" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1998">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1999">
+        <v>1998</v>
+      </c>
+      <c r="B1999" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1999" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1999" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1999" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1999">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2000">
+        <v>1999</v>
+      </c>
+      <c r="B2000" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2000" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2000" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2000" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2000">
+        <v>54</v>
+      </c>
+      <c r="K2000" s="1">
+        <v>43929</v>
+      </c>
+      <c r="L2000">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2001">
+        <v>2000</v>
+      </c>
+      <c r="B2001" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2001" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2001" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2001" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2001" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2001">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2002">
+        <v>2001</v>
+      </c>
+      <c r="B2002" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2002" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2002" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2002">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2003">
+        <v>2002</v>
+      </c>
+      <c r="B2003" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2003" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2003" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2003" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2003">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2004">
+        <v>2003</v>
+      </c>
+      <c r="B2004" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2004" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2004" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2004" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2005">
+        <v>2004</v>
+      </c>
+      <c r="B2005" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2005" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2005" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2005" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2005">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2006">
+        <v>2005</v>
+      </c>
+      <c r="B2006" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2006" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2006" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2006" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2006" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2006">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2007">
+        <v>2006</v>
+      </c>
+      <c r="B2007" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2007" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2007" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2007" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2007" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2007">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2008">
+        <v>2007</v>
+      </c>
+      <c r="B2008" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2008" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2008" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2008" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2008" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2008">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2009">
+        <v>2008</v>
+      </c>
+      <c r="B2009" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2009" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2009" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2009" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2009" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2009">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2010">
+        <v>2009</v>
+      </c>
+      <c r="B2010" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2010" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2010" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2010" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2010" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2010">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2011">
+        <v>2010</v>
+      </c>
+      <c r="B2011" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2011" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2011" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2011" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2011" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2011">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2012">
+        <v>2011</v>
+      </c>
+      <c r="B2012" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2012" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2012" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2012" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2012">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2013">
+        <v>2012</v>
+      </c>
+      <c r="B2013" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2013" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2013" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2013" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2013">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2014">
+        <v>2013</v>
+      </c>
+      <c r="B2014" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2014" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2014" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2014" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2014" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2014">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>2014</v>
+      </c>
+      <c r="B2015" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2015" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2015" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2015" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2015">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>2015</v>
+      </c>
+      <c r="B2016" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2016" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2016" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2016" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2016">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2017">
+        <v>2016</v>
+      </c>
+      <c r="B2017" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2017" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2017" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2017" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2017">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2018">
+        <v>2017</v>
+      </c>
+      <c r="B2018" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2018" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2018" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2018" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2018" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2018">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2019">
+        <v>2018</v>
+      </c>
+      <c r="B2019" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2019" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2019" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2019" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2019" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2019">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2020">
+        <v>2019</v>
+      </c>
+      <c r="B2020" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2020" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2020" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2020" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2020" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2020">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2021">
+        <v>2020</v>
+      </c>
+      <c r="B2021" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2021" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2021" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2021" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2021" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2021">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2022">
+        <v>2021</v>
+      </c>
+      <c r="B2022" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2022" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2022" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2022" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2022" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2022">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2023">
+        <v>2022</v>
+      </c>
+      <c r="B2023" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2023" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2023" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2023" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2023" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2023">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2024">
+        <v>2023</v>
+      </c>
+      <c r="B2024" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2024" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2024" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2024" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2024" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2024">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2025">
+        <v>2024</v>
+      </c>
+      <c r="B2025" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2025" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2025" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2025" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2025" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2025">
+        <v>55</v>
+      </c>
+      <c r="K2025" s="1">
+        <v>43929</v>
+      </c>
+      <c r="L2025">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2026">
+        <v>2025</v>
+      </c>
+      <c r="B2026" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2026" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2026" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2026" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2026">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2027">
+        <v>2026</v>
+      </c>
+      <c r="B2027" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2027" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2027" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2027" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2027" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2027">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2028">
+        <v>2027</v>
+      </c>
+      <c r="B2028" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2028" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2028" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2028" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2028" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2028">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2029">
+        <v>2028</v>
+      </c>
+      <c r="B2029" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2029" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2029" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2029" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2029" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2029">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2030">
+        <v>2029</v>
+      </c>
+      <c r="B2030" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2030" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2030" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2030" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2030" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2030">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2031">
+        <v>2030</v>
+      </c>
+      <c r="B2031" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2031" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2031" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2031" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2031" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2031">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2032">
+        <v>2031</v>
+      </c>
+      <c r="B2032" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2032" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2032" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2032" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2032" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2032">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2033">
+        <v>2032</v>
+      </c>
+      <c r="B2033" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2033" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2033" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2033" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2033" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2033">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2034">
+        <v>2033</v>
+      </c>
+      <c r="B2034" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2034" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2034" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2034" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2034" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2034">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2035">
+        <v>2034</v>
+      </c>
+      <c r="B2035" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2035" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2035" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2035" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2035" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2035">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2036">
+        <v>2035</v>
+      </c>
+      <c r="B2036" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2036" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2036" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2036" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2036" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2036">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2037">
+        <v>2036</v>
+      </c>
+      <c r="B2037" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2037" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2037" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2037" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2037" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2037">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2038">
+        <v>2037</v>
+      </c>
+      <c r="B2038" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2038" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2038" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2038" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2038" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2038">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2039">
+        <v>2038</v>
+      </c>
+      <c r="B2039" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2039" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2039" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2039" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2039" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2039">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2040">
+        <v>2039</v>
+      </c>
+      <c r="B2040" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2040" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2040" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2040" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2040" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2040">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2041">
+        <v>2040</v>
+      </c>
+      <c r="B2041" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2041" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2041" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2041" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2041" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2041">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2042">
+        <v>2041</v>
+      </c>
+      <c r="B2042" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2042" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2042" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2042" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2042" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2042">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2043">
+        <v>2042</v>
+      </c>
+      <c r="B2043" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2043" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2043" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2043" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2043" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2043">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2044">
+        <v>2043</v>
+      </c>
+      <c r="B2044" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2044" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2044" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2044" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2044" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2044">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2045">
+        <v>2044</v>
+      </c>
+      <c r="B2045" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2045" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2045" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2045" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2045" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2045">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2046">
+        <v>2045</v>
+      </c>
+      <c r="B2046" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2046" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2046" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2046" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2046" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2046">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2047">
+        <v>2046</v>
+      </c>
+      <c r="B2047" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2047" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2047" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2047" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2047" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2047">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2048">
+        <v>2047</v>
+      </c>
+      <c r="B2048" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2048" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2048" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2048" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2048" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2048">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2049">
+        <v>2048</v>
+      </c>
+      <c r="B2049" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2049" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2049" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2049" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2049" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2049">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2050">
+        <v>2049</v>
+      </c>
+      <c r="B2050" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2050" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2050" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2050" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2050" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2050">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2051">
+        <v>2050</v>
+      </c>
+      <c r="B2051" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2051" s="2" t="str">
+        <f t="shared" ref="F2051:F2055" si="32">IF(L2051&lt;10,"0-9",IF(L2051&lt;20,"10-19",IF(L2051&lt;30,"20-29",IF(L2051&lt;40,"30-39",IF(L2051&lt;50,"40-49",IF(L2051&lt;60,"50-59",IF(L2051&lt;70,"60-69",IF(L2051&lt;80,"70-79",IF(L2051&lt;90,"80-89",IF(L2051&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>30-39</v>
+      </c>
+      <c r="G2051" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2051" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2051" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2051">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2052">
+        <v>2051</v>
+      </c>
+      <c r="B2052" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2052" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2052" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2052" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2052" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2052">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2053">
+        <v>2052</v>
+      </c>
+      <c r="B2053" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2053" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2053" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2053" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2053">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2054">
+        <v>2053</v>
+      </c>
+      <c r="B2054" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2054" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2054" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2054" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2054">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2055">
+        <v>2054</v>
+      </c>
+      <c r="B2055" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2055" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2055" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2055" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2055" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2055">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1781" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L2055" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781" twoDigitTextYear="1"/>
+    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781 F1782:F2087" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B56AF-074D-4728-8583-BC91748D5A77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66724E8F-228C-4B71-B952-FBC8516FAFFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="14370" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="250">
   <si>
     <t>ID de caso</t>
   </si>
@@ -705,16 +705,10 @@
     <t>Turquia</t>
   </si>
   <si>
-    <t>Cartagena D.T. y C</t>
-  </si>
-  <si>
     <t>Yarumal</t>
   </si>
   <si>
     <t>Curazao</t>
-  </si>
-  <si>
-    <t>Barranquilla D.E.</t>
   </si>
   <si>
     <t>españa</t>
@@ -745,9 +739,6 @@
   </si>
   <si>
     <t>Ciénaga de Oro</t>
-  </si>
-  <si>
-    <t>Santa Marta D.T. y C.</t>
   </si>
   <si>
     <t>Santa Rosa de Cabal</t>
@@ -787,6 +778,9 @@
   </si>
   <si>
     <t>Andalucía</t>
+  </si>
+  <si>
+    <t>Atántico</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1626,7 @@
   <dimension ref="A1:L2055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D1731" sqref="D1731:D2023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54141,7 +54135,7 @@
         <v>25</v>
       </c>
       <c r="D1582" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1582" t="s">
         <v>24</v>
@@ -54174,7 +54168,7 @@
         <v>25</v>
       </c>
       <c r="D1583" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1583" t="s">
         <v>24</v>
@@ -54207,7 +54201,7 @@
         <v>25</v>
       </c>
       <c r="D1584" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1584" t="s">
         <v>43</v>
@@ -54369,7 +54363,7 @@
         <v>43928</v>
       </c>
       <c r="C1589" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1589" t="s">
         <v>20</v>
@@ -54388,7 +54382,7 @@
         <v>14</v>
       </c>
       <c r="I1589" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L1589">
         <v>28</v>
@@ -54570,7 +54564,7 @@
         <v>48</v>
       </c>
       <c r="D1595" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1595" t="s">
         <v>24</v>
@@ -54702,7 +54696,7 @@
         <v>48</v>
       </c>
       <c r="D1599" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1599" t="s">
         <v>43</v>
@@ -54735,7 +54729,7 @@
         <v>48</v>
       </c>
       <c r="D1600" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1600" t="s">
         <v>24</v>
@@ -55147,7 +55141,7 @@
         <v>14</v>
       </c>
       <c r="I1612" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L1612">
         <v>57</v>
@@ -57457,7 +57451,7 @@
         <v>14</v>
       </c>
       <c r="I1682" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L1682">
         <v>28</v>
@@ -57900,7 +57894,7 @@
         <v>43928</v>
       </c>
       <c r="C1696" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1696" t="s">
         <v>64</v>
@@ -58230,7 +58224,7 @@
         <v>43928</v>
       </c>
       <c r="C1706" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D1706" t="s">
         <v>20</v>
@@ -58329,7 +58323,7 @@
         <v>43928</v>
       </c>
       <c r="C1709" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1709" t="s">
         <v>20</v>
@@ -58659,7 +58653,7 @@
         <v>43928</v>
       </c>
       <c r="C1719" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D1719" t="s">
         <v>131</v>
@@ -58692,7 +58686,7 @@
         <v>43928</v>
       </c>
       <c r="C1720" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D1720" t="s">
         <v>131</v>
@@ -58725,7 +58719,7 @@
         <v>43928</v>
       </c>
       <c r="C1721" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1721" t="s">
         <v>131</v>
@@ -58761,7 +58755,7 @@
         <v>25</v>
       </c>
       <c r="D1722" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1722" t="s">
         <v>43</v>
@@ -58794,7 +58788,7 @@
         <v>25</v>
       </c>
       <c r="D1723" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1723" t="s">
         <v>43</v>
@@ -58827,7 +58821,7 @@
         <v>25</v>
       </c>
       <c r="D1724" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1724" t="s">
         <v>24</v>
@@ -58860,7 +58854,7 @@
         <v>25</v>
       </c>
       <c r="D1725" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1725" t="s">
         <v>24</v>
@@ -58923,7 +58917,7 @@
         <v>43928</v>
       </c>
       <c r="C1727" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D1727" t="s">
         <v>156</v>
@@ -58956,7 +58950,7 @@
         <v>43928</v>
       </c>
       <c r="C1728" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D1728" t="s">
         <v>156</v>
@@ -58989,7 +58983,7 @@
         <v>43928</v>
       </c>
       <c r="C1729" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D1729" t="s">
         <v>156</v>
@@ -59028,7 +59022,7 @@
         <v>43928</v>
       </c>
       <c r="C1730" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D1730" t="s">
         <v>156</v>
@@ -59064,7 +59058,7 @@
         <v>77</v>
       </c>
       <c r="D1731" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1731" t="s">
         <v>43</v>
@@ -59097,7 +59091,7 @@
         <v>77</v>
       </c>
       <c r="D1732" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1732" t="s">
         <v>24</v>
@@ -59622,7 +59616,7 @@
         <v>43928</v>
       </c>
       <c r="C1748" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D1748" t="s">
         <v>37</v>
@@ -61539,7 +61533,7 @@
         <v>48</v>
       </c>
       <c r="D1806" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1806" t="s">
         <v>24</v>
@@ -61572,7 +61566,7 @@
         <v>48</v>
       </c>
       <c r="D1807" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1807" t="s">
         <v>24</v>
@@ -61605,7 +61599,7 @@
         <v>48</v>
       </c>
       <c r="D1808" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E1808" t="s">
         <v>24</v>
@@ -61638,7 +61632,7 @@
         <v>77</v>
       </c>
       <c r="D1809" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1809" t="s">
         <v>24</v>
@@ -61671,7 +61665,7 @@
         <v>77</v>
       </c>
       <c r="D1810" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1810" t="s">
         <v>43</v>
@@ -61704,7 +61698,7 @@
         <v>77</v>
       </c>
       <c r="D1811" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1811" t="s">
         <v>43</v>
@@ -61737,7 +61731,7 @@
         <v>77</v>
       </c>
       <c r="D1812" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1812" t="s">
         <v>24</v>
@@ -61770,7 +61764,7 @@
         <v>77</v>
       </c>
       <c r="D1813" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1813" t="s">
         <v>24</v>
@@ -61803,7 +61797,7 @@
         <v>77</v>
       </c>
       <c r="D1814" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1814" t="s">
         <v>24</v>
@@ -61836,7 +61830,7 @@
         <v>77</v>
       </c>
       <c r="D1815" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1815" t="s">
         <v>24</v>
@@ -61869,7 +61863,7 @@
         <v>77</v>
       </c>
       <c r="D1816" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1816" t="s">
         <v>24</v>
@@ -61902,7 +61896,7 @@
         <v>77</v>
       </c>
       <c r="D1817" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E1817" t="s">
         <v>43</v>
@@ -62262,7 +62256,7 @@
         <v>43929</v>
       </c>
       <c r="C1828" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D1828" t="s">
         <v>55</v>
@@ -62367,7 +62361,7 @@
         <v>160</v>
       </c>
       <c r="E1831" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F1831" s="2" t="str">
         <f t="shared" si="28"/>
@@ -62460,7 +62454,7 @@
         <v>43929</v>
       </c>
       <c r="C1834" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D1834" t="s">
         <v>160</v>
@@ -62710,7 +62704,7 @@
         <v>14</v>
       </c>
       <c r="I1841" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L1841">
         <v>38</v>
@@ -62809,7 +62803,7 @@
         <v>14</v>
       </c>
       <c r="I1844" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L1844">
         <v>34</v>
@@ -62842,7 +62836,7 @@
         <v>14</v>
       </c>
       <c r="I1845" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L1845">
         <v>62</v>
@@ -62908,7 +62902,7 @@
         <v>14</v>
       </c>
       <c r="I1847" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L1847">
         <v>45</v>
@@ -63865,7 +63859,7 @@
         <v>14</v>
       </c>
       <c r="I1876" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L1876">
         <v>49</v>
@@ -64096,7 +64090,7 @@
         <v>14</v>
       </c>
       <c r="I1883" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L1883">
         <v>30</v>
@@ -66505,7 +66499,7 @@
         <v>14</v>
       </c>
       <c r="I1956" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L1956">
         <v>67</v>
@@ -66835,7 +66829,7 @@
         <v>14</v>
       </c>
       <c r="I1966" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L1966">
         <v>36</v>
@@ -67113,7 +67107,7 @@
         <v>43929</v>
       </c>
       <c r="C1975" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D1975" t="s">
         <v>160</v>
@@ -67149,7 +67143,7 @@
         <v>25</v>
       </c>
       <c r="D1976" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1976" t="s">
         <v>24</v>
@@ -67182,7 +67176,7 @@
         <v>25</v>
       </c>
       <c r="D1977" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1977" t="s">
         <v>24</v>
@@ -67941,7 +67935,7 @@
         <v>77</v>
       </c>
       <c r="D2000" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E2000" t="s">
         <v>79</v>
@@ -68013,7 +68007,7 @@
         <v>25</v>
       </c>
       <c r="D2002" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E2002" t="s">
         <v>43</v>
@@ -68046,7 +68040,7 @@
         <v>25</v>
       </c>
       <c r="D2003" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E2003" t="s">
         <v>24</v>
@@ -68079,7 +68073,7 @@
         <v>25</v>
       </c>
       <c r="D2004" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E2004" t="s">
         <v>24</v>
@@ -68112,7 +68106,7 @@
         <v>25</v>
       </c>
       <c r="D2005" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E2005" t="s">
         <v>24</v>
@@ -68208,7 +68202,7 @@
         <v>43929</v>
       </c>
       <c r="C2008" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2008" t="s">
         <v>134</v>
@@ -68241,7 +68235,7 @@
         <v>43929</v>
       </c>
       <c r="C2009" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2009" t="s">
         <v>134</v>
@@ -68505,7 +68499,7 @@
         <v>43929</v>
       </c>
       <c r="C2017" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2017" t="s">
         <v>45</v>
@@ -68673,7 +68667,7 @@
         <v>77</v>
       </c>
       <c r="D2022" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E2022" t="s">
         <v>43</v>
@@ -68706,7 +68700,7 @@
         <v>77</v>
       </c>
       <c r="D2023" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E2023" t="s">
         <v>24</v>
@@ -69105,7 +69099,7 @@
         <v>43929</v>
       </c>
       <c r="C2035" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D2035" t="s">
         <v>160</v>
@@ -69303,7 +69297,7 @@
         <v>43929</v>
       </c>
       <c r="C2041" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2041" t="s">
         <v>160</v>
@@ -69699,7 +69693,7 @@
         <v>43929</v>
       </c>
       <c r="C2053" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D2053" t="s">
         <v>160</v>

--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DE718-B67F-4900-9247-4AC7E95ACEB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B354D8-252D-4CD6-8E2F-5537D9A2DAB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14829" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14829" uniqueCount="287">
   <si>
     <t>ID de caso</t>
   </si>
@@ -840,16 +840,7 @@
     <t>Espinal</t>
   </si>
   <si>
-    <t>Barranquilla D.E.</t>
-  </si>
-  <si>
-    <t>Cartagena D.T. y C</t>
-  </si>
-  <si>
     <t>Guatape</t>
-  </si>
-  <si>
-    <t>Santa Marta D.T. y C.</t>
   </si>
   <si>
     <t>Bogota</t>
@@ -1746,7 +1737,7 @@
   <dimension ref="A1:L2474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D2480" sqref="D2480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8634,7 +8625,7 @@
         <v>220</v>
       </c>
       <c r="E208" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F208" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9564,7 +9555,7 @@
         <v>220</v>
       </c>
       <c r="E236" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F236" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10395,7 +10386,7 @@
         <v>220</v>
       </c>
       <c r="E261" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F261" s="2" t="str">
         <f t="shared" si="4"/>
@@ -10698,7 +10689,7 @@
         <v>45</v>
       </c>
       <c r="E270" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F270" s="2" t="str">
         <f t="shared" si="4"/>
@@ -10995,7 +10986,7 @@
         <v>55</v>
       </c>
       <c r="E279" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F279" s="2" t="str">
         <f t="shared" si="4"/>
@@ -14847,7 +14838,7 @@
         <v>220</v>
       </c>
       <c r="E395" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F395" s="2" t="str">
         <f t="shared" si="6"/>
@@ -26163,7 +26154,7 @@
         <v>220</v>
       </c>
       <c r="E735" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F735" s="2" t="str">
         <f t="shared" si="11"/>
@@ -36309,7 +36300,7 @@
         <v>220</v>
       </c>
       <c r="E1041" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F1041" s="2" t="str">
         <f t="shared" si="16"/>
@@ -74067,7 +74058,7 @@
         <v>180</v>
       </c>
       <c r="D2178" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="E2178" t="s">
         <v>24</v>
@@ -75621,7 +75612,7 @@
         <v>48</v>
       </c>
       <c r="D2225" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="E2225" t="s">
         <v>24</v>
@@ -75819,7 +75810,7 @@
         <v>25</v>
       </c>
       <c r="D2231" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2231" t="s">
         <v>24</v>
@@ -75852,7 +75843,7 @@
         <v>25</v>
       </c>
       <c r="D2232" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2232" t="s">
         <v>24</v>
@@ -75885,7 +75876,7 @@
         <v>25</v>
       </c>
       <c r="D2233" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2233" t="s">
         <v>24</v>
@@ -75918,7 +75909,7 @@
         <v>25</v>
       </c>
       <c r="D2234" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2234" t="s">
         <v>43</v>
@@ -75951,7 +75942,7 @@
         <v>25</v>
       </c>
       <c r="D2235" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2235" t="s">
         <v>24</v>
@@ -75984,7 +75975,7 @@
         <v>25</v>
       </c>
       <c r="D2236" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2236" t="s">
         <v>24</v>
@@ -76017,7 +76008,7 @@
         <v>25</v>
       </c>
       <c r="D2237" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2237" t="s">
         <v>24</v>
@@ -76050,7 +76041,7 @@
         <v>25</v>
       </c>
       <c r="D2238" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2238" t="s">
         <v>24</v>
@@ -76083,7 +76074,7 @@
         <v>25</v>
       </c>
       <c r="D2239" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2239" t="s">
         <v>24</v>
@@ -76113,7 +76104,7 @@
         <v>43931</v>
       </c>
       <c r="C2240" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2240" t="s">
         <v>20</v>
@@ -76281,7 +76272,7 @@
         <v>48</v>
       </c>
       <c r="D2245" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="E2245" t="s">
         <v>24</v>
@@ -76314,7 +76305,7 @@
         <v>77</v>
       </c>
       <c r="D2246" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2246" t="s">
         <v>43</v>
@@ -76443,7 +76434,7 @@
         <v>43931</v>
       </c>
       <c r="C2250" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2250" t="s">
         <v>220</v>
@@ -76476,7 +76467,7 @@
         <v>43931</v>
       </c>
       <c r="C2251" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2251" t="s">
         <v>220</v>
@@ -76509,7 +76500,7 @@
         <v>43931</v>
       </c>
       <c r="C2252" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2252" t="s">
         <v>220</v>
@@ -76542,7 +76533,7 @@
         <v>43931</v>
       </c>
       <c r="C2253" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2253" t="s">
         <v>220</v>
@@ -76575,7 +76566,7 @@
         <v>43931</v>
       </c>
       <c r="C2254" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2254" t="s">
         <v>220</v>
@@ -76608,7 +76599,7 @@
         <v>43931</v>
       </c>
       <c r="C2255" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2255" t="s">
         <v>220</v>
@@ -76641,7 +76632,7 @@
         <v>43931</v>
       </c>
       <c r="C2256" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2256" t="s">
         <v>220</v>
@@ -76674,7 +76665,7 @@
         <v>43931</v>
       </c>
       <c r="C2257" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2257" t="s">
         <v>220</v>
@@ -76707,7 +76698,7 @@
         <v>43931</v>
       </c>
       <c r="C2258" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2258" t="s">
         <v>220</v>
@@ -76740,7 +76731,7 @@
         <v>43931</v>
       </c>
       <c r="C2259" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2259" t="s">
         <v>220</v>
@@ -76773,7 +76764,7 @@
         <v>43931</v>
       </c>
       <c r="C2260" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2260" t="s">
         <v>220</v>
@@ -76806,7 +76797,7 @@
         <v>43931</v>
       </c>
       <c r="C2261" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2261" t="s">
         <v>220</v>
@@ -76839,7 +76830,7 @@
         <v>43931</v>
       </c>
       <c r="C2262" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2262" t="s">
         <v>220</v>
@@ -76872,7 +76863,7 @@
         <v>43931</v>
       </c>
       <c r="C2263" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2263" t="s">
         <v>220</v>
@@ -76905,7 +76896,7 @@
         <v>43931</v>
       </c>
       <c r="C2264" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2264" t="s">
         <v>220</v>
@@ -76938,7 +76929,7 @@
         <v>43931</v>
       </c>
       <c r="C2265" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2265" t="s">
         <v>220</v>
@@ -76971,7 +76962,7 @@
         <v>43931</v>
       </c>
       <c r="C2266" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2266" t="s">
         <v>220</v>
@@ -77004,7 +76995,7 @@
         <v>43931</v>
       </c>
       <c r="C2267" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2267" t="s">
         <v>220</v>
@@ -77037,7 +77028,7 @@
         <v>43931</v>
       </c>
       <c r="C2268" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2268" t="s">
         <v>220</v>
@@ -77070,7 +77061,7 @@
         <v>43931</v>
       </c>
       <c r="C2269" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2269" t="s">
         <v>220</v>
@@ -77103,7 +77094,7 @@
         <v>43931</v>
       </c>
       <c r="C2270" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2270" t="s">
         <v>220</v>
@@ -77142,7 +77133,7 @@
         <v>43931</v>
       </c>
       <c r="C2271" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2271" t="s">
         <v>220</v>
@@ -77175,7 +77166,7 @@
         <v>43931</v>
       </c>
       <c r="C2272" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2272" t="s">
         <v>220</v>
@@ -77208,7 +77199,7 @@
         <v>43931</v>
       </c>
       <c r="C2273" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2273" t="s">
         <v>220</v>
@@ -77241,7 +77232,7 @@
         <v>43931</v>
       </c>
       <c r="C2274" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2274" t="s">
         <v>220</v>
@@ -77274,7 +77265,7 @@
         <v>43931</v>
       </c>
       <c r="C2275" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2275" t="s">
         <v>220</v>
@@ -77307,7 +77298,7 @@
         <v>43931</v>
       </c>
       <c r="C2276" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2276" t="s">
         <v>220</v>
@@ -77340,7 +77331,7 @@
         <v>43931</v>
       </c>
       <c r="C2277" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2277" t="s">
         <v>220</v>
@@ -77373,7 +77364,7 @@
         <v>43931</v>
       </c>
       <c r="C2278" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2278" t="s">
         <v>220</v>
@@ -77406,7 +77397,7 @@
         <v>43931</v>
       </c>
       <c r="C2279" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2279" t="s">
         <v>220</v>
@@ -77439,7 +77430,7 @@
         <v>43931</v>
       </c>
       <c r="C2280" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2280" t="s">
         <v>220</v>
@@ -77472,7 +77463,7 @@
         <v>43931</v>
       </c>
       <c r="C2281" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2281" t="s">
         <v>220</v>
@@ -77505,7 +77496,7 @@
         <v>43931</v>
       </c>
       <c r="C2282" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2282" t="s">
         <v>220</v>
@@ -77538,7 +77529,7 @@
         <v>43931</v>
       </c>
       <c r="C2283" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2283" t="s">
         <v>220</v>
@@ -77571,7 +77562,7 @@
         <v>43931</v>
       </c>
       <c r="C2284" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2284" t="s">
         <v>220</v>
@@ -77604,7 +77595,7 @@
         <v>43931</v>
       </c>
       <c r="C2285" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2285" t="s">
         <v>220</v>
@@ -77637,7 +77628,7 @@
         <v>43931</v>
       </c>
       <c r="C2286" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2286" t="s">
         <v>220</v>
@@ -77670,7 +77661,7 @@
         <v>43931</v>
       </c>
       <c r="C2287" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2287" t="s">
         <v>220</v>
@@ -77703,7 +77694,7 @@
         <v>43931</v>
       </c>
       <c r="C2288" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2288" t="s">
         <v>220</v>
@@ -77736,7 +77727,7 @@
         <v>43931</v>
       </c>
       <c r="C2289" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2289" t="s">
         <v>220</v>
@@ -77769,7 +77760,7 @@
         <v>43931</v>
       </c>
       <c r="C2290" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2290" t="s">
         <v>220</v>
@@ -77802,7 +77793,7 @@
         <v>43931</v>
       </c>
       <c r="C2291" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2291" t="s">
         <v>220</v>
@@ -77835,7 +77826,7 @@
         <v>43931</v>
       </c>
       <c r="C2292" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2292" t="s">
         <v>220</v>
@@ -77868,7 +77859,7 @@
         <v>43931</v>
       </c>
       <c r="C2293" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2293" t="s">
         <v>220</v>
@@ -77901,7 +77892,7 @@
         <v>43931</v>
       </c>
       <c r="C2294" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2294" t="s">
         <v>220</v>
@@ -77934,7 +77925,7 @@
         <v>43931</v>
       </c>
       <c r="C2295" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2295" t="s">
         <v>220</v>
@@ -77967,7 +77958,7 @@
         <v>43931</v>
       </c>
       <c r="C2296" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2296" t="s">
         <v>220</v>
@@ -78000,7 +77991,7 @@
         <v>43931</v>
       </c>
       <c r="C2297" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2297" t="s">
         <v>220</v>
@@ -78033,7 +78024,7 @@
         <v>43931</v>
       </c>
       <c r="C2298" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2298" t="s">
         <v>220</v>
@@ -78066,7 +78057,7 @@
         <v>43931</v>
       </c>
       <c r="C2299" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2299" t="s">
         <v>220</v>
@@ -78099,7 +78090,7 @@
         <v>43931</v>
       </c>
       <c r="C2300" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2300" t="s">
         <v>220</v>
@@ -78132,7 +78123,7 @@
         <v>43931</v>
       </c>
       <c r="C2301" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2301" t="s">
         <v>220</v>
@@ -78165,7 +78156,7 @@
         <v>43931</v>
       </c>
       <c r="C2302" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2302" t="s">
         <v>220</v>
@@ -78198,7 +78189,7 @@
         <v>43931</v>
       </c>
       <c r="C2303" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2303" t="s">
         <v>220</v>
@@ -78231,7 +78222,7 @@
         <v>43931</v>
       </c>
       <c r="C2304" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2304" t="s">
         <v>220</v>
@@ -78264,7 +78255,7 @@
         <v>43931</v>
       </c>
       <c r="C2305" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2305" t="s">
         <v>220</v>
@@ -78297,7 +78288,7 @@
         <v>43931</v>
       </c>
       <c r="C2306" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2306" t="s">
         <v>220</v>
@@ -78330,7 +78321,7 @@
         <v>43931</v>
       </c>
       <c r="C2307" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2307" t="s">
         <v>220</v>
@@ -78363,7 +78354,7 @@
         <v>43931</v>
       </c>
       <c r="C2308" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2308" t="s">
         <v>220</v>
@@ -78396,7 +78387,7 @@
         <v>43931</v>
       </c>
       <c r="C2309" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2309" t="s">
         <v>220</v>
@@ -78429,7 +78420,7 @@
         <v>43931</v>
       </c>
       <c r="C2310" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2310" t="s">
         <v>220</v>
@@ -78462,7 +78453,7 @@
         <v>43931</v>
       </c>
       <c r="C2311" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2311" t="s">
         <v>220</v>
@@ -78495,7 +78486,7 @@
         <v>43931</v>
       </c>
       <c r="C2312" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2312" t="s">
         <v>220</v>
@@ -78528,7 +78519,7 @@
         <v>43931</v>
       </c>
       <c r="C2313" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2313" t="s">
         <v>220</v>
@@ -78561,7 +78552,7 @@
         <v>43931</v>
       </c>
       <c r="C2314" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2314" t="s">
         <v>220</v>
@@ -78594,7 +78585,7 @@
         <v>43931</v>
       </c>
       <c r="C2315" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2315" t="s">
         <v>220</v>
@@ -78627,7 +78618,7 @@
         <v>43931</v>
       </c>
       <c r="C2316" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2316" t="s">
         <v>220</v>
@@ -78660,7 +78651,7 @@
         <v>43931</v>
       </c>
       <c r="C2317" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2317" t="s">
         <v>220</v>
@@ -78693,7 +78684,7 @@
         <v>43931</v>
       </c>
       <c r="C2318" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2318" t="s">
         <v>220</v>
@@ -78726,7 +78717,7 @@
         <v>43931</v>
       </c>
       <c r="C2319" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2319" t="s">
         <v>220</v>
@@ -78759,7 +78750,7 @@
         <v>43931</v>
       </c>
       <c r="C2320" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2320" t="s">
         <v>220</v>
@@ -78792,7 +78783,7 @@
         <v>43931</v>
       </c>
       <c r="C2321" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2321" t="s">
         <v>220</v>
@@ -78825,7 +78816,7 @@
         <v>43931</v>
       </c>
       <c r="C2322" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2322" t="s">
         <v>220</v>
@@ -78858,7 +78849,7 @@
         <v>43931</v>
       </c>
       <c r="C2323" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2323" t="s">
         <v>220</v>
@@ -78891,7 +78882,7 @@
         <v>43931</v>
       </c>
       <c r="C2324" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2324" t="s">
         <v>220</v>
@@ -78924,7 +78915,7 @@
         <v>43931</v>
       </c>
       <c r="C2325" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2325" t="s">
         <v>220</v>
@@ -78957,7 +78948,7 @@
         <v>43931</v>
       </c>
       <c r="C2326" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2326" t="s">
         <v>220</v>
@@ -78990,7 +78981,7 @@
         <v>43931</v>
       </c>
       <c r="C2327" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2327" t="s">
         <v>220</v>
@@ -79023,7 +79014,7 @@
         <v>43931</v>
       </c>
       <c r="C2328" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2328" t="s">
         <v>220</v>
@@ -79056,7 +79047,7 @@
         <v>43931</v>
       </c>
       <c r="C2329" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2329" t="s">
         <v>220</v>
@@ -79089,7 +79080,7 @@
         <v>43931</v>
       </c>
       <c r="C2330" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2330" t="s">
         <v>220</v>
@@ -79122,7 +79113,7 @@
         <v>43931</v>
       </c>
       <c r="C2331" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2331" t="s">
         <v>220</v>
@@ -79155,7 +79146,7 @@
         <v>43931</v>
       </c>
       <c r="C2332" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2332" t="s">
         <v>220</v>
@@ -79188,7 +79179,7 @@
         <v>43931</v>
       </c>
       <c r="C2333" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2333" t="s">
         <v>220</v>
@@ -79221,7 +79212,7 @@
         <v>43931</v>
       </c>
       <c r="C2334" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2334" t="s">
         <v>220</v>
@@ -79254,7 +79245,7 @@
         <v>43931</v>
       </c>
       <c r="C2335" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2335" t="s">
         <v>220</v>
@@ -79287,7 +79278,7 @@
         <v>43931</v>
       </c>
       <c r="C2336" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2336" t="s">
         <v>220</v>
@@ -79320,7 +79311,7 @@
         <v>43931</v>
       </c>
       <c r="C2337" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2337" t="s">
         <v>220</v>
@@ -79353,7 +79344,7 @@
         <v>43931</v>
       </c>
       <c r="C2338" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2338" t="s">
         <v>220</v>
@@ -79372,7 +79363,7 @@
         <v>14</v>
       </c>
       <c r="I2338" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L2338">
         <v>29</v>
@@ -79386,7 +79377,7 @@
         <v>43931</v>
       </c>
       <c r="C2339" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2339" t="s">
         <v>220</v>
@@ -79419,7 +79410,7 @@
         <v>43931</v>
       </c>
       <c r="C2340" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2340" t="s">
         <v>220</v>
@@ -79452,7 +79443,7 @@
         <v>43931</v>
       </c>
       <c r="C2341" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2341" t="s">
         <v>220</v>
@@ -79491,7 +79482,7 @@
         <v>160</v>
       </c>
       <c r="E2342" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F2342" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79524,7 +79515,7 @@
         <v>160</v>
       </c>
       <c r="E2343" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F2343" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79590,7 +79581,7 @@
         <v>160</v>
       </c>
       <c r="E2345" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F2345" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79623,7 +79614,7 @@
         <v>160</v>
       </c>
       <c r="E2346" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F2346" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79716,7 +79707,7 @@
         <v>43931</v>
       </c>
       <c r="C2349" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D2349" t="s">
         <v>45</v>
@@ -79752,7 +79743,7 @@
         <v>48</v>
       </c>
       <c r="D2350" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="E2350" t="s">
         <v>24</v>
@@ -79785,7 +79776,7 @@
         <v>48</v>
       </c>
       <c r="D2351" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="E2351" t="s">
         <v>24</v>
@@ -79818,7 +79809,7 @@
         <v>48</v>
       </c>
       <c r="D2352" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="E2352" t="s">
         <v>24</v>
@@ -79851,7 +79842,7 @@
         <v>25</v>
       </c>
       <c r="D2353" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2353" t="s">
         <v>24</v>
@@ -79884,7 +79875,7 @@
         <v>25</v>
       </c>
       <c r="D2354" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2354" t="s">
         <v>43</v>
@@ -79917,7 +79908,7 @@
         <v>25</v>
       </c>
       <c r="D2355" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2355" t="s">
         <v>24</v>
@@ -79950,7 +79941,7 @@
         <v>25</v>
       </c>
       <c r="D2356" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2356" t="s">
         <v>24</v>
@@ -79983,7 +79974,7 @@
         <v>25</v>
       </c>
       <c r="D2357" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2357" t="s">
         <v>24</v>
@@ -80016,7 +80007,7 @@
         <v>25</v>
       </c>
       <c r="D2358" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2358" t="s">
         <v>24</v>
@@ -80049,7 +80040,7 @@
         <v>25</v>
       </c>
       <c r="D2359" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2359" t="s">
         <v>24</v>
@@ -80082,7 +80073,7 @@
         <v>25</v>
       </c>
       <c r="D2360" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2360" t="s">
         <v>24</v>
@@ -80115,7 +80106,7 @@
         <v>25</v>
       </c>
       <c r="D2361" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2361" t="s">
         <v>24</v>
@@ -80148,7 +80139,7 @@
         <v>25</v>
       </c>
       <c r="D2362" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2362" t="s">
         <v>24</v>
@@ -80181,7 +80172,7 @@
         <v>25</v>
       </c>
       <c r="D2363" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2363" t="s">
         <v>24</v>
@@ -80214,7 +80205,7 @@
         <v>25</v>
       </c>
       <c r="D2364" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="E2364" t="s">
         <v>24</v>
@@ -80277,7 +80268,7 @@
         <v>43931</v>
       </c>
       <c r="C2366" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2366" t="s">
         <v>134</v>
@@ -80343,7 +80334,7 @@
         <v>43931</v>
       </c>
       <c r="C2368" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2368" t="s">
         <v>64</v>
@@ -80376,7 +80367,7 @@
         <v>43931</v>
       </c>
       <c r="C2369" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2369" t="s">
         <v>64</v>
@@ -80442,7 +80433,7 @@
         <v>43931</v>
       </c>
       <c r="C2371" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D2371" t="s">
         <v>91</v>
@@ -80475,7 +80466,7 @@
         <v>43931</v>
       </c>
       <c r="C2372" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2372" t="s">
         <v>45</v>
@@ -80541,7 +80532,7 @@
         <v>43931</v>
       </c>
       <c r="C2374" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D2374" t="s">
         <v>45</v>
@@ -80574,7 +80565,7 @@
         <v>43931</v>
       </c>
       <c r="C2375" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2375" t="s">
         <v>45</v>
@@ -80808,7 +80799,7 @@
         <v>77</v>
       </c>
       <c r="D2382" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2382" t="s">
         <v>24</v>
@@ -80841,7 +80832,7 @@
         <v>77</v>
       </c>
       <c r="D2383" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2383" t="s">
         <v>24</v>
@@ -80874,7 +80865,7 @@
         <v>77</v>
       </c>
       <c r="D2384" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2384" t="s">
         <v>24</v>
@@ -80907,7 +80898,7 @@
         <v>77</v>
       </c>
       <c r="D2385" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2385" t="s">
         <v>24</v>
@@ -80940,7 +80931,7 @@
         <v>77</v>
       </c>
       <c r="D2386" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2386" t="s">
         <v>43</v>
@@ -80973,7 +80964,7 @@
         <v>77</v>
       </c>
       <c r="D2387" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2387" t="s">
         <v>43</v>
@@ -81003,7 +80994,7 @@
         <v>43931</v>
       </c>
       <c r="C2388" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D2388" t="s">
         <v>211</v>
@@ -81036,7 +81027,7 @@
         <v>43931</v>
       </c>
       <c r="C2389" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D2389" t="s">
         <v>211</v>
@@ -81072,7 +81063,7 @@
         <v>77</v>
       </c>
       <c r="D2390" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2390" t="s">
         <v>43</v>
@@ -81105,7 +81096,7 @@
         <v>77</v>
       </c>
       <c r="D2391" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2391" t="s">
         <v>24</v>
@@ -81138,7 +81129,7 @@
         <v>77</v>
       </c>
       <c r="D2392" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E2392" t="s">
         <v>24</v>
@@ -81477,7 +81468,7 @@
         <v>43931</v>
       </c>
       <c r="C2402" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2402" t="s">
         <v>58</v>
@@ -81510,7 +81501,7 @@
         <v>43931</v>
       </c>
       <c r="C2403" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2403" t="s">
         <v>58</v>
@@ -81543,7 +81534,7 @@
         <v>43931</v>
       </c>
       <c r="C2404" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2404" t="s">
         <v>58</v>
@@ -81576,7 +81567,7 @@
         <v>43931</v>
       </c>
       <c r="C2405" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2405" t="s">
         <v>58</v>
@@ -81988,7 +81979,7 @@
         <v>17</v>
       </c>
       <c r="H2417" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I2417" t="s">
         <v>22</v>
@@ -82269,7 +82260,7 @@
         <v>43931</v>
       </c>
       <c r="C2426" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D2426" t="s">
         <v>160</v>
@@ -82288,7 +82279,7 @@
         <v>14</v>
       </c>
       <c r="I2426" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L2426">
         <v>24</v>
@@ -82335,7 +82326,7 @@
         <v>43931</v>
       </c>
       <c r="C2428" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D2428" t="s">
         <v>45</v>
@@ -83787,7 +83778,7 @@
         <v>43931</v>
       </c>
       <c r="C2472" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2472" t="s">
         <v>64</v>

--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B354D8-252D-4CD6-8E2F-5537D9A2DAB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2108C31-39EC-4216-8174-E0A75BA435DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$2474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$2710</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14829" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16242" uniqueCount="299">
   <si>
     <t>ID de caso</t>
   </si>
@@ -849,9 +849,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>casa</t>
-  </si>
-  <si>
     <t>Nilo</t>
   </si>
   <si>
@@ -892,6 +889,45 @@
   </si>
   <si>
     <t>Recuperado (Hospital)</t>
+  </si>
+  <si>
+    <t>Tocancipá</t>
+  </si>
+  <si>
+    <t>Ciénaga</t>
+  </si>
+  <si>
+    <t>Sogamoso</t>
+  </si>
+  <si>
+    <t>Villamaria</t>
+  </si>
+  <si>
+    <t>Cereté</t>
+  </si>
+  <si>
+    <t>Tierralta</t>
+  </si>
+  <si>
+    <t>Suesca</t>
+  </si>
+  <si>
+    <t>Agrado</t>
+  </si>
+  <si>
+    <t>Gigante</t>
+  </si>
+  <si>
+    <t>Pitalito</t>
+  </si>
+  <si>
+    <t>Quibdó</t>
+  </si>
+  <si>
+    <t>Chocó</t>
+  </si>
+  <si>
+    <t>El Cerrito</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2474"/>
+  <dimension ref="A1:L2710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2480" sqref="D2480"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5691,7 +5727,7 @@
         <v>39</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7326,7 +7362,7 @@
         <v>220</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F169" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8223,7 +8259,7 @@
         <v>37</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F196" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8625,7 +8661,7 @@
         <v>220</v>
       </c>
       <c r="E208" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F208" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8988,7 +9024,7 @@
         <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F219" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9555,7 +9591,7 @@
         <v>220</v>
       </c>
       <c r="E236" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="F236" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10287,7 +10323,7 @@
         <v>220</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F258" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10386,7 +10422,7 @@
         <v>220</v>
       </c>
       <c r="E261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F261" s="2" t="str">
         <f t="shared" si="4"/>
@@ -10689,7 +10725,7 @@
         <v>45</v>
       </c>
       <c r="E270" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F270" s="2" t="str">
         <f t="shared" si="4"/>
@@ -10986,7 +11022,7 @@
         <v>55</v>
       </c>
       <c r="E279" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F279" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11052,7 +11088,7 @@
         <v>160</v>
       </c>
       <c r="E281" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F281" s="2" t="str">
         <f t="shared" si="4"/>
@@ -12417,7 +12453,7 @@
         <v>58</v>
       </c>
       <c r="E322" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F322" s="2" t="str">
         <f t="shared" si="4"/>
@@ -12483,7 +12519,7 @@
         <v>41</v>
       </c>
       <c r="E324" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F324" s="2" t="str">
         <f t="shared" si="5"/>
@@ -13017,7 +13053,7 @@
         <v>160</v>
       </c>
       <c r="E340" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F340" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14838,7 +14874,7 @@
         <v>220</v>
       </c>
       <c r="E395" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F395" s="2" t="str">
         <f t="shared" si="6"/>
@@ -15795,7 +15831,7 @@
         <v>37</v>
       </c>
       <c r="E424" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F424" s="2" t="str">
         <f t="shared" si="6"/>
@@ -16329,7 +16365,7 @@
         <v>41</v>
       </c>
       <c r="E440" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F440" s="2" t="str">
         <f t="shared" si="6"/>
@@ -19593,7 +19629,7 @@
         <v>55</v>
       </c>
       <c r="E538" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F538" s="2" t="str">
         <f t="shared" si="8"/>
@@ -19962,7 +19998,7 @@
         <v>115</v>
       </c>
       <c r="E549" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F549" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25173,7 +25209,7 @@
         <v>45</v>
       </c>
       <c r="E706" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F706" s="2" t="str">
         <f t="shared" si="10"/>
@@ -26154,7 +26190,7 @@
         <v>220</v>
       </c>
       <c r="E735" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F735" s="2" t="str">
         <f t="shared" si="11"/>
@@ -27645,7 +27681,7 @@
         <v>220</v>
       </c>
       <c r="E780" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F780" s="2" t="str">
         <f t="shared" si="12"/>
@@ -27660,6 +27696,12 @@
       <c r="I780" t="s">
         <v>22</v>
       </c>
+      <c r="J780">
+        <v>81</v>
+      </c>
+      <c r="K780" s="1">
+        <v>43932</v>
+      </c>
       <c r="L780">
         <v>50</v>
       </c>
@@ -28338,7 +28380,7 @@
         <v>160</v>
       </c>
       <c r="E801" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F801" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28668,7 +28710,7 @@
         <v>115</v>
       </c>
       <c r="E811" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F811" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28932,7 +28974,7 @@
         <v>91</v>
       </c>
       <c r="E819" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F819" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28998,7 +29040,7 @@
         <v>170</v>
       </c>
       <c r="E821" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F821" s="2" t="str">
         <f t="shared" si="12"/>
@@ -29130,7 +29172,7 @@
         <v>131</v>
       </c>
       <c r="E825" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F825" s="2" t="str">
         <f t="shared" si="12"/>
@@ -31326,7 +31368,7 @@
         <v>220</v>
       </c>
       <c r="E891" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F891" s="2" t="str">
         <f t="shared" si="13"/>
@@ -31341,6 +31383,12 @@
       <c r="I891" t="s">
         <v>22</v>
       </c>
+      <c r="J891">
+        <v>82</v>
+      </c>
+      <c r="K891" s="1">
+        <v>43932</v>
+      </c>
       <c r="L891">
         <v>49</v>
       </c>
@@ -36300,7 +36348,7 @@
         <v>220</v>
       </c>
       <c r="E1041" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F1041" s="2" t="str">
         <f t="shared" si="16"/>
@@ -37104,7 +37152,7 @@
         <v>220</v>
       </c>
       <c r="E1065" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1065" s="2" t="str">
         <f t="shared" si="16"/>
@@ -37119,6 +37167,12 @@
       <c r="I1065" t="s">
         <v>22</v>
       </c>
+      <c r="J1065">
+        <v>83</v>
+      </c>
+      <c r="K1065" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1065">
         <v>33</v>
       </c>
@@ -44919,7 +44973,7 @@
         <v>220</v>
       </c>
       <c r="E1300" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1300" s="2" t="str">
         <f t="shared" si="20"/>
@@ -44934,6 +44988,12 @@
       <c r="I1300" t="s">
         <v>22</v>
       </c>
+      <c r="J1300">
+        <v>84</v>
+      </c>
+      <c r="K1300" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1300">
         <v>93</v>
       </c>
@@ -57471,7 +57531,7 @@
         <v>220</v>
       </c>
       <c r="E1678" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F1678" s="2" t="str">
         <f t="shared" si="26"/>
@@ -57486,6 +57546,12 @@
       <c r="I1678" t="s">
         <v>22</v>
       </c>
+      <c r="J1678">
+        <v>85</v>
+      </c>
+      <c r="K1678" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1678">
         <v>61</v>
       </c>
@@ -62208,7 +62274,7 @@
         <v>41</v>
       </c>
       <c r="E1821" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1821" s="2" t="str">
         <f t="shared" si="28"/>
@@ -62223,6 +62289,12 @@
       <c r="I1821" t="s">
         <v>22</v>
       </c>
+      <c r="J1821">
+        <v>86</v>
+      </c>
+      <c r="K1821" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1821">
         <v>91</v>
       </c>
@@ -63165,7 +63237,7 @@
         <v>220</v>
       </c>
       <c r="E1850" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1850" s="2" t="str">
         <f t="shared" si="28"/>
@@ -63180,6 +63252,12 @@
       <c r="I1850" t="s">
         <v>22</v>
       </c>
+      <c r="J1850">
+        <v>87</v>
+      </c>
+      <c r="K1850" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1850">
         <v>83</v>
       </c>
@@ -64122,7 +64200,7 @@
         <v>220</v>
       </c>
       <c r="E1879" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1879" s="2" t="str">
         <f t="shared" si="29"/>
@@ -64137,6 +64215,12 @@
       <c r="I1879" t="s">
         <v>22</v>
       </c>
+      <c r="J1879">
+        <v>88</v>
+      </c>
+      <c r="K1879" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1879">
         <v>82</v>
       </c>
@@ -65784,7 +65868,7 @@
         <v>220</v>
       </c>
       <c r="E1929" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1929" s="2" t="str">
         <f t="shared" si="30"/>
@@ -65799,6 +65883,12 @@
       <c r="I1929" t="s">
         <v>22</v>
       </c>
+      <c r="J1929">
+        <v>89</v>
+      </c>
+      <c r="K1929" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1929">
         <v>48</v>
       </c>
@@ -65817,7 +65907,7 @@
         <v>220</v>
       </c>
       <c r="E1930" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1930" s="2" t="str">
         <f t="shared" si="30"/>
@@ -65832,6 +65922,12 @@
       <c r="I1930" t="s">
         <v>22</v>
       </c>
+      <c r="J1930">
+        <v>90</v>
+      </c>
+      <c r="K1930" s="1">
+        <v>43932</v>
+      </c>
       <c r="L1930">
         <v>74</v>
       </c>
@@ -71556,7 +71652,7 @@
         <v>220</v>
       </c>
       <c r="E2103" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2103" s="2" t="str">
         <f t="shared" si="32"/>
@@ -71571,6 +71667,12 @@
       <c r="I2103" t="s">
         <v>22</v>
       </c>
+      <c r="J2103">
+        <v>91</v>
+      </c>
+      <c r="K2103" s="1">
+        <v>43932</v>
+      </c>
       <c r="L2103">
         <v>83</v>
       </c>
@@ -71787,7 +71889,7 @@
         <v>220</v>
       </c>
       <c r="E2110" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2110" s="2" t="str">
         <f t="shared" si="32"/>
@@ -71802,6 +71904,12 @@
       <c r="I2110" t="s">
         <v>22</v>
       </c>
+      <c r="J2110">
+        <v>92</v>
+      </c>
+      <c r="K2110" s="1">
+        <v>43932</v>
+      </c>
       <c r="L2110">
         <v>83</v>
       </c>
@@ -73092,7 +73200,7 @@
         <v>32</v>
       </c>
       <c r="E2149" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F2149" s="2" t="str">
         <f t="shared" si="33"/>
@@ -76192,7 +76300,7 @@
         <v>22</v>
       </c>
       <c r="L2242">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2243" spans="1:12" x14ac:dyDescent="0.25">
@@ -77436,7 +77544,7 @@
         <v>220</v>
       </c>
       <c r="E2280" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2280" s="2" t="str">
         <f t="shared" si="35"/>
@@ -77451,6 +77559,12 @@
       <c r="I2280" t="s">
         <v>22</v>
       </c>
+      <c r="J2280">
+        <v>93</v>
+      </c>
+      <c r="K2280" s="1">
+        <v>43932</v>
+      </c>
       <c r="L2280">
         <v>60</v>
       </c>
@@ -79482,7 +79596,7 @@
         <v>160</v>
       </c>
       <c r="E2342" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="F2342" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79515,7 +79629,7 @@
         <v>160</v>
       </c>
       <c r="E2343" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="F2343" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79581,7 +79695,7 @@
         <v>160</v>
       </c>
       <c r="E2345" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="F2345" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79614,7 +79728,7 @@
         <v>160</v>
       </c>
       <c r="E2346" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="F2346" s="2" t="str">
         <f t="shared" si="36"/>
@@ -79707,7 +79821,7 @@
         <v>43931</v>
       </c>
       <c r="C2349" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D2349" t="s">
         <v>45</v>
@@ -80268,7 +80382,7 @@
         <v>43931</v>
       </c>
       <c r="C2366" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2366" t="s">
         <v>134</v>
@@ -80334,7 +80448,7 @@
         <v>43931</v>
       </c>
       <c r="C2368" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2368" t="s">
         <v>64</v>
@@ -80367,7 +80481,7 @@
         <v>43931</v>
       </c>
       <c r="C2369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2369" t="s">
         <v>64</v>
@@ -80433,7 +80547,7 @@
         <v>43931</v>
       </c>
       <c r="C2371" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2371" t="s">
         <v>91</v>
@@ -80466,7 +80580,7 @@
         <v>43931</v>
       </c>
       <c r="C2372" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2372" t="s">
         <v>45</v>
@@ -80532,7 +80646,7 @@
         <v>43931</v>
       </c>
       <c r="C2374" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2374" t="s">
         <v>45</v>
@@ -80565,7 +80679,7 @@
         <v>43931</v>
       </c>
       <c r="C2375" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2375" t="s">
         <v>45</v>
@@ -80736,7 +80850,7 @@
         <v>115</v>
       </c>
       <c r="E2380" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2380" s="2" t="str">
         <f t="shared" si="37"/>
@@ -80751,6 +80865,12 @@
       <c r="I2380" t="s">
         <v>22</v>
       </c>
+      <c r="J2380">
+        <v>94</v>
+      </c>
+      <c r="K2380" s="1">
+        <v>43932</v>
+      </c>
       <c r="L2380">
         <v>72</v>
       </c>
@@ -80994,7 +81114,7 @@
         <v>43931</v>
       </c>
       <c r="C2388" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2388" t="s">
         <v>211</v>
@@ -81027,7 +81147,7 @@
         <v>43931</v>
       </c>
       <c r="C2389" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2389" t="s">
         <v>211</v>
@@ -81468,7 +81588,7 @@
         <v>43931</v>
       </c>
       <c r="C2402" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2402" t="s">
         <v>58</v>
@@ -81501,7 +81621,7 @@
         <v>43931</v>
       </c>
       <c r="C2403" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2403" t="s">
         <v>58</v>
@@ -81534,7 +81654,7 @@
         <v>43931</v>
       </c>
       <c r="C2404" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2404" t="s">
         <v>58</v>
@@ -81567,7 +81687,7 @@
         <v>43931</v>
       </c>
       <c r="C2405" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2405" t="s">
         <v>58</v>
@@ -81979,7 +82099,7 @@
         <v>17</v>
       </c>
       <c r="H2417" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2417" t="s">
         <v>22</v>
@@ -82237,7 +82357,7 @@
       </c>
       <c r="F2425" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>30-39</v>
+        <v>80-89</v>
       </c>
       <c r="G2425" t="s">
         <v>17</v>
@@ -82249,7 +82369,7 @@
         <v>22</v>
       </c>
       <c r="L2425">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2426" spans="1:12" x14ac:dyDescent="0.25">
@@ -82260,7 +82380,7 @@
         <v>43931</v>
       </c>
       <c r="C2426" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2426" t="s">
         <v>160</v>
@@ -82279,7 +82399,7 @@
         <v>14</v>
       </c>
       <c r="I2426" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L2426">
         <v>24</v>
@@ -82326,7 +82446,7 @@
         <v>43931</v>
       </c>
       <c r="C2428" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2428" t="s">
         <v>45</v>
@@ -82431,7 +82551,7 @@
         <v>98</v>
       </c>
       <c r="E2431" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F2431" s="2" t="str">
         <f t="shared" si="37"/>
@@ -82566,7 +82686,7 @@
         <v>24</v>
       </c>
       <c r="F2435" s="2" t="str">
-        <f t="shared" ref="F2435:F2474" si="38">IF(L2435&lt;10,"0-9",IF(L2435&lt;20,"10-19",IF(L2435&lt;30,"20-29",IF(L2435&lt;40,"30-39",IF(L2435&lt;50,"40-49",IF(L2435&lt;60,"50-59",IF(L2435&lt;70,"60-69",IF(L2435&lt;80,"70-79",IF(L2435&lt;90,"80-89",IF(L2435&lt;100,"90-99","&gt;100"))))))))))</f>
+        <f t="shared" ref="F2435:F2498" si="38">IF(L2435&lt;10,"0-9",IF(L2435&lt;20,"10-19",IF(L2435&lt;30,"20-29",IF(L2435&lt;40,"30-39",IF(L2435&lt;50,"40-49",IF(L2435&lt;60,"50-59",IF(L2435&lt;70,"60-69",IF(L2435&lt;80,"70-79",IF(L2435&lt;90,"80-89",IF(L2435&lt;100,"90-99","&gt;100"))))))))))</f>
         <v>20-29</v>
       </c>
       <c r="G2435" t="s">
@@ -83751,7 +83871,7 @@
         <v>98</v>
       </c>
       <c r="E2471" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F2471" s="2" t="str">
         <f t="shared" si="38"/>
@@ -83778,7 +83898,7 @@
         <v>43931</v>
       </c>
       <c r="C2472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2472" t="s">
         <v>64</v>
@@ -83866,14 +83986,7838 @@
         <v>74</v>
       </c>
       <c r="L2474">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2475">
+        <v>2474</v>
+      </c>
+      <c r="B2475" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2475" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2475" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2475">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2476">
+        <v>2475</v>
+      </c>
+      <c r="B2476" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2476" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2476" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2476">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2477">
+        <v>2476</v>
+      </c>
+      <c r="B2477" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2477" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2477" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2477">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2478">
+        <v>2477</v>
+      </c>
+      <c r="B2478" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2478" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2478" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2478">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2479">
+        <v>2478</v>
+      </c>
+      <c r="B2479" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2479" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2479" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2479">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2480">
+        <v>2479</v>
+      </c>
+      <c r="B2480" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2480" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2480" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2481">
+        <v>2480</v>
+      </c>
+      <c r="B2481" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2481" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2481" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2481">
         <v>30</v>
       </c>
     </row>
+    <row r="2482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2482">
+        <v>2481</v>
+      </c>
+      <c r="B2482" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2482" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2482" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2482">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2483">
+        <v>2482</v>
+      </c>
+      <c r="B2483" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2483" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2483" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2483">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2484">
+        <v>2483</v>
+      </c>
+      <c r="B2484" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2484" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2484" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2485">
+        <v>2484</v>
+      </c>
+      <c r="B2485" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2485" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2485" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2485">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2486">
+        <v>2485</v>
+      </c>
+      <c r="B2486" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2486" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2486" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2486">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2487">
+        <v>2486</v>
+      </c>
+      <c r="B2487" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2487" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2487" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2487">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2488">
+        <v>2487</v>
+      </c>
+      <c r="B2488" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2488" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2488" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2488">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2489">
+        <v>2488</v>
+      </c>
+      <c r="B2489" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2489" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2489" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2489">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2490">
+        <v>2489</v>
+      </c>
+      <c r="B2490" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2490" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2490" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2490">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2491">
+        <v>2490</v>
+      </c>
+      <c r="B2491" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2491" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2491" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2491">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2492">
+        <v>2491</v>
+      </c>
+      <c r="B2492" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2492">
+        <v>0</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2492" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2492" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2492">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2493">
+        <v>2492</v>
+      </c>
+      <c r="B2493" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2493" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2493" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2493">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2494">
+        <v>2493</v>
+      </c>
+      <c r="B2494" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2494" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2494" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2495">
+        <v>2494</v>
+      </c>
+      <c r="B2495" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2495">
+        <v>0</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2495" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2495" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2495">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2496">
+        <v>2495</v>
+      </c>
+      <c r="B2496" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2496" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2496" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2496">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2497">
+        <v>2496</v>
+      </c>
+      <c r="B2497" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2497" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2497" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2497">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2498">
+        <v>2497</v>
+      </c>
+      <c r="B2498" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2498" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2498" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2498">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2499">
+        <v>2498</v>
+      </c>
+      <c r="B2499" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2499" s="2" t="str">
+        <f t="shared" ref="F2499:F2562" si="39">IF(L2499&lt;10,"0-9",IF(L2499&lt;20,"10-19",IF(L2499&lt;30,"20-29",IF(L2499&lt;40,"30-39",IF(L2499&lt;50,"40-49",IF(L2499&lt;60,"50-59",IF(L2499&lt;70,"60-69",IF(L2499&lt;80,"70-79",IF(L2499&lt;90,"80-89",IF(L2499&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2499" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2499">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2500">
+        <v>2499</v>
+      </c>
+      <c r="B2500" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2500" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2500" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2500">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2501">
+        <v>2500</v>
+      </c>
+      <c r="B2501" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2501" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2501" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2501">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2502">
+        <v>2501</v>
+      </c>
+      <c r="B2502" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2502" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2502" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2502">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2503">
+        <v>2502</v>
+      </c>
+      <c r="B2503" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2503" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2503" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2503">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2504">
+        <v>2503</v>
+      </c>
+      <c r="B2504" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2504" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2504" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2504">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2505">
+        <v>2504</v>
+      </c>
+      <c r="B2505" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2505" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2505" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2505">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2506">
+        <v>2505</v>
+      </c>
+      <c r="B2506" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2506" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2506" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2506">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2507">
+        <v>2506</v>
+      </c>
+      <c r="B2507" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2507" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2507" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2507">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2508">
+        <v>2507</v>
+      </c>
+      <c r="B2508" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2508" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2508" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2508">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2509">
+        <v>2508</v>
+      </c>
+      <c r="B2509" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2509" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2509" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2509" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2509">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2510">
+        <v>2509</v>
+      </c>
+      <c r="B2510" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2510" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2510" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2510" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2510">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2511">
+        <v>2510</v>
+      </c>
+      <c r="B2511" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2511" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2511" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2511" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2511">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2512">
+        <v>2511</v>
+      </c>
+      <c r="B2512" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2512" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2512" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2512" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2512" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2512">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2513">
+        <v>2512</v>
+      </c>
+      <c r="B2513" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2513" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2513" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2513" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2513">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2514">
+        <v>2513</v>
+      </c>
+      <c r="B2514" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2514" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2514" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2514">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2515">
+        <v>2514</v>
+      </c>
+      <c r="B2515" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2515" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2515" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2515">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2516">
+        <v>2515</v>
+      </c>
+      <c r="B2516" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2516" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2516" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2516" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2516">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2517">
+        <v>2516</v>
+      </c>
+      <c r="B2517" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2517" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2517" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2517" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2517">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2518">
+        <v>2517</v>
+      </c>
+      <c r="B2518" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2518" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2518" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2518" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2518">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2519">
+        <v>2518</v>
+      </c>
+      <c r="B2519" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2519" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2519" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2519" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2519" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2519">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2520">
+        <v>2519</v>
+      </c>
+      <c r="B2520" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2520" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2520" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2520" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2520" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2520">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2521">
+        <v>2520</v>
+      </c>
+      <c r="B2521" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2521" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2521" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2521" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2521" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2521">
+        <v>95</v>
+      </c>
+      <c r="K2521" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2521">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2522">
+        <v>2521</v>
+      </c>
+      <c r="B2522" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2522" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2522" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2522" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2522" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2522">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2523">
+        <v>2522</v>
+      </c>
+      <c r="B2523" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2523" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2523" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2523" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2523" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2523">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2524">
+        <v>2523</v>
+      </c>
+      <c r="B2524" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2524" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2524" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2524" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2524" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2524">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2525">
+        <v>2524</v>
+      </c>
+      <c r="B2525" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2525" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2525" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2525" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2525" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2525">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2526">
+        <v>2525</v>
+      </c>
+      <c r="B2526" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2526" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2526" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2526" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2526" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2526">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2527">
+        <v>2526</v>
+      </c>
+      <c r="B2527" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2527" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2527" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2527" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2527" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2527">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2528">
+        <v>2527</v>
+      </c>
+      <c r="B2528" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2528" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2528" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2528" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2528" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2529">
+        <v>2528</v>
+      </c>
+      <c r="B2529" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2529" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2529" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2529" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2529" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2529">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2530">
+        <v>2529</v>
+      </c>
+      <c r="B2530" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2530" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2530" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2530" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2530">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2531">
+        <v>2530</v>
+      </c>
+      <c r="B2531" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2531" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2531" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2531" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2531">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2532">
+        <v>2531</v>
+      </c>
+      <c r="B2532" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2532" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2532" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2532" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2532">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2533">
+        <v>2532</v>
+      </c>
+      <c r="B2533" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2533" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2533" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2533" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2533">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2534">
+        <v>2533</v>
+      </c>
+      <c r="B2534" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2534" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2534" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2534" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2534">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2535">
+        <v>2534</v>
+      </c>
+      <c r="B2535" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2535" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2535" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2535" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2535">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2536">
+        <v>2535</v>
+      </c>
+      <c r="B2536" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2536" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2536" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2536" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2536">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2537">
+        <v>2536</v>
+      </c>
+      <c r="B2537" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2537" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2537" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2537" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2537">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2538">
+        <v>2537</v>
+      </c>
+      <c r="B2538" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2538" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2538" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2538" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2538">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2539">
+        <v>2538</v>
+      </c>
+      <c r="B2539" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2539" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2539" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2539" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2539">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2540">
+        <v>2539</v>
+      </c>
+      <c r="B2540" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2540" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2540" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2540" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2540">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2541">
+        <v>2540</v>
+      </c>
+      <c r="B2541" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2541" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2541" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2541" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2541">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2542">
+        <v>2541</v>
+      </c>
+      <c r="B2542" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2542" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2542" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2542" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2542">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2543">
+        <v>2542</v>
+      </c>
+      <c r="B2543" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2543" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2543" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2543" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2543">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2544">
+        <v>2543</v>
+      </c>
+      <c r="B2544" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2544" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2544" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2544" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2544">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2545">
+        <v>2544</v>
+      </c>
+      <c r="B2545" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2545" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2545" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2545" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2545">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2546">
+        <v>2545</v>
+      </c>
+      <c r="B2546" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2546" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>90-99</v>
+      </c>
+      <c r="G2546" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2546" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2546">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2547">
+        <v>2546</v>
+      </c>
+      <c r="B2547" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2547" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2547" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2547" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2547">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2548">
+        <v>2547</v>
+      </c>
+      <c r="B2548" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2548" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2548" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2548" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2548">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2549">
+        <v>2548</v>
+      </c>
+      <c r="B2549" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2549" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2549" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2549" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2549" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2549">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2550">
+        <v>2549</v>
+      </c>
+      <c r="B2550" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2550" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2550" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2550" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2550">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2551">
+        <v>2550</v>
+      </c>
+      <c r="B2551" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2551" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2551" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2551" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2551" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2551">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2552">
+        <v>2551</v>
+      </c>
+      <c r="B2552" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2552" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2552" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2552" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2552">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2553">
+        <v>2552</v>
+      </c>
+      <c r="B2553" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2553" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2553" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2553" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2553">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2554">
+        <v>2553</v>
+      </c>
+      <c r="B2554" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2554" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2554" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2554" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2554" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2554">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2555">
+        <v>2554</v>
+      </c>
+      <c r="B2555" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2555" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2555" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2555" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2555" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2555">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2556">
+        <v>2555</v>
+      </c>
+      <c r="B2556" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2556" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2556" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2556" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2556">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2557">
+        <v>2556</v>
+      </c>
+      <c r="B2557" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2557" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2557" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2557" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2557" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2557">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2558">
+        <v>2557</v>
+      </c>
+      <c r="B2558" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2558" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2558" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2558" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2558" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2558">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2559">
+        <v>2558</v>
+      </c>
+      <c r="B2559" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2559" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2559" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2559" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2559">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2560">
+        <v>2559</v>
+      </c>
+      <c r="B2560" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2560" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2560" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2560" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2560">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2561">
+        <v>2560</v>
+      </c>
+      <c r="B2561" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2561" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2561" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2561" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2561">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2562">
+        <v>2561</v>
+      </c>
+      <c r="B2562" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2562" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2562" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2562" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2562">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2563">
+        <v>2562</v>
+      </c>
+      <c r="B2563" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2563" s="2" t="str">
+        <f t="shared" ref="F2563:F2626" si="40">IF(L2563&lt;10,"0-9",IF(L2563&lt;20,"10-19",IF(L2563&lt;30,"20-29",IF(L2563&lt;40,"30-39",IF(L2563&lt;50,"40-49",IF(L2563&lt;60,"50-59",IF(L2563&lt;70,"60-69",IF(L2563&lt;80,"70-79",IF(L2563&lt;90,"80-89",IF(L2563&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>20-29</v>
+      </c>
+      <c r="G2563" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2563" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2563">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2564">
+        <v>2563</v>
+      </c>
+      <c r="B2564" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2564" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2564" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2564" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2564">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2565">
+        <v>2564</v>
+      </c>
+      <c r="B2565" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2565" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2565" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2565" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2565">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2566">
+        <v>2565</v>
+      </c>
+      <c r="B2566" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2566" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2566" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2566" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2566">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2567">
+        <v>2566</v>
+      </c>
+      <c r="B2567" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2567" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2567" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2567" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2567" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2567">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2568">
+        <v>2567</v>
+      </c>
+      <c r="B2568" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2568" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2568" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2568" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2568" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2568">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2569">
+        <v>2568</v>
+      </c>
+      <c r="B2569" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2569" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2569" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2569" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2569" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2569">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2570">
+        <v>2569</v>
+      </c>
+      <c r="B2570" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2570" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2570" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2570" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2570">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2571">
+        <v>2570</v>
+      </c>
+      <c r="B2571" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2571" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2571" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2571" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2571">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2572">
+        <v>2571</v>
+      </c>
+      <c r="B2572" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2572" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>90-99</v>
+      </c>
+      <c r="G2572" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2572" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2572" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2572">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2573">
+        <v>2572</v>
+      </c>
+      <c r="B2573" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2573" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2573" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2573" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2573">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2574">
+        <v>2573</v>
+      </c>
+      <c r="B2574" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2574" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2574" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2574" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2574">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2575">
+        <v>2574</v>
+      </c>
+      <c r="B2575" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2575" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2575" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2575" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2575" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2575">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2576">
+        <v>2575</v>
+      </c>
+      <c r="B2576" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2576" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2576" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2576" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2576">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2577">
+        <v>2576</v>
+      </c>
+      <c r="B2577" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2577" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2577" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2577" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2577">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2578">
+        <v>2577</v>
+      </c>
+      <c r="B2578" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2578" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2578" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2578" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2578" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2578">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2579">
+        <v>2578</v>
+      </c>
+      <c r="B2579" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2579" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2579" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2579" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2579">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2580">
+        <v>2579</v>
+      </c>
+      <c r="B2580" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2580" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2580" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2580" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2580">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2581">
+        <v>2580</v>
+      </c>
+      <c r="B2581" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2581" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2581" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2581" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2581">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2582">
+        <v>2581</v>
+      </c>
+      <c r="B2582" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2582" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2582" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2582" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2582">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2583">
+        <v>2582</v>
+      </c>
+      <c r="B2583" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2583" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2583" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2583" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2583">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2584">
+        <v>2583</v>
+      </c>
+      <c r="B2584" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2584" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2584" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2584" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2584">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2585">
+        <v>2584</v>
+      </c>
+      <c r="B2585" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2585" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2585" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2585" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2585">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2586">
+        <v>2585</v>
+      </c>
+      <c r="B2586" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2586" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2586" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2586" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2586">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2587">
+        <v>2586</v>
+      </c>
+      <c r="B2587" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2587" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2587" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2587" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2587">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2588">
+        <v>2587</v>
+      </c>
+      <c r="B2588" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2588" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2588" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2588" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2588">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2589">
+        <v>2588</v>
+      </c>
+      <c r="B2589" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2589" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2589" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2589" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2589">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2590">
+        <v>2589</v>
+      </c>
+      <c r="B2590" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2590" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2590" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2590" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2590">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2591">
+        <v>2590</v>
+      </c>
+      <c r="B2591" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2591" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2591" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2591" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2591">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2592">
+        <v>2591</v>
+      </c>
+      <c r="B2592" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2592" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2592" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2592" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2592">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2593">
+        <v>2592</v>
+      </c>
+      <c r="B2593" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2593" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2593" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2593" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2593">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2594">
+        <v>2593</v>
+      </c>
+      <c r="B2594" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2594" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2594" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2594" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2594">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2595">
+        <v>2594</v>
+      </c>
+      <c r="B2595" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2595" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2595" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2595" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2595">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2596">
+        <v>2595</v>
+      </c>
+      <c r="B2596" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2596" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2596" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2596" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2596">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2597">
+        <v>2596</v>
+      </c>
+      <c r="B2597" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2597" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2597" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2597" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2597">
+        <v>96</v>
+      </c>
+      <c r="K2597" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2597">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2598">
+        <v>2597</v>
+      </c>
+      <c r="B2598" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2598" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2598" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2598" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2598">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2599">
+        <v>2598</v>
+      </c>
+      <c r="B2599" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2599" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2599" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2599" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2599">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2600">
+        <v>2599</v>
+      </c>
+      <c r="B2600" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2600" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2600" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2600" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2600">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2601">
+        <v>2600</v>
+      </c>
+      <c r="B2601" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2601" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2601" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2601" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2601">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2602">
+        <v>2601</v>
+      </c>
+      <c r="B2602" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2602" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2602" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2602" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2602">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2603">
+        <v>2602</v>
+      </c>
+      <c r="B2603" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2603" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2603" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2603" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2603">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2604">
+        <v>2603</v>
+      </c>
+      <c r="B2604" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2604" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2604" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2604" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2604">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2605">
+        <v>2604</v>
+      </c>
+      <c r="B2605" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2605" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2605" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2605" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2605">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2606">
+        <v>2605</v>
+      </c>
+      <c r="B2606" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2606" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2606" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2606" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2606">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2607">
+        <v>2606</v>
+      </c>
+      <c r="B2607" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2607" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2607" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2607" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2607">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2608">
+        <v>2607</v>
+      </c>
+      <c r="B2608" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2608" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2608" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2608" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2608">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2609">
+        <v>2608</v>
+      </c>
+      <c r="B2609" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2609" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2609" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2609" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2609" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2609">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2610">
+        <v>2609</v>
+      </c>
+      <c r="B2610" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2610" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2610" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2610" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2610" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2610">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2611">
+        <v>2610</v>
+      </c>
+      <c r="B2611" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2611" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2611" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2611" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2611" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2611">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2612">
+        <v>2611</v>
+      </c>
+      <c r="B2612" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2612" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2612" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2612" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2612" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2612">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2613">
+        <v>2612</v>
+      </c>
+      <c r="B2613" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2613" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2613" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2613" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2613" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2613">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2614">
+        <v>2613</v>
+      </c>
+      <c r="B2614" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2614" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2614" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2614" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2614" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2614">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2615">
+        <v>2614</v>
+      </c>
+      <c r="B2615" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2615" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2615" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2615" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2615" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2615">
+        <v>97</v>
+      </c>
+      <c r="K2615" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2615">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2616">
+        <v>2615</v>
+      </c>
+      <c r="B2616" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2616" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2616" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2616" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2616" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2616">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2617">
+        <v>2616</v>
+      </c>
+      <c r="B2617" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2617" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2617" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2617" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2617" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2617">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2618">
+        <v>2617</v>
+      </c>
+      <c r="B2618" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2618" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2618" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2618" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2618" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2619">
+        <v>2618</v>
+      </c>
+      <c r="B2619" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2619" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2619" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2619" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2619" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2619">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2620">
+        <v>2619</v>
+      </c>
+      <c r="B2620" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2620" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2620" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2620" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2620" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2620">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2621">
+        <v>2620</v>
+      </c>
+      <c r="B2621" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2621" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2621" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2621" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2621" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2621">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2622">
+        <v>2621</v>
+      </c>
+      <c r="B2622" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2622" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2622" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2622" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2622" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2622">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2623">
+        <v>2622</v>
+      </c>
+      <c r="B2623" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2623" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2623" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2623" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2623" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2623">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2624">
+        <v>2623</v>
+      </c>
+      <c r="B2624" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2624" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2624" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2624" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2624" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2624">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2625">
+        <v>2624</v>
+      </c>
+      <c r="B2625" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2625" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2625" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2625" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2625" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2625" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2625">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2626">
+        <v>2625</v>
+      </c>
+      <c r="B2626" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2626" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2626" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2626" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2626" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2626">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2627">
+        <v>2626</v>
+      </c>
+      <c r="B2627" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2627" s="2" t="str">
+        <f t="shared" ref="F2627:F2690" si="41">IF(L2627&lt;10,"0-9",IF(L2627&lt;20,"10-19",IF(L2627&lt;30,"20-29",IF(L2627&lt;40,"30-39",IF(L2627&lt;50,"40-49",IF(L2627&lt;60,"50-59",IF(L2627&lt;70,"60-69",IF(L2627&lt;80,"70-79",IF(L2627&lt;90,"80-89",IF(L2627&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>60-69</v>
+      </c>
+      <c r="G2627" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2627" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2627" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2627">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2628">
+        <v>2627</v>
+      </c>
+      <c r="B2628" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2628" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2628" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2628" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2628" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2628">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2629">
+        <v>2628</v>
+      </c>
+      <c r="B2629" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2629" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2629" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2629" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2629" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2629">
+        <v>98</v>
+      </c>
+      <c r="K2629" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2629">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2630">
+        <v>2629</v>
+      </c>
+      <c r="B2630" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2630" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2630" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2630" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2630" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2630">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2631">
+        <v>2630</v>
+      </c>
+      <c r="B2631" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2631" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2631" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2631" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2631" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2631">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2632">
+        <v>2631</v>
+      </c>
+      <c r="B2632" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2632" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2632" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2632" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2632" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2632">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2633">
+        <v>2632</v>
+      </c>
+      <c r="B2633" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2633" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2633" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2633" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2633" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2633">
+        <v>99</v>
+      </c>
+      <c r="K2633" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2633">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2634">
+        <v>2633</v>
+      </c>
+      <c r="B2634" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2634" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2634" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2634" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2634" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2634">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2635">
+        <v>2634</v>
+      </c>
+      <c r="B2635" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2635" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2635" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2635" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2635" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2635">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2636">
+        <v>2635</v>
+      </c>
+      <c r="B2636" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2636" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2636" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2636" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2636" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2636">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2637">
+        <v>2636</v>
+      </c>
+      <c r="B2637" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2637" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2637" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2637" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2637" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2637">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2638">
+        <v>2637</v>
+      </c>
+      <c r="B2638" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2638" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2638" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2638" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2638" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2638">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2639">
+        <v>2638</v>
+      </c>
+      <c r="B2639" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2639" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2639" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2639" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2639" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2639">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2640">
+        <v>2639</v>
+      </c>
+      <c r="B2640" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2640" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2640" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2640" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2640" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2640">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2641">
+        <v>2640</v>
+      </c>
+      <c r="B2641" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2641" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2641" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2641" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2641" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2641">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2642">
+        <v>2641</v>
+      </c>
+      <c r="B2642" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2642" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2642" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2642" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2642" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2642">
+        <v>100</v>
+      </c>
+      <c r="K2642" s="1">
+        <v>43932</v>
+      </c>
+      <c r="L2642">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2643">
+        <v>2642</v>
+      </c>
+      <c r="B2643" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2643" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2643" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2643" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2643" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2643">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2644">
+        <v>2643</v>
+      </c>
+      <c r="B2644" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2644" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2644" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2644" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2644" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2644">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2645">
+        <v>2644</v>
+      </c>
+      <c r="B2645" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2645" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2645" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2645" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2645" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2645">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2646">
+        <v>2645</v>
+      </c>
+      <c r="B2646" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2646" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2646" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2646" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2646" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2646">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2647">
+        <v>2646</v>
+      </c>
+      <c r="B2647" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2647" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2647" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2647" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2647" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2647">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2648">
+        <v>2647</v>
+      </c>
+      <c r="B2648" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2648" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2648" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2648" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2648" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2648">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2649">
+        <v>2648</v>
+      </c>
+      <c r="B2649" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2649" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2649" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2649" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2649" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2649">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2650">
+        <v>2649</v>
+      </c>
+      <c r="B2650" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2650" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2650" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2650" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2650" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2650">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2651">
+        <v>2650</v>
+      </c>
+      <c r="B2651" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2651" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2651" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2651" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2651" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2651">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2652">
+        <v>2651</v>
+      </c>
+      <c r="B2652" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2652" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2652" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2652" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2652" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2652">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2653">
+        <v>2652</v>
+      </c>
+      <c r="B2653" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2653" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2653" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2653" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2653" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2653">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2654">
+        <v>2653</v>
+      </c>
+      <c r="B2654" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2654" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2654" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2654" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2654" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2654">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2655">
+        <v>2654</v>
+      </c>
+      <c r="B2655" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2655" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2655" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2655" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2655" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2655">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2656">
+        <v>2655</v>
+      </c>
+      <c r="B2656" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2656" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2656" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2656" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2656" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2656">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2657">
+        <v>2656</v>
+      </c>
+      <c r="B2657" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2657" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2657" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2657" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2657" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2657">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2658">
+        <v>2657</v>
+      </c>
+      <c r="B2658" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2658" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2658" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2658" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2658" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2658">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2659">
+        <v>2658</v>
+      </c>
+      <c r="B2659" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2659" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2659" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2659" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2659" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2659">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2660">
+        <v>2659</v>
+      </c>
+      <c r="B2660" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2660" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2660" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2660" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2660" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2660">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2661">
+        <v>2660</v>
+      </c>
+      <c r="B2661" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2661" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2661" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2661" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2661" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2661">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2662">
+        <v>2661</v>
+      </c>
+      <c r="B2662" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2662" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2662" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2662" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2662" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2662">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2663">
+        <v>2662</v>
+      </c>
+      <c r="B2663" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2663" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2663" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2663" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2663" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2663">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2664">
+        <v>2663</v>
+      </c>
+      <c r="B2664" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2664" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2664" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2664" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2664" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2664">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2665">
+        <v>2664</v>
+      </c>
+      <c r="B2665" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2665" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2665" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2665" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2665" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2665">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2666">
+        <v>2665</v>
+      </c>
+      <c r="B2666" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2666" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2666" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2666" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2666" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2666">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2667">
+        <v>2666</v>
+      </c>
+      <c r="B2667" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2667" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2667" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2667" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2667" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2667">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2668">
+        <v>2667</v>
+      </c>
+      <c r="B2668" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2668" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2668" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2668" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2668" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2668">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2669">
+        <v>2668</v>
+      </c>
+      <c r="B2669" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2669" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2669" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2669" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2669" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2669">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2670">
+        <v>2669</v>
+      </c>
+      <c r="B2670" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2670" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2670" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2670" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2670" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2670">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2671">
+        <v>2670</v>
+      </c>
+      <c r="B2671" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2671" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2671" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2671" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2671" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2671">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2672">
+        <v>2671</v>
+      </c>
+      <c r="B2672" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2672" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2672" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2672" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2672" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2673">
+        <v>2672</v>
+      </c>
+      <c r="B2673" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2673" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2673" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2673" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2673" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2673">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2674">
+        <v>2673</v>
+      </c>
+      <c r="B2674" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2674" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2674" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2674" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2674" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2674">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2675">
+        <v>2674</v>
+      </c>
+      <c r="B2675" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2675" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2675" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2675" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2675" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2675">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2676">
+        <v>2675</v>
+      </c>
+      <c r="B2676" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2676" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2676" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2676" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2676" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2676">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2677">
+        <v>2676</v>
+      </c>
+      <c r="B2677" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2677" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2677" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2677" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2677" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2677">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2678">
+        <v>2677</v>
+      </c>
+      <c r="B2678" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2678">
+        <v>0</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2678" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>0-9</v>
+      </c>
+      <c r="G2678" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2678" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2678" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2679">
+        <v>2678</v>
+      </c>
+      <c r="B2679" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2679" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2679" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2679" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2679" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2679">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2680">
+        <v>2679</v>
+      </c>
+      <c r="B2680" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2680" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2680" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2680" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2680" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2680">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2681">
+        <v>2680</v>
+      </c>
+      <c r="B2681" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2681" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2681" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2681" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2681" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2681">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2682">
+        <v>2681</v>
+      </c>
+      <c r="B2682" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2682" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2682" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2682" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2682" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2682">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2683">
+        <v>2682</v>
+      </c>
+      <c r="B2683" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2683" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2683" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2683" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2683" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2683">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2684">
+        <v>2683</v>
+      </c>
+      <c r="B2684" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2684" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2684" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2684" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2684" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2684">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2685">
+        <v>2684</v>
+      </c>
+      <c r="B2685" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2685" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2685" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2685" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2685" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2685">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2686">
+        <v>2685</v>
+      </c>
+      <c r="B2686" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2686" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2686" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2686" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2686" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2686" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2686">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2687">
+        <v>2686</v>
+      </c>
+      <c r="B2687" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2687" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2687" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2687" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2687" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2687" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2687">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2688">
+        <v>2687</v>
+      </c>
+      <c r="B2688" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2688" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2688" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2688" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2688" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2688" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2688">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2689">
+        <v>2688</v>
+      </c>
+      <c r="B2689" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2689" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2689" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2689" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2689" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2689" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2689">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2690">
+        <v>2689</v>
+      </c>
+      <c r="B2690" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2690" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2690" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2690" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2690" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2690" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2690">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2691">
+        <v>2690</v>
+      </c>
+      <c r="B2691" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2691" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2691" s="2" t="str">
+        <f t="shared" ref="F2691:F2710" si="42">IF(L2691&lt;10,"0-9",IF(L2691&lt;20,"10-19",IF(L2691&lt;30,"20-29",IF(L2691&lt;40,"30-39",IF(L2691&lt;50,"40-49",IF(L2691&lt;60,"50-59",IF(L2691&lt;70,"60-69",IF(L2691&lt;80,"70-79",IF(L2691&lt;90,"80-89",IF(L2691&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G2691" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2691" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2691" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2691">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2692">
+        <v>2691</v>
+      </c>
+      <c r="B2692" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2692" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2692" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2692" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2692" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2692" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2692">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2693">
+        <v>2692</v>
+      </c>
+      <c r="B2693" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2693" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2693" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2693" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2693" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2693" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2693">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2694">
+        <v>2693</v>
+      </c>
+      <c r="B2694" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2694" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2694" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2694" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2694" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2694" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2694">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2695">
+        <v>2694</v>
+      </c>
+      <c r="B2695" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2695" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2695" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2695" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2695" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2695" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2695">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2696">
+        <v>2695</v>
+      </c>
+      <c r="B2696" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2696" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2696" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2696" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2696" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2696" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2696">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2697">
+        <v>2696</v>
+      </c>
+      <c r="B2697" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2697" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2697" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2697" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2697" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2697" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2697">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2698">
+        <v>2697</v>
+      </c>
+      <c r="B2698" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2698" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2698" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2698" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2698" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2698" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2698" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2698">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2699">
+        <v>2698</v>
+      </c>
+      <c r="B2699" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2699" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2699" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2699" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2699" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2699" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2699" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2699">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2700">
+        <v>2699</v>
+      </c>
+      <c r="B2700" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2700" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2700" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2700" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2700" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2700" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2700" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2700">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2701">
+        <v>2700</v>
+      </c>
+      <c r="B2701" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2701" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2701" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2701" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2701" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2701" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2701" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2701">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2702">
+        <v>2701</v>
+      </c>
+      <c r="B2702" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2702" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2702" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2702" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2702" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2702" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2702" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2702">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2703">
+        <v>2702</v>
+      </c>
+      <c r="B2703" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2703" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2703" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2703" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2703" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2703" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2703" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2703">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2704">
+        <v>2703</v>
+      </c>
+      <c r="B2704" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2704" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2704" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2704" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2704" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2704" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2704">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2705">
+        <v>2704</v>
+      </c>
+      <c r="B2705" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2705" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2705" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2705" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2705" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2705" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2705">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2706">
+        <v>2705</v>
+      </c>
+      <c r="B2706" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2706" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2706" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2706" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2706" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2706" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2706">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2707">
+        <v>2706</v>
+      </c>
+      <c r="B2707" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2707" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2707" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2707" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2707" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2707" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2707">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2708">
+        <v>2707</v>
+      </c>
+      <c r="B2708" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2708" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2708" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2708" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2708" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2708" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2708" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2708">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2709">
+        <v>2708</v>
+      </c>
+      <c r="B2709" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2709" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2709" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2709" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2709" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2709" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2709" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2709">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2710">
+        <v>2709</v>
+      </c>
+      <c r="B2710" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C2710" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2710" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2710" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2710" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2710" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2710" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2710">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L2474" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L2710" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781 F1782:F2055 F2056:F2224 F2225:F2474" twoDigitTextYear="1"/>
+    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781 F1782:F2055 F2056:F2224 F2225:F2474 F2475:F2779" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E0080-83C7-4716-AC64-821C1A37AC1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432CD47-147B-458E-A580-E03524F92C7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
     <t>Atención</t>
   </si>
   <si>
-    <t>Tipo</t>
+    <t>Tipo*</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:N2777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Casos confirmados.xlsx
+++ b/Casos confirmados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyro\Documents\GitHub\Covid-19-Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432CD47-147B-458E-A580-E03524F92C7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E0A45-292B-4E63-BB76-82ED55B56A57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Casos confirmados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$2777</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos confirmados'!$A$1:$L$2853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16644" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17100" uniqueCount="347">
   <si>
     <t>ID de caso</t>
   </si>
@@ -771,9 +771,6 @@
     <t>Andalucía</t>
   </si>
   <si>
-    <t>Atántico</t>
-  </si>
-  <si>
     <t>Togui</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
   </si>
   <si>
     <t>Ubate</t>
-  </si>
-  <si>
-    <t>Recuperado (Hospital)</t>
   </si>
   <si>
     <t>Tocancipá</t>
@@ -1012,6 +1006,72 @@
   </si>
   <si>
     <t>Tipo*</t>
+  </si>
+  <si>
+    <t>NEIVA</t>
+  </si>
+  <si>
+    <t>HUILA</t>
+  </si>
+  <si>
+    <t>BOGOTÃ D.C.</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS DE AMÃ‰RICA</t>
+  </si>
+  <si>
+    <t>MALAMBO</t>
+  </si>
+  <si>
+    <t>ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>ESPAÃ‘A</t>
+  </si>
+  <si>
+    <t>PALMIRA</t>
+  </si>
+  <si>
+    <t>VALLE DEL CAUCA</t>
+  </si>
+  <si>
+    <t>IBAGUE</t>
+  </si>
+  <si>
+    <t>TOLIMA</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>RISARALDA</t>
+  </si>
+  <si>
+    <t>CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>LA DORADA</t>
+  </si>
+  <si>
+    <t>CALDAS</t>
+  </si>
+  <si>
+    <t>UBATE</t>
+  </si>
+  <si>
+    <t>FUNZA</t>
+  </si>
+  <si>
+    <t>ESPINAL</t>
+  </si>
+  <si>
+    <t>CALARCA</t>
   </si>
 </sst>
 </file>
@@ -1854,15 +1914,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2777"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N2853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1879,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1888,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3719,7 +3782,7 @@
         <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4195,7 +4258,7 @@
         <v>218</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6988,7 +7051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7027,7 +7090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7165,7 +7228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7218,7 +7281,7 @@
         <v>43</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8175,7 +8238,7 @@
         <v>158</v>
       </c>
       <c r="E188" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="F188" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8194,7 +8257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8497,7 +8560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8847,7 +8910,7 @@
         <v>218</v>
       </c>
       <c r="E208" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9658,7 +9721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9942,7 +10005,7 @@
         <v>18</v>
       </c>
       <c r="E241" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="F241" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9975,7 +10038,7 @@
         <v>218</v>
       </c>
       <c r="E242" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F242" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10258,7 +10321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10627,7 +10690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10911,7 +10974,7 @@
         <v>43</v>
       </c>
       <c r="E270" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F270" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11208,7 +11271,7 @@
         <v>53</v>
       </c>
       <c r="E279" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F279" s="2" t="str">
         <f t="shared" si="4"/>
@@ -11458,7 +11521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12388,7 +12451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12790,7 +12853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14877,7 +14940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -16071,7 +16134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18256,7 +18319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18889,7 +18952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -19027,7 +19090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -19660,7 +19723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -19732,7 +19795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -20002,7 +20065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -20767,7 +20830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -20872,7 +20935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -21472,7 +21535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -22534,7 +22597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -23874,7 +23937,7 @@
         <v>27</v>
       </c>
       <c r="E660" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F660" s="2" t="str">
         <f t="shared" si="10"/>
@@ -23907,7 +23970,7 @@
         <v>27</v>
       </c>
       <c r="E661" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F661" s="2" t="str">
         <f t="shared" si="10"/>
@@ -23973,7 +24036,7 @@
         <v>89</v>
       </c>
       <c r="E663" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F663" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24355,7 +24418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -25450,7 +25513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -25536,7 +25599,7 @@
         <v>27</v>
       </c>
       <c r="E710" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F710" s="2" t="str">
         <f t="shared" si="11"/>
@@ -25555,7 +25618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -25608,7 +25671,7 @@
         <v>27</v>
       </c>
       <c r="E712" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F712" s="2" t="str">
         <f t="shared" si="11"/>
@@ -25693,7 +25756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -25963,7 +26026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>722</v>
       </c>
@@ -27586,7 +27649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>771</v>
       </c>
@@ -27856,7 +27919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>779</v>
       </c>
@@ -28635,7 +28698,7 @@
         <v>158</v>
       </c>
       <c r="E803" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F803" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28668,7 +28731,7 @@
         <v>158</v>
       </c>
       <c r="E804" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F804" s="2" t="str">
         <f t="shared" si="12"/>
@@ -28701,7 +28764,7 @@
         <v>158</v>
       </c>
       <c r="E805" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F805" s="2" t="str">
         <f t="shared" si="12"/>
@@ -29479,7 +29542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>828</v>
       </c>
@@ -30013,7 +30076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>844</v>
       </c>
@@ -30099,7 +30162,7 @@
         <v>30</v>
       </c>
       <c r="E847" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F847" s="2" t="str">
         <f t="shared" si="13"/>
@@ -30132,7 +30195,7 @@
         <v>30</v>
       </c>
       <c r="E848" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F848" s="2" t="str">
         <f t="shared" si="13"/>
@@ -30679,7 +30742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>864</v>
       </c>
@@ -31029,7 +31092,7 @@
         <v>218</v>
       </c>
       <c r="E875" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F875" s="2" t="str">
         <f t="shared" si="13"/>
@@ -31543,7 +31606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>890</v>
       </c>
@@ -32355,7 +32418,7 @@
         <v>56</v>
       </c>
       <c r="E915" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F915" s="2" t="str">
         <f t="shared" si="14"/>
@@ -32638,7 +32701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>923</v>
       </c>
@@ -33022,7 +33085,7 @@
         <v>158</v>
       </c>
       <c r="E935" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F935" s="2" t="str">
         <f t="shared" si="14"/>
@@ -33616,7 +33679,7 @@
         <v>89</v>
       </c>
       <c r="E953" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F953" s="2" t="str">
         <f t="shared" si="14"/>
@@ -34606,7 +34669,7 @@
         <v>53</v>
       </c>
       <c r="E983" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F983" s="2" t="str">
         <f t="shared" si="15"/>
@@ -34757,7 +34820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>987</v>
       </c>
@@ -34796,7 +34859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>988</v>
       </c>
@@ -34868,7 +34931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>990</v>
       </c>
@@ -36540,7 +36603,7 @@
         <v>218</v>
       </c>
       <c r="E1041" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F1041" s="2" t="str">
         <f t="shared" si="16"/>
@@ -36559,7 +36622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1042" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>1041</v>
       </c>
@@ -36645,7 +36708,7 @@
         <v>218</v>
       </c>
       <c r="E1044" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1044" s="2" t="str">
         <f t="shared" si="16"/>
@@ -37074,7 +37137,7 @@
         <v>218</v>
       </c>
       <c r="E1057" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1057" s="2" t="str">
         <f t="shared" si="16"/>
@@ -37126,7 +37189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1059" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059">
         <v>1058</v>
       </c>
@@ -37330,7 +37393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1065" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>1064</v>
       </c>
@@ -37798,7 +37861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>1078</v>
       </c>
@@ -37884,7 +37947,7 @@
         <v>158</v>
       </c>
       <c r="E1081" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1081" s="2" t="str">
         <f t="shared" si="16"/>
@@ -38398,7 +38461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1097" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097">
         <v>1096</v>
       </c>
@@ -39592,7 +39655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133">
         <v>1132</v>
       </c>
@@ -40852,7 +40915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1171">
         <v>1170</v>
       </c>
@@ -41235,7 +41298,7 @@
         <v>158</v>
       </c>
       <c r="E1182" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1182" s="2" t="str">
         <f t="shared" si="18"/>
@@ -41400,7 +41463,7 @@
         <v>18</v>
       </c>
       <c r="E1187" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1187" s="2" t="str">
         <f t="shared" si="18"/>
@@ -41848,7 +41911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1201">
         <v>1200</v>
       </c>
@@ -41953,7 +42016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1204">
         <v>1203</v>
       </c>
@@ -42105,7 +42168,7 @@
         <v>129</v>
       </c>
       <c r="E1208" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1208" s="2" t="str">
         <f t="shared" si="18"/>
@@ -42586,7 +42649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1223">
         <v>1222</v>
       </c>
@@ -42790,7 +42853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1229">
         <v>1228</v>
       </c>
@@ -43107,7 +43170,7 @@
         <v>218</v>
       </c>
       <c r="E1238" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1238" s="2" t="str">
         <f t="shared" si="19"/>
@@ -43126,7 +43189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1239">
         <v>1238</v>
       </c>
@@ -43363,7 +43426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1246">
         <v>1245</v>
       </c>
@@ -44208,7 +44271,7 @@
         <v>158</v>
       </c>
       <c r="E1271" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1271" s="2" t="str">
         <f t="shared" si="19"/>
@@ -44491,7 +44554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1280">
         <v>1279</v>
       </c>
@@ -45157,7 +45220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1300">
         <v>1299</v>
       </c>
@@ -45196,7 +45259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1301">
         <v>1300</v>
       </c>
@@ -45400,7 +45463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1307">
         <v>1306</v>
       </c>
@@ -46410,7 +46473,7 @@
         <v>218</v>
       </c>
       <c r="E1337" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1337" s="2" t="str">
         <f t="shared" si="20"/>
@@ -46693,7 +46756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1346">
         <v>1345</v>
       </c>
@@ -47175,7 +47238,7 @@
         <v>218</v>
       </c>
       <c r="E1360" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1360" s="2" t="str">
         <f t="shared" si="21"/>
@@ -47307,7 +47370,7 @@
         <v>218</v>
       </c>
       <c r="E1364" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1364" s="2" t="str">
         <f t="shared" si="21"/>
@@ -47406,7 +47469,7 @@
         <v>218</v>
       </c>
       <c r="E1367" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1367" s="2" t="str">
         <f t="shared" si="21"/>
@@ -47590,7 +47653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1373">
         <v>1372</v>
       </c>
@@ -48058,7 +48121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1387">
         <v>1386</v>
       </c>
@@ -48163,7 +48226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1390">
         <v>1389</v>
       </c>
@@ -49258,7 +49321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1423">
         <v>1422</v>
       </c>
@@ -50386,7 +50449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1457">
         <v>1456</v>
       </c>
@@ -51382,7 +51445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1487">
         <v>1486</v>
       </c>
@@ -52015,7 +52078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1506">
         <v>1505</v>
       </c>
@@ -52233,7 +52296,7 @@
         <v>18</v>
       </c>
       <c r="E1512" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1512" s="2" t="str">
         <f t="shared" si="23"/>
@@ -52318,7 +52381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1515">
         <v>1514</v>
       </c>
@@ -52833,7 +52896,7 @@
         <v>43</v>
       </c>
       <c r="E1530" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1530" s="2" t="str">
         <f t="shared" si="23"/>
@@ -53149,7 +53212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1540">
         <v>1539</v>
       </c>
@@ -54310,7 +54373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1575">
         <v>1574</v>
       </c>
@@ -54580,7 +54643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1583">
         <v>1582</v>
       </c>
@@ -54594,7 +54657,7 @@
         <v>146</v>
       </c>
       <c r="E1583" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F1583" s="2" t="str">
         <f t="shared" si="24"/>
@@ -54609,11 +54672,17 @@
       <c r="I1583" t="s">
         <v>20</v>
       </c>
+      <c r="J1583">
+        <v>110</v>
+      </c>
+      <c r="K1583" s="1">
+        <v>43934</v>
+      </c>
       <c r="L1583">
         <v>76</v>
       </c>
     </row>
-    <row r="1584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1584">
         <v>1583</v>
       </c>
@@ -54993,7 +55062,7 @@
         <v>46</v>
       </c>
       <c r="D1595" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1595" t="s">
         <v>22</v>
@@ -55125,7 +55194,7 @@
         <v>46</v>
       </c>
       <c r="D1599" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1599" t="s">
         <v>41</v>
@@ -55158,7 +55227,7 @@
         <v>46</v>
       </c>
       <c r="D1600" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1600" t="s">
         <v>22</v>
@@ -55180,7 +55249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1601">
         <v>1600</v>
       </c>
@@ -55530,7 +55599,7 @@
         <v>218</v>
       </c>
       <c r="E1611" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1611" s="2" t="str">
         <f t="shared" si="25"/>
@@ -55563,7 +55632,7 @@
         <v>218</v>
       </c>
       <c r="E1612" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1612" s="2" t="str">
         <f t="shared" si="25"/>
@@ -56091,7 +56160,7 @@
         <v>218</v>
       </c>
       <c r="E1628" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1628" s="2" t="str">
         <f t="shared" si="25"/>
@@ -56110,7 +56179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1629">
         <v>1628</v>
       </c>
@@ -56163,7 +56232,7 @@
         <v>218</v>
       </c>
       <c r="E1630" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1630" s="2" t="str">
         <f t="shared" si="25"/>
@@ -57219,7 +57288,7 @@
         <v>218</v>
       </c>
       <c r="E1662" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1662" s="2" t="str">
         <f t="shared" si="25"/>
@@ -57733,7 +57802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1678">
         <v>1677</v>
       </c>
@@ -58479,7 +58548,7 @@
         <v>158</v>
       </c>
       <c r="E1700" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F1700" s="2" t="str">
         <f t="shared" si="26"/>
@@ -59422,7 +59491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1729">
         <v>1728</v>
       </c>
@@ -60135,7 +60204,7 @@
         <v>35</v>
       </c>
       <c r="E1750" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1750" s="2" t="str">
         <f t="shared" si="27"/>
@@ -60418,7 +60487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1759" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759">
         <v>1758</v>
       </c>
@@ -61986,7 +62055,7 @@
         <v>46</v>
       </c>
       <c r="D1806" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1806" t="s">
         <v>22</v>
@@ -62019,7 +62088,7 @@
         <v>46</v>
       </c>
       <c r="D1807" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1807" t="s">
         <v>22</v>
@@ -62052,7 +62121,7 @@
         <v>46</v>
       </c>
       <c r="D1808" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="E1808" t="s">
         <v>22</v>
@@ -62140,7 +62209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1811" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1811">
         <v>1810</v>
       </c>
@@ -62476,7 +62545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1821" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1821">
         <v>1820</v>
       </c>
@@ -62727,7 +62796,7 @@
         <v>53</v>
       </c>
       <c r="E1828" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1828" s="2" t="str">
         <f t="shared" si="28"/>
@@ -63439,7 +63508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1850" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1850" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1850">
         <v>1849</v>
       </c>
@@ -64402,7 +64471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1879" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1879">
         <v>1878</v>
       </c>
@@ -65148,7 +65217,7 @@
         <v>218</v>
       </c>
       <c r="E1901" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1901" s="2" t="str">
         <f t="shared" si="29"/>
@@ -65629,7 +65698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1916" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1916">
         <v>1915</v>
       </c>
@@ -65734,7 +65803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1919" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1919">
         <v>1918</v>
       </c>
@@ -66070,7 +66139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1929" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1929">
         <v>1928</v>
       </c>
@@ -66109,7 +66178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1930" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1930" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1930">
         <v>1929</v>
       </c>
@@ -67350,7 +67419,7 @@
         <v>218</v>
       </c>
       <c r="E1967" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1967" s="2" t="str">
         <f t="shared" si="30"/>
@@ -67534,7 +67603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1973" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1973">
         <v>1972</v>
       </c>
@@ -68431,7 +68500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2000" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2000" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2000">
         <v>1999</v>
       </c>
@@ -69262,7 +69331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2025" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2025" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2025">
         <v>2024</v>
       </c>
@@ -69796,7 +69865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2041" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2041" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2041">
         <v>2040</v>
       </c>
@@ -70338,7 +70407,7 @@
         <v>43930</v>
       </c>
       <c r="C2057" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2057" t="s">
         <v>132</v>
@@ -70528,7 +70597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2063" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2063" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2063">
         <v>2062</v>
       </c>
@@ -70732,7 +70801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2069" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2069" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2069">
         <v>2068</v>
       </c>
@@ -70818,7 +70887,7 @@
         <v>209</v>
       </c>
       <c r="E2071" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F2071" s="2" t="str">
         <f t="shared" si="32"/>
@@ -70878,7 +70947,7 @@
         <v>43930</v>
       </c>
       <c r="C2073" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2073" t="s">
         <v>18</v>
@@ -70903,7 +70972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2074" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2074" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2074">
         <v>2073</v>
       </c>
@@ -71101,7 +71170,7 @@
         <v>12</v>
       </c>
       <c r="I2079" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L2079">
         <v>28</v>
@@ -71748,7 +71817,7 @@
         <v>218</v>
       </c>
       <c r="E2099" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2099" s="2" t="str">
         <f t="shared" si="32"/>
@@ -71866,7 +71935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2103">
         <v>2102</v>
       </c>
@@ -72103,7 +72172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2110">
         <v>2109</v>
       </c>
@@ -72249,7 +72318,7 @@
         <v>43930</v>
       </c>
       <c r="C2114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2114" t="s">
         <v>43</v>
@@ -72453,7 +72522,7 @@
         <v>129</v>
       </c>
       <c r="E2120" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2120" s="2" t="str">
         <f t="shared" si="33"/>
@@ -72505,7 +72574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2122">
         <v>2121</v>
       </c>
@@ -72690,7 +72759,7 @@
         <v>146</v>
       </c>
       <c r="E2127" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2127" s="2" t="str">
         <f t="shared" si="33"/>
@@ -72742,7 +72811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2129">
         <v>2128</v>
       </c>
@@ -72814,7 +72883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2131">
         <v>2130</v>
       </c>
@@ -72960,7 +73029,7 @@
         <v>43930</v>
       </c>
       <c r="C2135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2135" t="s">
         <v>132</v>
@@ -72993,7 +73062,7 @@
         <v>43930</v>
       </c>
       <c r="C2136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2136" t="s">
         <v>132</v>
@@ -73026,7 +73095,7 @@
         <v>43930</v>
       </c>
       <c r="C2137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2137" t="s">
         <v>132</v>
@@ -73290,7 +73359,7 @@
         <v>43930</v>
       </c>
       <c r="C2145" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2145" t="s">
         <v>43</v>
@@ -73356,7 +73425,7 @@
         <v>43930</v>
       </c>
       <c r="C2147" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2147" t="s">
         <v>43</v>
@@ -73554,7 +73623,7 @@
         <v>43930</v>
       </c>
       <c r="C2153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2153" t="s">
         <v>113</v>
@@ -73884,7 +73953,7 @@
         <v>43930</v>
       </c>
       <c r="C2163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2163" t="s">
         <v>113</v>
@@ -73975,7 +74044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2166">
         <v>2165</v>
       </c>
@@ -74088,7 +74157,7 @@
         <v>43930</v>
       </c>
       <c r="C2169" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2169" t="s">
         <v>37</v>
@@ -74212,7 +74281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2173">
         <v>2172</v>
       </c>
@@ -74220,7 +74289,7 @@
         <v>43930</v>
       </c>
       <c r="C2173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2173" t="s">
         <v>37</v>
@@ -74454,7 +74523,7 @@
         <v>43930</v>
       </c>
       <c r="C2180" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2180" t="s">
         <v>48</v>
@@ -74487,7 +74556,7 @@
         <v>43930</v>
       </c>
       <c r="C2181" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2181" t="s">
         <v>48</v>
@@ -74520,7 +74589,7 @@
         <v>43930</v>
       </c>
       <c r="C2182" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2182" t="s">
         <v>48</v>
@@ -74586,7 +74655,7 @@
         <v>43930</v>
       </c>
       <c r="C2184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2184" t="s">
         <v>48</v>
@@ -74638,7 +74707,7 @@
         <v>12</v>
       </c>
       <c r="I2185" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2185">
         <v>29</v>
@@ -74710,7 +74779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2188">
         <v>2187</v>
       </c>
@@ -74829,7 +74898,7 @@
         <v>158</v>
       </c>
       <c r="E2191" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2191" s="2" t="str">
         <f t="shared" si="34"/>
@@ -75139,7 +75208,7 @@
         <v>12</v>
       </c>
       <c r="I2200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2200">
         <v>50</v>
@@ -75285,7 +75354,7 @@
         <v>43930</v>
       </c>
       <c r="C2205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2205" t="s">
         <v>158</v>
@@ -75549,7 +75618,7 @@
         <v>43930</v>
       </c>
       <c r="C2213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D2213" t="s">
         <v>62</v>
@@ -75879,7 +75948,7 @@
         <v>43930</v>
       </c>
       <c r="C2223" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2223" t="s">
         <v>56</v>
@@ -76440,7 +76509,7 @@
         <v>43931</v>
       </c>
       <c r="C2240" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2240" t="s">
         <v>18</v>
@@ -76681,7 +76750,7 @@
       </c>
       <c r="F2247" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>30-39</v>
+        <v>40-49</v>
       </c>
       <c r="G2247" t="s">
         <v>11</v>
@@ -76693,7 +76762,7 @@
         <v>20</v>
       </c>
       <c r="L2247">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2248" spans="1:12" x14ac:dyDescent="0.25">
@@ -76723,7 +76792,7 @@
         <v>12</v>
       </c>
       <c r="I2248" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2248">
         <v>58</v>
@@ -76770,7 +76839,7 @@
         <v>43931</v>
       </c>
       <c r="C2250" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2250" t="s">
         <v>218</v>
@@ -76803,7 +76872,7 @@
         <v>43931</v>
       </c>
       <c r="C2251" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2251" t="s">
         <v>218</v>
@@ -76836,7 +76905,7 @@
         <v>43931</v>
       </c>
       <c r="C2252" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2252" t="s">
         <v>218</v>
@@ -76869,7 +76938,7 @@
         <v>43931</v>
       </c>
       <c r="C2253" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2253" t="s">
         <v>218</v>
@@ -76902,7 +76971,7 @@
         <v>43931</v>
       </c>
       <c r="C2254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2254" t="s">
         <v>218</v>
@@ -76935,7 +77004,7 @@
         <v>43931</v>
       </c>
       <c r="C2255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2255" t="s">
         <v>218</v>
@@ -76968,7 +77037,7 @@
         <v>43931</v>
       </c>
       <c r="C2256" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2256" t="s">
         <v>218</v>
@@ -77001,7 +77070,7 @@
         <v>43931</v>
       </c>
       <c r="C2257" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2257" t="s">
         <v>218</v>
@@ -77034,7 +77103,7 @@
         <v>43931</v>
       </c>
       <c r="C2258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2258" t="s">
         <v>218</v>
@@ -77067,7 +77136,7 @@
         <v>43931</v>
       </c>
       <c r="C2259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2259" t="s">
         <v>218</v>
@@ -77100,7 +77169,7 @@
         <v>43931</v>
       </c>
       <c r="C2260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2260" t="s">
         <v>218</v>
@@ -77133,7 +77202,7 @@
         <v>43931</v>
       </c>
       <c r="C2261" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2261" t="s">
         <v>218</v>
@@ -77166,7 +77235,7 @@
         <v>43931</v>
       </c>
       <c r="C2262" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2262" t="s">
         <v>218</v>
@@ -77199,7 +77268,7 @@
         <v>43931</v>
       </c>
       <c r="C2263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2263" t="s">
         <v>218</v>
@@ -77232,7 +77301,7 @@
         <v>43931</v>
       </c>
       <c r="C2264" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2264" t="s">
         <v>218</v>
@@ -77265,7 +77334,7 @@
         <v>43931</v>
       </c>
       <c r="C2265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2265" t="s">
         <v>218</v>
@@ -77298,7 +77367,7 @@
         <v>43931</v>
       </c>
       <c r="C2266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2266" t="s">
         <v>218</v>
@@ -77331,7 +77400,7 @@
         <v>43931</v>
       </c>
       <c r="C2267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2267" t="s">
         <v>218</v>
@@ -77364,7 +77433,7 @@
         <v>43931</v>
       </c>
       <c r="C2268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2268" t="s">
         <v>218</v>
@@ -77397,7 +77466,7 @@
         <v>43931</v>
       </c>
       <c r="C2269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2269" t="s">
         <v>218</v>
@@ -77422,7 +77491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2270">
         <v>2269</v>
       </c>
@@ -77430,7 +77499,7 @@
         <v>43931</v>
       </c>
       <c r="C2270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2270" t="s">
         <v>218</v>
@@ -77469,7 +77538,7 @@
         <v>43931</v>
       </c>
       <c r="C2271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2271" t="s">
         <v>218</v>
@@ -77502,7 +77571,7 @@
         <v>43931</v>
       </c>
       <c r="C2272" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2272" t="s">
         <v>218</v>
@@ -77535,7 +77604,7 @@
         <v>43931</v>
       </c>
       <c r="C2273" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2273" t="s">
         <v>218</v>
@@ -77568,7 +77637,7 @@
         <v>43931</v>
       </c>
       <c r="C2274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2274" t="s">
         <v>218</v>
@@ -77601,7 +77670,7 @@
         <v>43931</v>
       </c>
       <c r="C2275" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2275" t="s">
         <v>218</v>
@@ -77634,13 +77703,13 @@
         <v>43931</v>
       </c>
       <c r="C2276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2276" t="s">
         <v>218</v>
       </c>
       <c r="E2276" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2276" s="2" t="str">
         <f t="shared" si="35"/>
@@ -77667,7 +77736,7 @@
         <v>43931</v>
       </c>
       <c r="C2277" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2277" t="s">
         <v>218</v>
@@ -77700,7 +77769,7 @@
         <v>43931</v>
       </c>
       <c r="C2278" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2278" t="s">
         <v>218</v>
@@ -77733,7 +77802,7 @@
         <v>43931</v>
       </c>
       <c r="C2279" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2279" t="s">
         <v>218</v>
@@ -77758,7 +77827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2280">
         <v>2279</v>
       </c>
@@ -77766,7 +77835,7 @@
         <v>43931</v>
       </c>
       <c r="C2280" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2280" t="s">
         <v>218</v>
@@ -77805,7 +77874,7 @@
         <v>43931</v>
       </c>
       <c r="C2281" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2281" t="s">
         <v>218</v>
@@ -77838,7 +77907,7 @@
         <v>43931</v>
       </c>
       <c r="C2282" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2282" t="s">
         <v>218</v>
@@ -77871,7 +77940,7 @@
         <v>43931</v>
       </c>
       <c r="C2283" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2283" t="s">
         <v>218</v>
@@ -77904,7 +77973,7 @@
         <v>43931</v>
       </c>
       <c r="C2284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2284" t="s">
         <v>218</v>
@@ -77937,7 +78006,7 @@
         <v>43931</v>
       </c>
       <c r="C2285" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2285" t="s">
         <v>218</v>
@@ -77970,7 +78039,7 @@
         <v>43931</v>
       </c>
       <c r="C2286" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2286" t="s">
         <v>218</v>
@@ -78003,7 +78072,7 @@
         <v>43931</v>
       </c>
       <c r="C2287" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2287" t="s">
         <v>218</v>
@@ -78036,7 +78105,7 @@
         <v>43931</v>
       </c>
       <c r="C2288" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2288" t="s">
         <v>218</v>
@@ -78069,7 +78138,7 @@
         <v>43931</v>
       </c>
       <c r="C2289" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2289" t="s">
         <v>218</v>
@@ -78102,7 +78171,7 @@
         <v>43931</v>
       </c>
       <c r="C2290" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2290" t="s">
         <v>218</v>
@@ -78135,7 +78204,7 @@
         <v>43931</v>
       </c>
       <c r="C2291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2291" t="s">
         <v>218</v>
@@ -78168,7 +78237,7 @@
         <v>43931</v>
       </c>
       <c r="C2292" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2292" t="s">
         <v>218</v>
@@ -78201,7 +78270,7 @@
         <v>43931</v>
       </c>
       <c r="C2293" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2293" t="s">
         <v>218</v>
@@ -78234,7 +78303,7 @@
         <v>43931</v>
       </c>
       <c r="C2294" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2294" t="s">
         <v>218</v>
@@ -78267,7 +78336,7 @@
         <v>43931</v>
       </c>
       <c r="C2295" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2295" t="s">
         <v>218</v>
@@ -78300,7 +78369,7 @@
         <v>43931</v>
       </c>
       <c r="C2296" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2296" t="s">
         <v>218</v>
@@ -78333,7 +78402,7 @@
         <v>43931</v>
       </c>
       <c r="C2297" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2297" t="s">
         <v>218</v>
@@ -78366,7 +78435,7 @@
         <v>43931</v>
       </c>
       <c r="C2298" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2298" t="s">
         <v>218</v>
@@ -78399,7 +78468,7 @@
         <v>43931</v>
       </c>
       <c r="C2299" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2299" t="s">
         <v>218</v>
@@ -78432,7 +78501,7 @@
         <v>43931</v>
       </c>
       <c r="C2300" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2300" t="s">
         <v>218</v>
@@ -78465,7 +78534,7 @@
         <v>43931</v>
       </c>
       <c r="C2301" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2301" t="s">
         <v>218</v>
@@ -78498,7 +78567,7 @@
         <v>43931</v>
       </c>
       <c r="C2302" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2302" t="s">
         <v>218</v>
@@ -78531,7 +78600,7 @@
         <v>43931</v>
       </c>
       <c r="C2303" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2303" t="s">
         <v>218</v>
@@ -78564,7 +78633,7 @@
         <v>43931</v>
       </c>
       <c r="C2304" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2304" t="s">
         <v>218</v>
@@ -78597,7 +78666,7 @@
         <v>43931</v>
       </c>
       <c r="C2305" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2305" t="s">
         <v>218</v>
@@ -78630,7 +78699,7 @@
         <v>43931</v>
       </c>
       <c r="C2306" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2306" t="s">
         <v>218</v>
@@ -78663,7 +78732,7 @@
         <v>43931</v>
       </c>
       <c r="C2307" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2307" t="s">
         <v>218</v>
@@ -78696,7 +78765,7 @@
         <v>43931</v>
       </c>
       <c r="C2308" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2308" t="s">
         <v>218</v>
@@ -78729,7 +78798,7 @@
         <v>43931</v>
       </c>
       <c r="C2309" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2309" t="s">
         <v>218</v>
@@ -78762,7 +78831,7 @@
         <v>43931</v>
       </c>
       <c r="C2310" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2310" t="s">
         <v>218</v>
@@ -78795,7 +78864,7 @@
         <v>43931</v>
       </c>
       <c r="C2311" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2311" t="s">
         <v>218</v>
@@ -78828,7 +78897,7 @@
         <v>43931</v>
       </c>
       <c r="C2312" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2312" t="s">
         <v>218</v>
@@ -78861,7 +78930,7 @@
         <v>43931</v>
       </c>
       <c r="C2313" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2313" t="s">
         <v>218</v>
@@ -78894,7 +78963,7 @@
         <v>43931</v>
       </c>
       <c r="C2314" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2314" t="s">
         <v>218</v>
@@ -78927,7 +78996,7 @@
         <v>43931</v>
       </c>
       <c r="C2315" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2315" t="s">
         <v>218</v>
@@ -78960,7 +79029,7 @@
         <v>43931</v>
       </c>
       <c r="C2316" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2316" t="s">
         <v>218</v>
@@ -78993,7 +79062,7 @@
         <v>43931</v>
       </c>
       <c r="C2317" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2317" t="s">
         <v>218</v>
@@ -79026,7 +79095,7 @@
         <v>43931</v>
       </c>
       <c r="C2318" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2318" t="s">
         <v>218</v>
@@ -79059,7 +79128,7 @@
         <v>43931</v>
       </c>
       <c r="C2319" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2319" t="s">
         <v>218</v>
@@ -79092,7 +79161,7 @@
         <v>43931</v>
       </c>
       <c r="C2320" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2320" t="s">
         <v>218</v>
@@ -79125,7 +79194,7 @@
         <v>43931</v>
       </c>
       <c r="C2321" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2321" t="s">
         <v>218</v>
@@ -79158,7 +79227,7 @@
         <v>43931</v>
       </c>
       <c r="C2322" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2322" t="s">
         <v>218</v>
@@ -79191,7 +79260,7 @@
         <v>43931</v>
       </c>
       <c r="C2323" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2323" t="s">
         <v>218</v>
@@ -79224,7 +79293,7 @@
         <v>43931</v>
       </c>
       <c r="C2324" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2324" t="s">
         <v>218</v>
@@ -79257,7 +79326,7 @@
         <v>43931</v>
       </c>
       <c r="C2325" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2325" t="s">
         <v>218</v>
@@ -79290,7 +79359,7 @@
         <v>43931</v>
       </c>
       <c r="C2326" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2326" t="s">
         <v>218</v>
@@ -79323,7 +79392,7 @@
         <v>43931</v>
       </c>
       <c r="C2327" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2327" t="s">
         <v>218</v>
@@ -79356,7 +79425,7 @@
         <v>43931</v>
       </c>
       <c r="C2328" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2328" t="s">
         <v>218</v>
@@ -79389,7 +79458,7 @@
         <v>43931</v>
       </c>
       <c r="C2329" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2329" t="s">
         <v>218</v>
@@ -79422,7 +79491,7 @@
         <v>43931</v>
       </c>
       <c r="C2330" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2330" t="s">
         <v>218</v>
@@ -79455,7 +79524,7 @@
         <v>43931</v>
       </c>
       <c r="C2331" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2331" t="s">
         <v>218</v>
@@ -79488,7 +79557,7 @@
         <v>43931</v>
       </c>
       <c r="C2332" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2332" t="s">
         <v>218</v>
@@ -79521,7 +79590,7 @@
         <v>43931</v>
       </c>
       <c r="C2333" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2333" t="s">
         <v>218</v>
@@ -79554,7 +79623,7 @@
         <v>43931</v>
       </c>
       <c r="C2334" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2334" t="s">
         <v>218</v>
@@ -79587,7 +79656,7 @@
         <v>43931</v>
       </c>
       <c r="C2335" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2335" t="s">
         <v>218</v>
@@ -79620,7 +79689,7 @@
         <v>43931</v>
       </c>
       <c r="C2336" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2336" t="s">
         <v>218</v>
@@ -79653,7 +79722,7 @@
         <v>43931</v>
       </c>
       <c r="C2337" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2337" t="s">
         <v>218</v>
@@ -79686,7 +79755,7 @@
         <v>43931</v>
       </c>
       <c r="C2338" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2338" t="s">
         <v>218</v>
@@ -79705,7 +79774,7 @@
         <v>12</v>
       </c>
       <c r="I2338" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L2338">
         <v>29</v>
@@ -79719,7 +79788,7 @@
         <v>43931</v>
       </c>
       <c r="C2339" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2339" t="s">
         <v>218</v>
@@ -79752,7 +79821,7 @@
         <v>43931</v>
       </c>
       <c r="C2340" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2340" t="s">
         <v>218</v>
@@ -79785,7 +79854,7 @@
         <v>43931</v>
       </c>
       <c r="C2341" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2341" t="s">
         <v>218</v>
@@ -80049,7 +80118,7 @@
         <v>43931</v>
       </c>
       <c r="C2349" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D2349" t="s">
         <v>43</v>
@@ -80610,7 +80679,7 @@
         <v>43931</v>
       </c>
       <c r="C2366" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2366" t="s">
         <v>132</v>
@@ -80676,7 +80745,7 @@
         <v>43931</v>
       </c>
       <c r="C2368" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2368" t="s">
         <v>62</v>
@@ -80709,7 +80778,7 @@
         <v>43931</v>
       </c>
       <c r="C2369" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2369" t="s">
         <v>62</v>
@@ -80728,7 +80797,7 @@
         <v>12</v>
       </c>
       <c r="I2369" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2369">
         <v>61</v>
@@ -80775,7 +80844,7 @@
         <v>43931</v>
       </c>
       <c r="C2371" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D2371" t="s">
         <v>89</v>
@@ -80808,7 +80877,7 @@
         <v>43931</v>
       </c>
       <c r="C2372" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2372" t="s">
         <v>43</v>
@@ -80874,7 +80943,7 @@
         <v>43931</v>
       </c>
       <c r="C2374" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2374" t="s">
         <v>43</v>
@@ -80907,7 +80976,7 @@
         <v>43931</v>
       </c>
       <c r="C2375" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2375" t="s">
         <v>43</v>
@@ -80940,7 +81009,7 @@
         <v>43931</v>
       </c>
       <c r="C2376" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2376" t="s">
         <v>43</v>
@@ -81064,7 +81133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2380">
         <v>2379</v>
       </c>
@@ -81103,7 +81172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2381">
         <v>2380</v>
       </c>
@@ -81111,7 +81180,7 @@
         <v>43931</v>
       </c>
       <c r="C2381" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2381" t="s">
         <v>56</v>
@@ -81348,7 +81417,7 @@
         <v>43931</v>
       </c>
       <c r="C2388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2388" t="s">
         <v>209</v>
@@ -81381,7 +81450,7 @@
         <v>43931</v>
       </c>
       <c r="C2389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2389" t="s">
         <v>209</v>
@@ -81505,7 +81574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2393">
         <v>2392</v>
       </c>
@@ -81742,7 +81811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2400">
         <v>2399</v>
       </c>
@@ -81822,7 +81891,7 @@
         <v>43931</v>
       </c>
       <c r="C2402" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2402" t="s">
         <v>56</v>
@@ -81855,7 +81924,7 @@
         <v>43931</v>
       </c>
       <c r="C2403" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2403" t="s">
         <v>56</v>
@@ -81874,7 +81943,7 @@
         <v>12</v>
       </c>
       <c r="I2403" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2403">
         <v>26</v>
@@ -81888,7 +81957,7 @@
         <v>43931</v>
       </c>
       <c r="C2404" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2404" t="s">
         <v>56</v>
@@ -81921,7 +81990,7 @@
         <v>43931</v>
       </c>
       <c r="C2405" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2405" t="s">
         <v>56</v>
@@ -82333,7 +82402,7 @@
         <v>15</v>
       </c>
       <c r="H2417" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I2417" t="s">
         <v>20</v>
@@ -82614,7 +82683,7 @@
         <v>43931</v>
       </c>
       <c r="C2426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2426" t="s">
         <v>158</v>
@@ -82633,7 +82702,7 @@
         <v>12</v>
       </c>
       <c r="I2426" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L2426">
         <v>24</v>
@@ -82680,7 +82749,7 @@
         <v>43931</v>
       </c>
       <c r="C2428" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2428" t="s">
         <v>43</v>
@@ -83577,7 +83646,7 @@
         <v>158</v>
       </c>
       <c r="E2455" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2455" s="2" t="str">
         <f t="shared" si="38"/>
@@ -83953,7 +84022,7 @@
         <v>12</v>
       </c>
       <c r="I2466" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2466">
         <v>58</v>
@@ -84132,7 +84201,7 @@
         <v>43931</v>
       </c>
       <c r="C2472" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2472" t="s">
         <v>62</v>
@@ -84231,7 +84300,7 @@
         <v>43932</v>
       </c>
       <c r="C2475" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2475" t="s">
         <v>43</v>
@@ -84844,7 +84913,7 @@
         <v>12</v>
       </c>
       <c r="I2493" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2493">
         <v>53</v>
@@ -85452,7 +85521,7 @@
         <v>43932</v>
       </c>
       <c r="C2512" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D2512" t="s">
         <v>209</v>
@@ -85576,7 +85645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2516">
         <v>2515</v>
       </c>
@@ -85747,7 +85816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2521">
         <v>2520</v>
       </c>
@@ -86691,7 +86760,7 @@
         <v>218</v>
       </c>
       <c r="E2549" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2549" s="2" t="str">
         <f t="shared" si="39"/>
@@ -88005,7 +88074,7 @@
         <v>43932</v>
       </c>
       <c r="C2589" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2589" t="s">
         <v>132</v>
@@ -88038,7 +88107,7 @@
         <v>43932</v>
       </c>
       <c r="C2590" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2590" t="s">
         <v>132</v>
@@ -88071,7 +88140,7 @@
         <v>43932</v>
       </c>
       <c r="C2591" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2591" t="s">
         <v>132</v>
@@ -88261,7 +88330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2597">
         <v>2596</v>
       </c>
@@ -88308,7 +88377,7 @@
         <v>43932</v>
       </c>
       <c r="C2598" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2598" t="s">
         <v>39</v>
@@ -88704,7 +88773,7 @@
         <v>43932</v>
       </c>
       <c r="C2610" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D2610" t="s">
         <v>154</v>
@@ -88803,7 +88872,7 @@
         <v>43932</v>
       </c>
       <c r="C2613" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2613" t="s">
         <v>154</v>
@@ -88861,7 +88930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2615" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2615">
         <v>2614</v>
       </c>
@@ -88869,7 +88938,7 @@
         <v>43932</v>
       </c>
       <c r="C2615" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D2615" t="s">
         <v>43</v>
@@ -89007,7 +89076,7 @@
         <v>43932</v>
       </c>
       <c r="C2619" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2619" t="s">
         <v>43</v>
@@ -89139,13 +89208,13 @@
         <v>43932</v>
       </c>
       <c r="C2623" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2623" t="s">
         <v>27</v>
       </c>
       <c r="E2623" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F2623" s="2" t="str">
         <f t="shared" si="40"/>
@@ -89172,13 +89241,13 @@
         <v>43932</v>
       </c>
       <c r="C2624" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D2624" t="s">
         <v>27</v>
       </c>
       <c r="E2624" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F2624" s="2" t="str">
         <f t="shared" si="40"/>
@@ -89205,13 +89274,13 @@
         <v>43932</v>
       </c>
       <c r="C2625" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2625" t="s">
         <v>27</v>
       </c>
       <c r="E2625" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F2625" s="2" t="str">
         <f t="shared" si="40"/>
@@ -89277,7 +89346,7 @@
         <v>27</v>
       </c>
       <c r="E2627" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F2627" s="2" t="str">
         <f t="shared" ref="F2627:F2690" si="41">IF(L2627&lt;10,"0-9",IF(L2627&lt;20,"10-19",IF(L2627&lt;30,"20-29",IF(L2627&lt;40,"30-39",IF(L2627&lt;50,"40-49",IF(L2627&lt;60,"50-59",IF(L2627&lt;70,"60-69",IF(L2627&lt;80,"70-79",IF(L2627&lt;90,"80-89",IF(L2627&lt;100,"90-99","&gt;100"))))))))))</f>
@@ -89304,10 +89373,10 @@
         <v>43932</v>
       </c>
       <c r="C2628" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D2628" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E2628" t="s">
         <v>22</v>
@@ -89329,7 +89398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2629">
         <v>2628</v>
       </c>
@@ -89467,7 +89536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2633">
         <v>2632</v>
       </c>
@@ -89770,7 +89839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2642">
         <v>2641</v>
       </c>
@@ -89916,7 +89985,7 @@
         <v>43932</v>
       </c>
       <c r="C2646" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2646" t="s">
         <v>48</v>
@@ -90007,7 +90076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2649" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2649">
         <v>2648</v>
       </c>
@@ -90015,7 +90084,7 @@
         <v>43932</v>
       </c>
       <c r="C2649" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2649" t="s">
         <v>56</v>
@@ -90054,7 +90123,7 @@
         <v>43932</v>
       </c>
       <c r="C2650" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2650" t="s">
         <v>56</v>
@@ -90087,7 +90156,7 @@
         <v>43932</v>
       </c>
       <c r="C2651" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2651" t="s">
         <v>158</v>
@@ -90120,7 +90189,7 @@
         <v>43932</v>
       </c>
       <c r="C2652" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2652" t="s">
         <v>158</v>
@@ -90291,7 +90360,7 @@
         <v>158</v>
       </c>
       <c r="E2657" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2657" s="2" t="str">
         <f t="shared" si="41"/>
@@ -90324,7 +90393,7 @@
         <v>158</v>
       </c>
       <c r="E2658" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F2658" s="2" t="str">
         <f t="shared" si="41"/>
@@ -90885,7 +90954,7 @@
         <v>27</v>
       </c>
       <c r="E2675" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F2675" s="2" t="str">
         <f t="shared" si="41"/>
@@ -91110,7 +91179,7 @@
         <v>43932</v>
       </c>
       <c r="C2682" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2682" t="s">
         <v>158</v>
@@ -91143,7 +91212,7 @@
         <v>43932</v>
       </c>
       <c r="C2683" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2683" t="s">
         <v>158</v>
@@ -91176,7 +91245,7 @@
         <v>43932</v>
       </c>
       <c r="C2684" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2684" t="s">
         <v>158</v>
@@ -91624,7 +91693,7 @@
         <v>12</v>
       </c>
       <c r="I2697" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2697">
         <v>34</v>
@@ -92067,7 +92136,7 @@
         <v>43933</v>
       </c>
       <c r="C2711" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2711" t="s">
         <v>218</v>
@@ -92086,7 +92155,7 @@
         <v>78</v>
       </c>
       <c r="I2711" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2711">
         <v>52</v>
@@ -92100,7 +92169,7 @@
         <v>43933</v>
       </c>
       <c r="C2712" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2712" t="s">
         <v>146</v>
@@ -92119,7 +92188,7 @@
         <v>78</v>
       </c>
       <c r="I2712" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2712">
         <v>21</v>
@@ -92133,7 +92202,7 @@
         <v>43933</v>
       </c>
       <c r="C2713" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2713" t="s">
         <v>146</v>
@@ -92152,7 +92221,7 @@
         <v>78</v>
       </c>
       <c r="I2713" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2713">
         <v>51</v>
@@ -92166,7 +92235,7 @@
         <v>43933</v>
       </c>
       <c r="C2714" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D2714" t="s">
         <v>48</v>
@@ -92185,7 +92254,7 @@
         <v>12</v>
       </c>
       <c r="I2714" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L2714">
         <v>52</v>
@@ -92199,7 +92268,7 @@
         <v>43933</v>
       </c>
       <c r="C2715" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D2715" t="s">
         <v>48</v>
@@ -92218,7 +92287,7 @@
         <v>78</v>
       </c>
       <c r="I2715" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2715">
         <v>23</v>
@@ -92232,7 +92301,7 @@
         <v>43933</v>
       </c>
       <c r="C2716" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2716" t="s">
         <v>18</v>
@@ -92251,7 +92320,7 @@
         <v>78</v>
       </c>
       <c r="I2716" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2716">
         <v>33</v>
@@ -92265,7 +92334,7 @@
         <v>43933</v>
       </c>
       <c r="C2717" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2717" t="s">
         <v>18</v>
@@ -92284,7 +92353,7 @@
         <v>78</v>
       </c>
       <c r="I2717" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2717">
         <v>27</v>
@@ -92298,7 +92367,7 @@
         <v>43933</v>
       </c>
       <c r="C2718" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2718" t="s">
         <v>18</v>
@@ -92317,7 +92386,7 @@
         <v>78</v>
       </c>
       <c r="I2718" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2718">
         <v>52</v>
@@ -92331,7 +92400,7 @@
         <v>43933</v>
       </c>
       <c r="C2719" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2719" t="s">
         <v>18</v>
@@ -92350,7 +92419,7 @@
         <v>19</v>
       </c>
       <c r="I2719" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2719">
         <v>29</v>
@@ -92364,7 +92433,7 @@
         <v>43933</v>
       </c>
       <c r="C2720" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2720" t="s">
         <v>35</v>
@@ -92383,7 +92452,7 @@
         <v>78</v>
       </c>
       <c r="I2720" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2720">
         <v>45</v>
@@ -92397,7 +92466,7 @@
         <v>43933</v>
       </c>
       <c r="C2721" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2721" t="s">
         <v>35</v>
@@ -92416,7 +92485,7 @@
         <v>19</v>
       </c>
       <c r="I2721" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2721">
         <v>54</v>
@@ -92449,7 +92518,7 @@
         <v>78</v>
       </c>
       <c r="I2722" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2722">
         <v>1</v>
@@ -92463,7 +92532,7 @@
         <v>43933</v>
       </c>
       <c r="C2723" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D2723" t="s">
         <v>158</v>
@@ -92482,7 +92551,7 @@
         <v>78</v>
       </c>
       <c r="I2723" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2723">
         <v>90</v>
@@ -92496,7 +92565,7 @@
         <v>43933</v>
       </c>
       <c r="C2724" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2724" t="s">
         <v>158</v>
@@ -92515,7 +92584,7 @@
         <v>12</v>
       </c>
       <c r="I2724" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L2724">
         <v>25</v>
@@ -92529,7 +92598,7 @@
         <v>43933</v>
       </c>
       <c r="C2725" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2725" t="s">
         <v>158</v>
@@ -92548,7 +92617,7 @@
         <v>19</v>
       </c>
       <c r="I2725" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2725">
         <v>23</v>
@@ -92562,7 +92631,7 @@
         <v>43933</v>
       </c>
       <c r="C2726" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D2726" t="s">
         <v>43</v>
@@ -92581,7 +92650,7 @@
         <v>78</v>
       </c>
       <c r="I2726" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2726">
         <v>60</v>
@@ -92595,7 +92664,7 @@
         <v>43933</v>
       </c>
       <c r="C2727" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2727" t="s">
         <v>43</v>
@@ -92614,7 +92683,7 @@
         <v>78</v>
       </c>
       <c r="I2727" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2727">
         <v>42</v>
@@ -92647,7 +92716,7 @@
         <v>78</v>
       </c>
       <c r="I2728" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2728">
         <v>7</v>
@@ -92661,7 +92730,7 @@
         <v>43933</v>
       </c>
       <c r="C2729" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2729" t="s">
         <v>158</v>
@@ -92680,13 +92749,13 @@
         <v>78</v>
       </c>
       <c r="I2729" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2729">
         <v>38</v>
       </c>
     </row>
-    <row r="2730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2730" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2730">
         <v>2729</v>
       </c>
@@ -92694,13 +92763,13 @@
         <v>43933</v>
       </c>
       <c r="C2730" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2730" t="s">
         <v>209</v>
       </c>
       <c r="E2730" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F2730" s="2" t="str">
         <f t="shared" si="42"/>
@@ -92713,7 +92782,13 @@
         <v>78</v>
       </c>
       <c r="I2730" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="J2730">
+        <v>111</v>
+      </c>
+      <c r="K2730" s="1">
+        <v>43934</v>
       </c>
       <c r="L2730">
         <v>76</v>
@@ -92727,7 +92802,7 @@
         <v>43933</v>
       </c>
       <c r="C2731" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D2731" t="s">
         <v>129</v>
@@ -92746,7 +92821,7 @@
         <v>78</v>
       </c>
       <c r="I2731" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2731">
         <v>20</v>
@@ -92760,7 +92835,7 @@
         <v>43933</v>
       </c>
       <c r="C2732" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2732" t="s">
         <v>18</v>
@@ -92779,7 +92854,7 @@
         <v>78</v>
       </c>
       <c r="I2732" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2732">
         <v>72</v>
@@ -92793,7 +92868,7 @@
         <v>43933</v>
       </c>
       <c r="C2733" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2733" t="s">
         <v>39</v>
@@ -92826,7 +92901,7 @@
         <v>43933</v>
       </c>
       <c r="C2734" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2734" t="s">
         <v>146</v>
@@ -92845,7 +92920,7 @@
         <v>78</v>
       </c>
       <c r="I2734" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2734">
         <v>28</v>
@@ -92859,7 +92934,7 @@
         <v>43933</v>
       </c>
       <c r="C2735" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2735" t="s">
         <v>146</v>
@@ -92878,7 +92953,7 @@
         <v>78</v>
       </c>
       <c r="I2735" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2735">
         <v>35</v>
@@ -92892,7 +92967,7 @@
         <v>43933</v>
       </c>
       <c r="C2736" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2736" t="s">
         <v>146</v>
@@ -92911,7 +92986,7 @@
         <v>19</v>
       </c>
       <c r="I2736" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2736">
         <v>53</v>
@@ -92925,7 +93000,7 @@
         <v>43933</v>
       </c>
       <c r="C2737" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2737" t="s">
         <v>146</v>
@@ -92944,7 +93019,7 @@
         <v>19</v>
       </c>
       <c r="I2737" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2737">
         <v>14</v>
@@ -92958,7 +93033,7 @@
         <v>43933</v>
       </c>
       <c r="C2738" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2738" t="s">
         <v>218</v>
@@ -92977,7 +93052,7 @@
         <v>19</v>
       </c>
       <c r="I2738" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2738">
         <v>8</v>
@@ -92991,7 +93066,7 @@
         <v>43933</v>
       </c>
       <c r="C2739" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2739" t="s">
         <v>218</v>
@@ -93010,7 +93085,7 @@
         <v>78</v>
       </c>
       <c r="I2739" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2739">
         <v>48</v>
@@ -93043,7 +93118,7 @@
         <v>78</v>
       </c>
       <c r="I2740" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2740">
         <v>47</v>
@@ -93057,7 +93132,7 @@
         <v>43933</v>
       </c>
       <c r="C2741" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D2741" t="s">
         <v>37</v>
@@ -93076,7 +93151,7 @@
         <v>78</v>
       </c>
       <c r="I2741" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2741">
         <v>23</v>
@@ -93090,7 +93165,7 @@
         <v>43933</v>
       </c>
       <c r="C2742" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D2742" t="s">
         <v>37</v>
@@ -93109,7 +93184,7 @@
         <v>78</v>
       </c>
       <c r="I2742" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2742">
         <v>32</v>
@@ -93123,7 +93198,7 @@
         <v>43933</v>
       </c>
       <c r="C2743" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2743" t="s">
         <v>43</v>
@@ -93142,7 +93217,7 @@
         <v>19</v>
       </c>
       <c r="I2743" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2743">
         <v>52</v>
@@ -93156,7 +93231,7 @@
         <v>43933</v>
       </c>
       <c r="C2744" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2744" t="s">
         <v>43</v>
@@ -93175,7 +93250,7 @@
         <v>19</v>
       </c>
       <c r="I2744" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2744">
         <v>58</v>
@@ -93189,7 +93264,7 @@
         <v>43933</v>
       </c>
       <c r="C2745" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D2745" t="s">
         <v>43</v>
@@ -93208,7 +93283,7 @@
         <v>19</v>
       </c>
       <c r="I2745" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2745">
         <v>25</v>
@@ -93222,7 +93297,7 @@
         <v>43933</v>
       </c>
       <c r="C2746" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D2746" t="s">
         <v>43</v>
@@ -93241,7 +93316,7 @@
         <v>78</v>
       </c>
       <c r="I2746" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2746">
         <v>42</v>
@@ -93255,7 +93330,7 @@
         <v>43933</v>
       </c>
       <c r="C2747" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2747" t="s">
         <v>43</v>
@@ -93274,7 +93349,7 @@
         <v>19</v>
       </c>
       <c r="I2747" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2747">
         <v>30</v>
@@ -93288,7 +93363,7 @@
         <v>43933</v>
       </c>
       <c r="C2748" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2748" t="s">
         <v>209</v>
@@ -93307,7 +93382,7 @@
         <v>78</v>
       </c>
       <c r="I2748" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2748">
         <v>14</v>
@@ -93321,7 +93396,7 @@
         <v>43933</v>
       </c>
       <c r="C2749" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2749" t="s">
         <v>209</v>
@@ -93340,7 +93415,7 @@
         <v>78</v>
       </c>
       <c r="I2749" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2749">
         <v>47</v>
@@ -93354,7 +93429,7 @@
         <v>43933</v>
       </c>
       <c r="C2750" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2750" t="s">
         <v>209</v>
@@ -93373,7 +93448,7 @@
         <v>78</v>
       </c>
       <c r="I2750" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2750">
         <v>38</v>
@@ -93387,7 +93462,7 @@
         <v>43933</v>
       </c>
       <c r="C2751" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D2751" t="s">
         <v>129</v>
@@ -93406,7 +93481,7 @@
         <v>19</v>
       </c>
       <c r="I2751" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2751">
         <v>34</v>
@@ -93420,7 +93495,7 @@
         <v>43933</v>
       </c>
       <c r="C2752" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2752" t="s">
         <v>129</v>
@@ -93439,7 +93514,7 @@
         <v>19</v>
       </c>
       <c r="I2752" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2752">
         <v>67</v>
@@ -93453,7 +93528,7 @@
         <v>43933</v>
       </c>
       <c r="C2753" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2753" t="s">
         <v>129</v>
@@ -93472,7 +93547,7 @@
         <v>78</v>
       </c>
       <c r="I2753" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2753">
         <v>68</v>
@@ -93486,7 +93561,7 @@
         <v>43933</v>
       </c>
       <c r="C2754" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D2754" t="s">
         <v>18</v>
@@ -93505,7 +93580,7 @@
         <v>19</v>
       </c>
       <c r="I2754" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2754">
         <v>84</v>
@@ -93519,7 +93594,7 @@
         <v>43933</v>
       </c>
       <c r="C2755" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2755" t="s">
         <v>18</v>
@@ -93528,7 +93603,7 @@
         <v>22</v>
       </c>
       <c r="F2755" s="2" t="str">
-        <f t="shared" ref="F2755:F2777" si="43">IF(L2755&lt;10,"0-9",IF(L2755&lt;20,"10-19",IF(L2755&lt;30,"20-29",IF(L2755&lt;40,"30-39",IF(L2755&lt;50,"40-49",IF(L2755&lt;60,"50-59",IF(L2755&lt;70,"60-69",IF(L2755&lt;80,"70-79",IF(L2755&lt;90,"80-89",IF(L2755&lt;100,"90-99","&gt;100"))))))))))</f>
+        <f t="shared" ref="F2755:F2818" si="43">IF(L2755&lt;10,"0-9",IF(L2755&lt;20,"10-19",IF(L2755&lt;30,"20-29",IF(L2755&lt;40,"30-39",IF(L2755&lt;50,"40-49",IF(L2755&lt;60,"50-59",IF(L2755&lt;70,"60-69",IF(L2755&lt;80,"70-79",IF(L2755&lt;90,"80-89",IF(L2755&lt;100,"90-99","&gt;100"))))))))))</f>
         <v>80-89</v>
       </c>
       <c r="G2755" t="s">
@@ -93538,7 +93613,7 @@
         <v>19</v>
       </c>
       <c r="I2755" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2755">
         <v>84</v>
@@ -93552,7 +93627,7 @@
         <v>43933</v>
       </c>
       <c r="C2756" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2756" t="s">
         <v>18</v>
@@ -93571,7 +93646,7 @@
         <v>12</v>
       </c>
       <c r="I2756" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L2756">
         <v>20</v>
@@ -93604,7 +93679,7 @@
         <v>78</v>
       </c>
       <c r="I2757" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2757">
         <v>10</v>
@@ -93637,7 +93712,7 @@
         <v>78</v>
       </c>
       <c r="I2758" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2758">
         <v>42</v>
@@ -93670,7 +93745,7 @@
         <v>78</v>
       </c>
       <c r="I2759" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2759">
         <v>74</v>
@@ -93684,7 +93759,7 @@
         <v>43933</v>
       </c>
       <c r="C2760" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2760" t="s">
         <v>218</v>
@@ -93703,7 +93778,7 @@
         <v>12</v>
       </c>
       <c r="I2760" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L2760">
         <v>75</v>
@@ -93717,7 +93792,7 @@
         <v>43933</v>
       </c>
       <c r="C2761" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2761" t="s">
         <v>218</v>
@@ -93736,7 +93811,7 @@
         <v>78</v>
       </c>
       <c r="I2761" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2761">
         <v>57</v>
@@ -93750,7 +93825,7 @@
         <v>43933</v>
       </c>
       <c r="C2762" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2762" t="s">
         <v>218</v>
@@ -93769,7 +93844,7 @@
         <v>78</v>
       </c>
       <c r="I2762" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2762">
         <v>34</v>
@@ -93783,7 +93858,7 @@
         <v>43933</v>
       </c>
       <c r="C2763" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2763" t="s">
         <v>218</v>
@@ -93802,7 +93877,7 @@
         <v>78</v>
       </c>
       <c r="I2763" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2763">
         <v>18</v>
@@ -93816,7 +93891,7 @@
         <v>43933</v>
       </c>
       <c r="C2764" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2764" t="s">
         <v>218</v>
@@ -93835,7 +93910,7 @@
         <v>78</v>
       </c>
       <c r="I2764" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2764">
         <v>73</v>
@@ -93849,7 +93924,7 @@
         <v>43933</v>
       </c>
       <c r="C2765" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2765" t="s">
         <v>218</v>
@@ -93868,7 +93943,7 @@
         <v>78</v>
       </c>
       <c r="I2765" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2765">
         <v>66</v>
@@ -93882,7 +93957,7 @@
         <v>43933</v>
       </c>
       <c r="C2766" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2766" t="s">
         <v>218</v>
@@ -93901,7 +93976,7 @@
         <v>19</v>
       </c>
       <c r="I2766" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2766">
         <v>2</v>
@@ -93915,7 +93990,7 @@
         <v>43933</v>
       </c>
       <c r="C2767" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2767" t="s">
         <v>218</v>
@@ -93934,7 +94009,7 @@
         <v>78</v>
       </c>
       <c r="I2767" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2767">
         <v>66</v>
@@ -93948,7 +94023,7 @@
         <v>43933</v>
       </c>
       <c r="C2768" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2768" t="s">
         <v>218</v>
@@ -93967,7 +94042,7 @@
         <v>78</v>
       </c>
       <c r="I2768" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2768">
         <v>49</v>
@@ -93981,7 +94056,7 @@
         <v>43933</v>
       </c>
       <c r="C2769" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2769" t="s">
         <v>218</v>
@@ -94000,7 +94075,7 @@
         <v>78</v>
       </c>
       <c r="I2769" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2769">
         <v>76</v>
@@ -94014,7 +94089,7 @@
         <v>43933</v>
       </c>
       <c r="C2770" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2770" t="s">
         <v>218</v>
@@ -94033,7 +94108,7 @@
         <v>78</v>
       </c>
       <c r="I2770" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2770">
         <v>58</v>
@@ -94047,7 +94122,7 @@
         <v>43933</v>
       </c>
       <c r="C2771" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2771" t="s">
         <v>218</v>
@@ -94066,7 +94141,7 @@
         <v>78</v>
       </c>
       <c r="I2771" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2771">
         <v>37</v>
@@ -94080,7 +94155,7 @@
         <v>43933</v>
       </c>
       <c r="C2772" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2772" t="s">
         <v>218</v>
@@ -94099,7 +94174,7 @@
         <v>19</v>
       </c>
       <c r="I2772" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2772">
         <v>10</v>
@@ -94113,7 +94188,7 @@
         <v>43933</v>
       </c>
       <c r="C2773" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2773" t="s">
         <v>218</v>
@@ -94132,7 +94207,7 @@
         <v>78</v>
       </c>
       <c r="I2773" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2773">
         <v>55</v>
@@ -94146,7 +94221,7 @@
         <v>43933</v>
       </c>
       <c r="C2774" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2774" t="s">
         <v>218</v>
@@ -94165,7 +94240,7 @@
         <v>78</v>
       </c>
       <c r="I2774" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2774">
         <v>65</v>
@@ -94179,7 +94254,7 @@
         <v>43933</v>
       </c>
       <c r="C2775" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2775" t="s">
         <v>218</v>
@@ -94198,7 +94273,7 @@
         <v>78</v>
       </c>
       <c r="I2775" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2775">
         <v>74</v>
@@ -94212,7 +94287,7 @@
         <v>43933</v>
       </c>
       <c r="C2776" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2776" t="s">
         <v>218</v>
@@ -94231,7 +94306,7 @@
         <v>19</v>
       </c>
       <c r="I2776" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2776">
         <v>56</v>
@@ -94245,7 +94320,7 @@
         <v>43933</v>
       </c>
       <c r="C2777" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2777" t="s">
         <v>218</v>
@@ -94264,17 +94339,2535 @@
         <v>78</v>
       </c>
       <c r="I2777" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L2777">
         <v>80</v>
       </c>
     </row>
+    <row r="2778" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2778">
+        <v>2777</v>
+      </c>
+      <c r="B2778" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2778" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2778" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2778" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2778" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2778" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2778">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2779">
+        <v>2778</v>
+      </c>
+      <c r="B2779" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2779" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2779" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2779" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2779" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2779" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2779">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2780">
+        <v>2779</v>
+      </c>
+      <c r="B2780" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2780" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2780" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2780" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2780" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2780" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2781">
+        <v>2780</v>
+      </c>
+      <c r="B2781" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2781" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2781" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2781" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2781" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2781" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2781">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2782">
+        <v>2781</v>
+      </c>
+      <c r="B2782" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2782" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2782" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2782" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2782" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2782" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2782">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2783">
+        <v>2782</v>
+      </c>
+      <c r="B2783" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2783" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2783" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2783" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2783" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2783" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2783">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2784">
+        <v>2783</v>
+      </c>
+      <c r="B2784" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2784" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2784" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2784" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2784" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2784" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2784">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2785">
+        <v>2784</v>
+      </c>
+      <c r="B2785" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2785" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2785" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2785" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2785" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2785" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2785">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2786">
+        <v>2785</v>
+      </c>
+      <c r="B2786" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2786" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2786" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2786" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2786" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2786" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2786">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2787">
+        <v>2786</v>
+      </c>
+      <c r="B2787" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2787" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2787" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2787" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2787" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2787" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2787">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2788">
+        <v>2787</v>
+      </c>
+      <c r="B2788" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2788" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2788" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2788" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2788" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2788" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2788">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2789">
+        <v>2788</v>
+      </c>
+      <c r="B2789" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2789" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2789" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2789" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2789" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2789" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2789">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2790">
+        <v>2789</v>
+      </c>
+      <c r="B2790" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2790" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2790" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2790" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2790" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2790" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2790">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2791">
+        <v>2790</v>
+      </c>
+      <c r="B2791" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2791" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2791" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2791" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2791" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2791" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2791">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2792">
+        <v>2791</v>
+      </c>
+      <c r="B2792" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2792" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2792" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2792" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2792" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2792" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2792">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2793">
+        <v>2792</v>
+      </c>
+      <c r="B2793" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2793" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2793" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2793" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2793" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2793" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2793">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2794">
+        <v>2793</v>
+      </c>
+      <c r="B2794" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2794" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2794" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2794" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2794" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2794" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2794">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2795">
+        <v>2794</v>
+      </c>
+      <c r="B2795" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2795" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2795" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2795" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2795" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2795" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2795">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2796">
+        <v>2795</v>
+      </c>
+      <c r="B2796" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2796" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2796" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2796" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2796" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2796" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2796">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2797">
+        <v>2796</v>
+      </c>
+      <c r="B2797" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2797" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2797" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2797" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2797" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2797" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2797">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2798">
+        <v>2797</v>
+      </c>
+      <c r="B2798" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2798" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2798" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2798" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2798" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2798" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2798">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2799">
+        <v>2798</v>
+      </c>
+      <c r="B2799" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2799" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2799" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2799" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2799" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2799" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2799">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2800">
+        <v>2799</v>
+      </c>
+      <c r="B2800" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2800" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2800" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2800" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2800" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2800" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2800">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2801">
+        <v>2800</v>
+      </c>
+      <c r="B2801" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2801" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2801" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2801" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2801" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2801" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2801">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2802">
+        <v>2801</v>
+      </c>
+      <c r="B2802" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2802" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2802" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2802" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2802" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2802" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2802">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2803">
+        <v>2802</v>
+      </c>
+      <c r="B2803" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2803" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2803" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2803" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2803" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2803" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2803">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2804">
+        <v>2803</v>
+      </c>
+      <c r="B2804" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2804" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2804" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2804" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2804" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2804" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2804">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2805">
+        <v>2804</v>
+      </c>
+      <c r="B2805" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2805" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2805" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2805" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2805" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2805" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2805">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2806">
+        <v>2805</v>
+      </c>
+      <c r="B2806" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2806" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2806" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>80-89</v>
+      </c>
+      <c r="G2806" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2806" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2806" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2806">
+        <v>112</v>
+      </c>
+      <c r="K2806" s="1">
+        <v>43934</v>
+      </c>
+      <c r="L2806">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2807">
+        <v>2806</v>
+      </c>
+      <c r="B2807" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2807" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2807" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>60-69</v>
+      </c>
+      <c r="G2807" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2807" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2807" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2807">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2808">
+        <v>2807</v>
+      </c>
+      <c r="B2808" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2808" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2808" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2808" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2808" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2808" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2808">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2809">
+        <v>2808</v>
+      </c>
+      <c r="B2809" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2809" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2809" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2809" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2809" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2809" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2809">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2810">
+        <v>2809</v>
+      </c>
+      <c r="B2810" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2810" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2810" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2810" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2810" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2810" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2810">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2811">
+        <v>2810</v>
+      </c>
+      <c r="B2811" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2811" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2811" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2811" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2811" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2811" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2811">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2812">
+        <v>2811</v>
+      </c>
+      <c r="B2812" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2812" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2812" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2812" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2812" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2812" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2812">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2813">
+        <v>2812</v>
+      </c>
+      <c r="B2813" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2813" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2813" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2813" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2813" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2813">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2814">
+        <v>2813</v>
+      </c>
+      <c r="B2814" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2814" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2814" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2814" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2814" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2814" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2814">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2815">
+        <v>2814</v>
+      </c>
+      <c r="B2815" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2815" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2815" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2815" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2815" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2815" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2815">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2816">
+        <v>2815</v>
+      </c>
+      <c r="B2816" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2816" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2816" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2816" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2816" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2816" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2816">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2817">
+        <v>2816</v>
+      </c>
+      <c r="B2817" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2817" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2817" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2817" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2817" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2817" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2817">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2818">
+        <v>2817</v>
+      </c>
+      <c r="B2818" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2818" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2818" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2818" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2818" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2818" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2818">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2819">
+        <v>2818</v>
+      </c>
+      <c r="B2819" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2819" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2819" s="2" t="str">
+        <f t="shared" ref="F2819:F2853" si="44">IF(L2819&lt;10,"0-9",IF(L2819&lt;20,"10-19",IF(L2819&lt;30,"20-29",IF(L2819&lt;40,"30-39",IF(L2819&lt;50,"40-49",IF(L2819&lt;60,"50-59",IF(L2819&lt;70,"60-69",IF(L2819&lt;80,"70-79",IF(L2819&lt;90,"80-89",IF(L2819&lt;100,"90-99","&gt;100"))))))))))</f>
+        <v>40-49</v>
+      </c>
+      <c r="G2819" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2819" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2819" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2819">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2820">
+        <v>2819</v>
+      </c>
+      <c r="B2820" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2820" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2820" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2820" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2820" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2820" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2820">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2821">
+        <v>2820</v>
+      </c>
+      <c r="B2821" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2821" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2821" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2821" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2821" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2821" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2821">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2822">
+        <v>2821</v>
+      </c>
+      <c r="B2822" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2822" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2822" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2822" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2822" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2822" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2822">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2823">
+        <v>2822</v>
+      </c>
+      <c r="B2823" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2823" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2823" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2823" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2823" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2823" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2823">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2824">
+        <v>2823</v>
+      </c>
+      <c r="B2824" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2824" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2824" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2824" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2824" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2824" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2824">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2825">
+        <v>2824</v>
+      </c>
+      <c r="B2825" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2825" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2825" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2825" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2825" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2825" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2825">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2826">
+        <v>2825</v>
+      </c>
+      <c r="B2826" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2826" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2826" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2826" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2826" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2826" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2826">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2827">
+        <v>2826</v>
+      </c>
+      <c r="B2827" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2827" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2827" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2827" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2827" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2827" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2827">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2828">
+        <v>2827</v>
+      </c>
+      <c r="B2828" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2828" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2828" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2828" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2828" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2828" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2828">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2829">
+        <v>2828</v>
+      </c>
+      <c r="B2829" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2829" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2829" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2829" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2829" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2829" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2829">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2830">
+        <v>2829</v>
+      </c>
+      <c r="B2830" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2830" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2830" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2830" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2830" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2830" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2830">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2831">
+        <v>2830</v>
+      </c>
+      <c r="B2831" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2831" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2831" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2831" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2831" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2831" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2831">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2832">
+        <v>2831</v>
+      </c>
+      <c r="B2832" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2832" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2832" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2832" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2832" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2832" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2832">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2833">
+        <v>2832</v>
+      </c>
+      <c r="B2833" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2833" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2833" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2833" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2833" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2833" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2833">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2834">
+        <v>2833</v>
+      </c>
+      <c r="B2834" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2834" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2834" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2834" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2834" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2834" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2834">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2835">
+        <v>2834</v>
+      </c>
+      <c r="B2835" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2835" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2835" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2835" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2835" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2835" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2835">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2836">
+        <v>2835</v>
+      </c>
+      <c r="B2836" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2836" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2836" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2836" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2836" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2836" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2836">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2837">
+        <v>2836</v>
+      </c>
+      <c r="B2837" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2837" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2837" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>50-59</v>
+      </c>
+      <c r="G2837" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2837" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2837" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2837">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2838">
+        <v>2837</v>
+      </c>
+      <c r="B2838" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2838" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2838" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2838" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2838" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2838" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2838">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2839">
+        <v>2838</v>
+      </c>
+      <c r="B2839" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2839" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2839" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2839" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2839" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2839" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2839">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2840">
+        <v>2839</v>
+      </c>
+      <c r="B2840" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2840" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2840" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2840" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2840" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2840" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2840">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2841">
+        <v>2840</v>
+      </c>
+      <c r="B2841" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2841" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2841" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2841" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2841" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2841" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2841">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2842">
+        <v>2841</v>
+      </c>
+      <c r="B2842" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2842" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2842" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2842" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2842" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2842" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2842">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2843">
+        <v>2842</v>
+      </c>
+      <c r="B2843" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2843" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2843" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2843" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2843" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2843" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2843">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2844">
+        <v>2843</v>
+      </c>
+      <c r="B2844" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2844" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2844" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2844" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2844" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2844" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2844">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2845">
+        <v>2844</v>
+      </c>
+      <c r="B2845" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2845" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2845" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2845" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2845" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2845" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2845">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2846">
+        <v>2845</v>
+      </c>
+      <c r="B2846" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2846" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2846" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2846" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2846" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2846" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2846">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2847">
+        <v>2846</v>
+      </c>
+      <c r="B2847" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2847" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2847" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>70-79</v>
+      </c>
+      <c r="G2847" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2847" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2847" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2847">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2848">
+        <v>2847</v>
+      </c>
+      <c r="B2848" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2848" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2848" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2848" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2848" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2848" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2848">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2849">
+        <v>2848</v>
+      </c>
+      <c r="B2849" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2849" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2849" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>10-19</v>
+      </c>
+      <c r="G2849" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2849" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2849" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2849">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2850">
+        <v>2849</v>
+      </c>
+      <c r="B2850" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2850" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2850" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2850" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2850" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2850" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2850">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2851">
+        <v>2850</v>
+      </c>
+      <c r="B2851" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2851" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2851" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2851" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2851" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2851" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2851">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2852">
+        <v>2851</v>
+      </c>
+      <c r="B2852" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2852" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2852" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>20-29</v>
+      </c>
+      <c r="G2852" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2852" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2852" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2852">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2853">
+        <v>2852</v>
+      </c>
+      <c r="B2853" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2853" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2853" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>40-49</v>
+      </c>
+      <c r="G2853" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2853" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2853" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2853">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L2777" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L2853" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781 F1782:F2055 F2056:F2224 F2225:F2474 F2475:F2710 F2778:F2779 F2711:F2777 F2780:F2787" twoDigitTextYear="1"/>
+    <ignoredError sqref="F2 F3:F1407 F1408:F1486 F1487:F1580 F1581:F1781 F1782:F2055 F2056:F2224 F2225:F2474 F2475:F2710 F2711:F2777 F2778:F2854" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>